--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFA31CE-6AC7-4121-9887-B547C6B1213F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DB05A1-596C-4894-A2A4-7A1DE07B4F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -706,6 +706,81 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -720,81 +795,6 @@
     </xf>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2258,10 +2258,10 @@
   <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+      <selection pane="bottomRight" activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,9 +2273,9 @@
     <col min="5" max="5" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
@@ -2358,16 +2358,16 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="92" t="s">
+      <c r="O5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="10"/>
@@ -2394,16 +2394,16 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="93" t="s">
+      <c r="O6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="13"/>
@@ -2426,8 +2426,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2560,104 +2560,104 @@
       <c r="AJ8" s="20"/>
     </row>
     <row r="9" spans="1:36" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="G9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="81" t="s">
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="81" t="s">
+      <c r="Q9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="81" t="s">
+      <c r="R9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="99" t="s">
+      <c r="S9" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="T9" s="71" t="s">
+      <c r="T9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="79" t="s">
+      <c r="U9" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="80"/>
-      <c r="W9" s="81" t="s">
+      <c r="V9" s="89"/>
+      <c r="W9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="X9" s="83" t="s">
+      <c r="X9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="81" t="s">
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="84" t="s">
+      <c r="AC9" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AD9" s="84" t="s">
+      <c r="AD9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="87" t="s">
+      <c r="AE9" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="AF9" s="88" t="s">
+      <c r="AF9" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="AG9" s="81" t="s">
+      <c r="AG9" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="AH9" s="91" t="s">
+      <c r="AH9" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="AI9" s="76" t="s">
+      <c r="AI9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AJ9" s="78" t="s">
+      <c r="AJ9" s="87" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="22" t="s">
         <v>33</v>
       </c>
@@ -2679,18 +2679,18 @@
       <c r="O10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="71"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="96"/>
       <c r="U10" s="22" t="s">
         <v>33</v>
       </c>
       <c r="V10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="W10" s="82"/>
+      <c r="W10" s="80"/>
       <c r="X10" s="24" t="s">
         <v>40</v>
       </c>
@@ -2703,15 +2703,15 @@
       <c r="AA10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="78"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="87"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3175,56 +3175,56 @@
     </row>
     <row r="17" spans="1:36" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="53"/>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
       <c r="L17" s="55"/>
       <c r="S17" s="54"/>
-      <c r="U17" s="73" t="s">
+      <c r="U17" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
       <c r="Y17" s="56"/>
       <c r="Z17" s="57"/>
       <c r="AC17" s="58"/>
       <c r="AD17" s="58"/>
-      <c r="AE17" s="74" t="s">
+      <c r="AE17" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="74"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
       <c r="AJ17" s="59"/>
     </row>
     <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="61"/>
       <c r="R18" s="51"/>
-      <c r="U18" s="75" t="s">
+      <c r="U18" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="V18" s="75"/>
-      <c r="W18" s="75"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
       <c r="AA18" s="51"/>
       <c r="AC18" s="47"/>
       <c r="AD18" s="47"/>
-      <c r="AE18" s="75" t="s">
+      <c r="AE18" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="75"/>
-      <c r="AH18" s="75"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
     </row>
     <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="60"/>
@@ -3421,6 +3421,25 @@
   </sheetData>
   <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="35">
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="AE17:AH17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="AE18:AH18"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="O5:V5"/>
     <mergeCell ref="O6:V6"/>
     <mergeCell ref="I7:J7"/>
@@ -3437,25 +3456,6 @@
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="AE17:AH17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="AE18:AH18"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DB05A1-596C-4894-A2A4-7A1DE07B4F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F796C3-52BD-4090-9F9C-CE6D8B42B19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BẢNG LƯƠNG T07.2024" sheetId="14" r:id="rId1"/>
+    <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
+    <sheet name="Nhân viên" sheetId="14" r:id="rId2"/>
+    <sheet name="Dịch vụ" sheetId="15" r:id="rId3"/>
+    <sheet name="Học việc,thử việc" sheetId="16" r:id="rId4"/>
+    <sheet name="Clone" sheetId="19" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BẢNG LƯƠNG T07.2024'!$A$11:$AJ$14</definedName>
-    <definedName name="bangluong" localSheetId="0">'BẢNG LƯƠNG T07.2024'!$A$9:$AE$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Nhân viên'!$A$11:$AJ$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tất cả'!$A$11:$AK$14</definedName>
+    <definedName name="bangluong" localSheetId="1">'Nhân viên'!$A$9:$AE$14</definedName>
+    <definedName name="bangluong" localSheetId="0">'Tất cả'!$A$9:$AF$14</definedName>
     <definedName name="bangluong">'[1]BẢNG LƯƠNG T10.2022'!$A$10:$AA$20</definedName>
+    <definedName name="BANGLUONGNB" localSheetId="1">#REF!</definedName>
     <definedName name="BANGLUONGNB" localSheetId="0">#REF!</definedName>
     <definedName name="BANGLUONGNB">#REF!</definedName>
-    <definedName name="BHXH" localSheetId="0">'BẢNG LƯƠNG T07.2024'!#REF!</definedName>
+    <definedName name="BHXH" localSheetId="1">'Nhân viên'!#REF!</definedName>
+    <definedName name="BHXH" localSheetId="0">'Tất cả'!#REF!</definedName>
     <definedName name="BHXH">'[1]BẢNG LƯƠNG T10.2022'!$A$25:$M$33</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BẢNG LƯƠNG T07.2024'!$A$1:$AG$18</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BẢNG LƯƠNG T07.2024'!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Nhân viên'!$A$1:$AG$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tất cả'!$A$1:$AH$18</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Nhân viên'!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tất cả'!$9:$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="52">
   <si>
     <t>STT</t>
   </si>
@@ -107,10 +118,6 @@
   <si>
     <t>Ngày công
  thực tế</t>
-  </si>
-  <si>
-    <t>Bổ sung khác 
-(Bù tiền lương T06)</t>
   </si>
   <si>
     <t>Tổng thu nhập</t>
@@ -207,20 +214,33 @@
   <si>
     <t>MÃ NV</t>
   </si>
+  <si>
+    <t>Khoản trừ</t>
+  </si>
+  <si>
+    <t>Bổ sung khác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bổ sung khác </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,8 +419,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,15 +567,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -706,25 +747,28 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,40 +780,19 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,26 +807,60 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="16">
+    <cellStyle name="Comma [0] 2" xfId="11" xr:uid="{C8FA486F-6811-4C43-BAD3-4D636662A213}"/>
     <cellStyle name="Comma 2" xfId="4" xr:uid="{21F37CFA-E56C-4B0B-916A-564B0C4B4126}"/>
+    <cellStyle name="Comma 2 2" xfId="12" xr:uid="{A1347DFF-E638-4470-AC29-6D24095346CF}"/>
     <cellStyle name="Comma 2 4" xfId="5" xr:uid="{65CC9C5D-49D2-489E-8C4A-1EC7F1EDC04B}"/>
+    <cellStyle name="Comma 3" xfId="10" xr:uid="{9F9ACE33-96FE-41C0-A22F-1F00A2B9EDF1}"/>
+    <cellStyle name="Comma 4" xfId="14" xr:uid="{00F85154-8CC3-4B11-80AF-76714FAB84B0}"/>
+    <cellStyle name="Comma 5" xfId="6" xr:uid="{C32E82D7-B78E-4398-A554-4BB1A5AA8C7D}"/>
+    <cellStyle name="Currency [0] 2" xfId="9" xr:uid="{82EED162-9152-4D75-83FF-E306F5F68374}"/>
+    <cellStyle name="Currency 2" xfId="8" xr:uid="{9319C880-26A7-4CA2-8648-5E415C862599}"/>
+    <cellStyle name="Currency 3" xfId="13" xr:uid="{394FB8D4-5CA0-48B9-8838-1881AE772E41}"/>
+    <cellStyle name="Currency 4" xfId="15" xr:uid="{B84CEC2A-81A0-4725-B338-AD1F967D782C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal_Mau 01aTBH va 3aTBH 1643 3" xfId="3" xr:uid="{8C472605-C9F6-4CFB-A6E2-063A5B74105E}"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent 3" xfId="7" xr:uid="{21F95C1F-9277-4605-AB07-7E29AF791091}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2251,17 +2308,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A56AC-9D97-42B4-BD8C-C6FA9C06AF2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB853F3-2F78-4A2F-91BE-FB736F73E2F2}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AD27" sqref="AD27"/>
+      <selection pane="bottomRight" activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,10 +2326,10 @@
     <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
@@ -2280,7 +2337,7 @@
     <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="3" customWidth="1"/>
     <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="11.140625" style="4" customWidth="1"/>
@@ -2293,29 +2350,29 @@
     <col min="26" max="26" width="14.5703125" style="3" customWidth="1"/>
     <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
     <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
-    <col min="29" max="30" width="12.42578125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="15" style="3" customWidth="1"/>
-    <col min="32" max="32" width="15.28515625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" style="3" customWidth="1"/>
-    <col min="34" max="34" width="7.85546875" style="3" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="3"/>
-    <col min="36" max="36" width="40.7109375" style="6" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="3"/>
+    <col min="29" max="31" width="12.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="15" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" style="3" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="3"/>
+    <col min="37" max="37" width="40.7109375" style="6" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2324,7 +2381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2402,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2358,16 +2415,16 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="10"/>
@@ -2380,8 +2437,9 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
-    </row>
-    <row r="6" spans="1:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI5" s="9"/>
+    </row>
+    <row r="6" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2394,16 +2452,16 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="72" t="s">
+      <c r="O6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="13"/>
@@ -2416,8 +2474,9 @@
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
-    </row>
-    <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AI6" s="12"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -2426,8 +2485,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2450,8 +2509,9 @@
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-    </row>
-    <row r="8" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -2542,178 +2602,182 @@
       <c r="AD8" s="19">
         <v>30</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AF8" s="19">
         <v>31</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AG8" s="19">
         <v>32</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AH8" s="19">
         <v>33</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AI8" s="19">
         <v>34</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="AJ8" s="19">
         <v>35</v>
       </c>
-      <c r="AJ8" s="20"/>
-    </row>
-    <row r="9" spans="1:36" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="75" t="s">
+      <c r="AK8" s="20"/>
+    </row>
+    <row r="9" spans="1:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="92"/>
+      <c r="W9" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="89"/>
-      <c r="W9" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="X9" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC9" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD9" s="90" t="s">
+      <c r="AF9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="75" t="s">
+      <c r="AG9" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="AF9" s="93" t="s">
+      <c r="AH9" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AG9" s="78" t="s">
+      <c r="AI9" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="AH9" s="95" t="s">
+      <c r="AJ9" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AI9" s="85" t="s">
+      <c r="AK9" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="AJ9" s="87" t="s">
+    </row>
+    <row r="10" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="22" t="s">
+      <c r="J10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="K10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="L10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="M10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="N10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="O10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="81"/>
+      <c r="X10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" s="80"/>
-      <c r="X10" s="24" t="s">
+      <c r="Y10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="Y10" s="23" t="s">
+      <c r="Z10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="AA10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AA10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="87"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="73"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2795,26 +2859,26 @@
       <c r="AC11" s="3">
         <v>30</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AF11" s="3">
         <v>31</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="3">
         <v>32</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>33</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>34</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>35</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AK11" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -2865,41 +2929,42 @@
         <v>0</v>
       </c>
       <c r="AA12" s="30">
-        <f t="shared" ref="AA12" si="4">ROUND(H12*10.5%,0)</f>
+        <f t="shared" ref="AA12:AA13" si="4">ROUND(H12*10.5%,0)</f>
         <v>0</v>
       </c>
       <c r="AB12" s="33" t="e">
-        <f t="shared" ref="AB12" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
+        <f t="shared" ref="AB12:AB13" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC12" s="34" t="e">
-        <f t="shared" ref="AC12" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
+        <f t="shared" ref="AC12:AC13" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD12" s="34">
-        <f t="shared" ref="AD12" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="30" t="e">
-        <f t="shared" ref="AE12" si="8">ROUND(T12-AA12-AC12-AD12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" ref="AD12:AD13" si="7">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="34"/>
       <c r="AF12" s="30" t="e">
-        <f>AE12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG12" s="35" t="e">
-        <f>IF(AND(AE12&gt;AF12,AF12&gt;0),AE12-AF12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="35" t="e">
-        <f t="shared" ref="AI12:AI13" si="9">+IF(AC12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="68"/>
-    </row>
-    <row r="13" spans="1:36" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>ROUND(T12-AA12-AC12-AD12 - AE12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="30" t="e">
+        <f>AF12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="35" t="e">
+        <f>IF(AND(AF12&gt;AG12,AG12&gt;0),AF12-AG12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="35" t="e">
+        <f t="shared" ref="AJ12:AJ13" si="8">+IF(AC12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="68"/>
+    </row>
+    <row r="13" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -2950,43 +3015,44 @@
         <v>0</v>
       </c>
       <c r="AA13" s="30">
-        <f t="shared" ref="AA13" si="10">ROUND(H13*10.5%,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB13" s="33" t="e">
-        <f t="shared" ref="AB13" si="11">+IF(W13-X13-Z13-AA13&gt;0,W13-X13-Z13-AA13,0)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC13" s="34" t="e">
-        <f t="shared" ref="AC13" si="12">ROUND(IF(AB13&gt;80000000,AB13*35%-9850000,IF(AB13&gt;52000000,AB13*30%-5850000,IF(AB13&gt;32000000,AB13*25%-3250000,IF(AB13&gt;18000000,AB13*20%-1650000,IF(AB13&gt;10000000,AB13*15%-750000,IF(AB13&gt;5000000,AB13*10%-250000,IF(AB13&gt;0,AB13*5%,0))))))),0)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD13" s="34">
-        <f t="shared" ref="AD13" si="13">ROUND(H13*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="30" t="e">
-        <f t="shared" ref="AE13" si="14">ROUND(T13-AA13-AC13-AD13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="34"/>
       <c r="AF13" s="30" t="e">
-        <f>AE13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG13" s="35" t="e">
-        <f>IF(AND(AE13&gt;AF13,AF13&gt;0),AE13-AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="35" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="68"/>
-    </row>
-    <row r="14" spans="1:36" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>ROUND(T13-AA13-AC13-AD13 - AE13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" s="30" t="e">
+        <f>AF13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="35" t="e">
+        <f>IF(AND(AF13&gt;AG13,AG13&gt;0),AF13-AG13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="35" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="68"/>
+    </row>
+    <row r="14" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="38"/>
@@ -2994,124 +3060,128 @@
       <c r="E14" s="39"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41">
-        <f t="shared" ref="G14:AI14" si="15">+SUBTOTAL(9,G12:G13)</f>
+        <f t="shared" ref="G14:AJ14" si="9">+SUBTOTAL(9,G12:G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T14" s="42" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W14" s="41" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y14" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA14" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB14" s="41" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC14" s="42" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD14" s="42">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="42" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF14" s="44" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG14" s="41" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="41" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="36"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="36"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
@@ -3142,11 +3212,12 @@
       <c r="AB15" s="50"/>
       <c r="AC15"/>
       <c r="AD15"/>
-      <c r="AE15" s="51"/>
+      <c r="AE15"/>
       <c r="AF15" s="51"/>
       <c r="AG15" s="51"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH15" s="51"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46"/>
@@ -3169,64 +3240,66 @@
       <c r="T16" s="47"/>
       <c r="U16" s="47"/>
       <c r="V16" s="47"/>
-      <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:36" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="53"/>
-      <c r="F17" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
+      <c r="F17" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
       <c r="L17" s="55"/>
       <c r="S17" s="54"/>
-      <c r="U17" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
+      <c r="U17" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
       <c r="Y17" s="56"/>
       <c r="Z17" s="57"/>
       <c r="AC17" s="58"/>
       <c r="AD17" s="58"/>
-      <c r="AE17" s="99" t="s">
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AK17" s="59"/>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="99"/>
-      <c r="AJ17" s="59"/>
-    </row>
-    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="61"/>
       <c r="R18" s="51"/>
-      <c r="U18" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="V18" s="100"/>
-      <c r="W18" s="100"/>
+      <c r="U18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
       <c r="AA18" s="51"/>
       <c r="AC18" s="47"/>
       <c r="AD18" s="47"/>
-      <c r="AE18" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF18" s="100"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="100"/>
-    </row>
-    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
@@ -3252,14 +3325,15 @@
       <c r="AB19" s="60"/>
       <c r="AC19" s="63"/>
       <c r="AD19" s="63"/>
-      <c r="AE19" s="60"/>
+      <c r="AE19" s="63"/>
       <c r="AF19" s="60"/>
       <c r="AG19" s="60"/>
       <c r="AH19" s="60"/>
       <c r="AI19" s="60"/>
-      <c r="AJ19" s="64"/>
-    </row>
-    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="64"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
@@ -3274,12 +3348,13 @@
       <c r="AB20" s="51"/>
       <c r="AC20" s="47"/>
       <c r="AD20" s="47"/>
-      <c r="AE20" s="60"/>
+      <c r="AE20" s="47"/>
       <c r="AF20" s="60"/>
       <c r="AG20" s="60"/>
       <c r="AH20" s="60"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AI20" s="60"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="46"/>
@@ -3307,11 +3382,12 @@
       <c r="AB21" s="51"/>
       <c r="AC21" s="51"/>
       <c r="AD21" s="51"/>
-      <c r="AE21" s="4"/>
+      <c r="AE21" s="51"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH21" s="4"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
@@ -3335,11 +3411,11 @@
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
       <c r="W22" s="66"/>
-      <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH22" s="4"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
       <c r="C23" s="46"/>
@@ -3373,8 +3449,9 @@
       <c r="AE23" s="47"/>
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AH23" s="47"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -3393,7 +3470,7 @@
       <c r="U24"/>
       <c r="W24" s="66"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -3412,46 +3489,47 @@
       <c r="U25"/>
       <c r="W25" s="66"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="W26" s="66"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="T28" s="51"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="35">
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="AE17:AH17"/>
+  <autoFilter ref="A11:AK14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="36">
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="U18:W18"/>
-    <mergeCell ref="AE18:AH18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:AA9"/>
     <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:O9"/>
     <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O6:V6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
@@ -3464,7 +3542,4931 @@
     <brk id="18" max="33" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
+    <brk id="34" max="66" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A56AC-9D97-42B4-BD8C-C6FA9C06AF2D}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AK28"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="AD14" sqref="AD14:AE14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15" style="3" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
+    <col min="29" max="31" width="12.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="15" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" style="3" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="3"/>
+    <col min="37" max="37" width="40.7109375" style="6" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="AA3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+    </row>
+    <row r="6" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19">
+        <v>6</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>8</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9</v>
+      </c>
+      <c r="J8" s="19">
+        <v>10</v>
+      </c>
+      <c r="K8" s="19">
+        <v>11</v>
+      </c>
+      <c r="L8" s="19">
+        <v>12</v>
+      </c>
+      <c r="M8" s="19">
+        <v>13</v>
+      </c>
+      <c r="N8" s="19">
+        <v>14</v>
+      </c>
+      <c r="O8" s="19">
+        <v>15</v>
+      </c>
+      <c r="P8" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19">
+        <v>19</v>
+      </c>
+      <c r="T8" s="19">
+        <v>20</v>
+      </c>
+      <c r="U8" s="19">
+        <v>21</v>
+      </c>
+      <c r="V8" s="19">
+        <v>22</v>
+      </c>
+      <c r="W8" s="19">
+        <v>23</v>
+      </c>
+      <c r="X8" s="19">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>31</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>32</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>33</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>34</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>35</v>
+      </c>
+      <c r="AK8" s="20"/>
+    </row>
+    <row r="9" spans="1:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="92"/>
+      <c r="W9" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG9" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH9" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI9" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ9" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="81"/>
+      <c r="X10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="73"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3">
+        <v>13</v>
+      </c>
+      <c r="N11" s="3">
+        <v>14</v>
+      </c>
+      <c r="O11" s="3">
+        <v>15</v>
+      </c>
+      <c r="P11" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>17</v>
+      </c>
+      <c r="R11" s="3">
+        <v>18</v>
+      </c>
+      <c r="T11" s="3">
+        <v>20</v>
+      </c>
+      <c r="U11" s="3">
+        <v>21</v>
+      </c>
+      <c r="V11" s="3">
+        <v>22</v>
+      </c>
+      <c r="W11" s="3">
+        <v>23</v>
+      </c>
+      <c r="X11" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>27</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>29</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>32</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>33</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>34</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>35</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30">
+        <f t="shared" ref="H12:H13" si="0">+G12+O12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="69">
+        <f t="shared" ref="P12:P13" si="1">SUM(I12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="32" t="e">
+        <f t="shared" ref="T12:T13" si="2">ROUND(((G12+P12+Q12)/F12*R12)+S12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="70">
+        <f>+I12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="70">
+        <f>+N12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="30" t="e">
+        <f t="shared" ref="W12:W13" si="3">+T12-U12-V12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="30">
+        <f>4400000*Y12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="30">
+        <f t="shared" ref="AA12:AA13" si="4">ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="33" t="e">
+        <f t="shared" ref="AB12:AB13" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" s="34" t="e">
+        <f t="shared" ref="AC12:AC13" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="34">
+        <f t="shared" ref="AD12:AD13" si="7">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="30" t="e">
+        <f>ROUND(T12-AA12-AC12-AD12 - AE12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="30" t="e">
+        <f>AF12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="35" t="e">
+        <f>IF(AND(AF12&gt;AG12,AG12&gt;0),AF12-AG12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="35" t="e">
+        <f t="shared" ref="AJ12:AJ13" si="8">+IF(AC12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="68"/>
+    </row>
+    <row r="13" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="70">
+        <f>+I13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="70">
+        <f>+N13</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>4400000*Y13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC13" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="30" t="e">
+        <f>ROUND(T13-AA13-AC13-AD13 - AE13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" s="30" t="e">
+        <f>AF13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="35" t="e">
+        <f>IF(AND(AF13&gt;AG13,AG13&gt;0),AF13-AG13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="35" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="68"/>
+    </row>
+    <row r="14" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41">
+        <f t="shared" ref="G14:AJ14" si="9">+SUBTOTAL(9,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="36"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="48"/>
+      <c r="X15"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="53"/>
+      <c r="F17" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="S17" s="54"/>
+      <c r="U17" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="57"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AK17" s="59"/>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="61"/>
+      <c r="R18" s="51"/>
+      <c r="U18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="AA18" s="51"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="64"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="L20" s="61"/>
+      <c r="R20" s="51"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="65"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="66"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24" s="48"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="W24" s="66"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="47"/>
+      <c r="U25"/>
+      <c r="W25" s="66"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="W26" s="66"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="T28" s="51"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="36">
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="33" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
     <brk id="33" max="66" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
+  <dimension ref="A1:AK28"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="AE13" sqref="AE13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15" style="3" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
+    <col min="29" max="31" width="12.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="15" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" style="3" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="3"/>
+    <col min="37" max="37" width="40.7109375" style="6" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="AA3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+    </row>
+    <row r="6" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19">
+        <v>6</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>8</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9</v>
+      </c>
+      <c r="J8" s="19">
+        <v>10</v>
+      </c>
+      <c r="K8" s="19">
+        <v>11</v>
+      </c>
+      <c r="L8" s="19">
+        <v>12</v>
+      </c>
+      <c r="M8" s="19">
+        <v>13</v>
+      </c>
+      <c r="N8" s="19">
+        <v>14</v>
+      </c>
+      <c r="O8" s="19">
+        <v>15</v>
+      </c>
+      <c r="P8" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19">
+        <v>19</v>
+      </c>
+      <c r="T8" s="19">
+        <v>20</v>
+      </c>
+      <c r="U8" s="19">
+        <v>21</v>
+      </c>
+      <c r="V8" s="19">
+        <v>22</v>
+      </c>
+      <c r="W8" s="19">
+        <v>23</v>
+      </c>
+      <c r="X8" s="19">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>31</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>32</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>33</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>34</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>35</v>
+      </c>
+      <c r="AK8" s="20"/>
+    </row>
+    <row r="9" spans="1:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="92"/>
+      <c r="W9" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG9" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH9" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI9" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ9" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="81"/>
+      <c r="X10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="73"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3">
+        <v>13</v>
+      </c>
+      <c r="N11" s="3">
+        <v>14</v>
+      </c>
+      <c r="O11" s="3">
+        <v>15</v>
+      </c>
+      <c r="P11" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>17</v>
+      </c>
+      <c r="R11" s="3">
+        <v>18</v>
+      </c>
+      <c r="T11" s="3">
+        <v>20</v>
+      </c>
+      <c r="U11" s="3">
+        <v>21</v>
+      </c>
+      <c r="V11" s="3">
+        <v>22</v>
+      </c>
+      <c r="W11" s="3">
+        <v>23</v>
+      </c>
+      <c r="X11" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>27</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>29</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>32</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>33</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>34</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>35</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30">
+        <f t="shared" ref="H12:H13" si="0">+G12+O12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="69">
+        <f t="shared" ref="P12:P13" si="1">SUM(I12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="32" t="e">
+        <f t="shared" ref="T12:T13" si="2">ROUND(((G12+P12+Q12)/F12*R12)+S12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="70">
+        <f>+I12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="70">
+        <f>+N12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="30" t="e">
+        <f t="shared" ref="W12:W13" si="3">+T12-U12-V12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="30">
+        <f>4400000*Y12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="30">
+        <f t="shared" ref="AA12:AA13" si="4">ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="33" t="e">
+        <f t="shared" ref="AB12:AB13" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" s="34" t="e">
+        <f t="shared" ref="AC12:AC13" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="34">
+        <f t="shared" ref="AD12:AD13" si="7">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="30" t="e">
+        <f>ROUND(T12-AA12-AC12-AD12 - AE12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="30" t="e">
+        <f>AF12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="35" t="e">
+        <f>IF(AND(AF12&gt;AG12,AG12&gt;0),AF12-AG12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="35" t="e">
+        <f t="shared" ref="AJ12:AJ13" si="8">+IF(AC12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="68"/>
+    </row>
+    <row r="13" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="70">
+        <f>+I13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="70">
+        <f>+N13</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>4400000*Y13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC13" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="30" t="e">
+        <f>ROUND(T13-AA13-AC13-AD13 - AE13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" s="30" t="e">
+        <f>AF13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="35" t="e">
+        <f>IF(AND(AF13&gt;AG13,AG13&gt;0),AF13-AG13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="35" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="68"/>
+    </row>
+    <row r="14" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41">
+        <f t="shared" ref="G14:AJ14" si="9">+SUBTOTAL(9,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="36"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="48"/>
+      <c r="X15"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="53"/>
+      <c r="F17" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="S17" s="54"/>
+      <c r="U17" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="57"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AK17" s="59"/>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="61"/>
+      <c r="R18" s="51"/>
+      <c r="U18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="AA18" s="51"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="64"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="L20" s="61"/>
+      <c r="R20" s="51"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="65"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="66"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24" s="48"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="W24" s="66"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="47"/>
+      <c r="U25"/>
+      <c r="W25" s="66"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="W26" s="66"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="T28" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:V9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
+  <dimension ref="A1:AK28"/>
+  <sheetViews>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="AD14" sqref="AD14:AE14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15" style="3" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
+    <col min="29" max="31" width="12.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="15" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" style="3" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="3"/>
+    <col min="37" max="37" width="40.7109375" style="6" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="AA3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+    </row>
+    <row r="6" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19">
+        <v>6</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>8</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9</v>
+      </c>
+      <c r="J8" s="19">
+        <v>10</v>
+      </c>
+      <c r="K8" s="19">
+        <v>11</v>
+      </c>
+      <c r="L8" s="19">
+        <v>12</v>
+      </c>
+      <c r="M8" s="19">
+        <v>13</v>
+      </c>
+      <c r="N8" s="19">
+        <v>14</v>
+      </c>
+      <c r="O8" s="19">
+        <v>15</v>
+      </c>
+      <c r="P8" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19">
+        <v>19</v>
+      </c>
+      <c r="T8" s="19">
+        <v>20</v>
+      </c>
+      <c r="U8" s="19">
+        <v>21</v>
+      </c>
+      <c r="V8" s="19">
+        <v>22</v>
+      </c>
+      <c r="W8" s="19">
+        <v>23</v>
+      </c>
+      <c r="X8" s="19">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>31</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>32</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>33</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>34</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>35</v>
+      </c>
+      <c r="AK8" s="20"/>
+    </row>
+    <row r="9" spans="1:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="92"/>
+      <c r="W9" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG9" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH9" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI9" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ9" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="81"/>
+      <c r="X10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="73"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3">
+        <v>13</v>
+      </c>
+      <c r="N11" s="3">
+        <v>14</v>
+      </c>
+      <c r="O11" s="3">
+        <v>15</v>
+      </c>
+      <c r="P11" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>17</v>
+      </c>
+      <c r="R11" s="3">
+        <v>18</v>
+      </c>
+      <c r="T11" s="3">
+        <v>20</v>
+      </c>
+      <c r="U11" s="3">
+        <v>21</v>
+      </c>
+      <c r="V11" s="3">
+        <v>22</v>
+      </c>
+      <c r="W11" s="3">
+        <v>23</v>
+      </c>
+      <c r="X11" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>27</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>29</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>32</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>33</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>34</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>35</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30">
+        <f t="shared" ref="H12:H13" si="0">+G12+O12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="69">
+        <f t="shared" ref="P12:P13" si="1">SUM(I12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="32" t="e">
+        <f t="shared" ref="T12:T13" si="2">ROUND(((G12+P12+Q12)/F12*R12)+S12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="70">
+        <f>+I12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="70">
+        <f>+N12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="30" t="e">
+        <f t="shared" ref="W12:W13" si="3">+T12-U12-V12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="30">
+        <f>4400000*Y12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="30">
+        <f t="shared" ref="AA12:AA13" si="4">ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="33" t="e">
+        <f t="shared" ref="AB12:AB13" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" s="34" t="e">
+        <f t="shared" ref="AC12:AC13" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="34">
+        <f t="shared" ref="AD12:AD13" si="7">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="30" t="e">
+        <f>ROUND(T12-AA12-AC12-AD12 - AE12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="30" t="e">
+        <f>AF12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="35" t="e">
+        <f>IF(AND(AF12&gt;AG12,AG12&gt;0),AF12-AG12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="35" t="e">
+        <f t="shared" ref="AJ12:AJ13" si="8">+IF(AC12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="68"/>
+    </row>
+    <row r="13" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="70">
+        <f>+I13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="70">
+        <f>+N13</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>4400000*Y13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC13" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="30" t="e">
+        <f>ROUND(T13-AA13-AC13-AD13 - AE13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" s="30" t="e">
+        <f>AF13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="35" t="e">
+        <f>IF(AND(AF13&gt;AG13,AG13&gt;0),AF13-AG13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="35" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="68"/>
+    </row>
+    <row r="14" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41">
+        <f t="shared" ref="G14:AJ14" si="9">+SUBTOTAL(9,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="36"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="48"/>
+      <c r="X15"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="53"/>
+      <c r="F17" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="S17" s="54"/>
+      <c r="U17" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="57"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AK17" s="59"/>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="61"/>
+      <c r="R18" s="51"/>
+      <c r="U18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="AA18" s="51"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="64"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="L20" s="61"/>
+      <c r="R20" s="51"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="65"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="66"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24" s="48"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="W24" s="66"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="47"/>
+      <c r="U25"/>
+      <c r="W25" s="66"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="W26" s="66"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="T28" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:V9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BE417A-60B7-46CC-952E-E46FBED66C4F}">
+  <dimension ref="A1:AK28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="W12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="AE14" sqref="AE14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15" style="3" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
+    <col min="29" max="31" width="12.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="15" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" style="3" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="3"/>
+    <col min="37" max="37" width="40.7109375" style="6" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="AA3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+    </row>
+    <row r="6" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19">
+        <v>6</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>8</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9</v>
+      </c>
+      <c r="J8" s="19">
+        <v>10</v>
+      </c>
+      <c r="K8" s="19">
+        <v>11</v>
+      </c>
+      <c r="L8" s="19">
+        <v>12</v>
+      </c>
+      <c r="M8" s="19">
+        <v>13</v>
+      </c>
+      <c r="N8" s="19">
+        <v>14</v>
+      </c>
+      <c r="O8" s="19">
+        <v>15</v>
+      </c>
+      <c r="P8" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19">
+        <v>19</v>
+      </c>
+      <c r="T8" s="19">
+        <v>20</v>
+      </c>
+      <c r="U8" s="19">
+        <v>21</v>
+      </c>
+      <c r="V8" s="19">
+        <v>22</v>
+      </c>
+      <c r="W8" s="19">
+        <v>23</v>
+      </c>
+      <c r="X8" s="19">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>31</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>32</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>33</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>34</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>35</v>
+      </c>
+      <c r="AK8" s="20"/>
+    </row>
+    <row r="9" spans="1:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="92"/>
+      <c r="W9" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG9" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH9" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI9" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ9" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="81"/>
+      <c r="X10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="73"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3">
+        <v>13</v>
+      </c>
+      <c r="N11" s="3">
+        <v>14</v>
+      </c>
+      <c r="O11" s="3">
+        <v>15</v>
+      </c>
+      <c r="P11" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>17</v>
+      </c>
+      <c r="R11" s="3">
+        <v>18</v>
+      </c>
+      <c r="T11" s="3">
+        <v>20</v>
+      </c>
+      <c r="U11" s="3">
+        <v>21</v>
+      </c>
+      <c r="V11" s="3">
+        <v>22</v>
+      </c>
+      <c r="W11" s="3">
+        <v>23</v>
+      </c>
+      <c r="X11" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>27</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>29</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>32</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>33</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>34</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>35</v>
+      </c>
+      <c r="AK11" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30">
+        <f t="shared" ref="H12:H13" si="0">+G12+O12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="69">
+        <f t="shared" ref="P12:P13" si="1">SUM(I12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="32" t="e">
+        <f t="shared" ref="T12:T13" si="2">ROUND(((G12+P12+Q12)/F12*R12)+S12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="70">
+        <f>+I12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="70">
+        <f>+N12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="30" t="e">
+        <f t="shared" ref="W12:W13" si="3">+T12-U12-V12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="30">
+        <f>4400000*Y12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="30">
+        <f t="shared" ref="AA12:AA13" si="4">ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="33" t="e">
+        <f t="shared" ref="AB12:AB13" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" s="34" t="e">
+        <f t="shared" ref="AC12:AC13" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="34">
+        <f t="shared" ref="AD12:AD13" si="7">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="30" t="e">
+        <f>ROUND(T12-AA12-AC12-AD12 - AE12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="30" t="e">
+        <f>AF12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="35" t="e">
+        <f>IF(AND(AF12&gt;AG12,AG12&gt;0),AF12-AG12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="35" t="e">
+        <f t="shared" ref="AJ12:AJ13" si="8">+IF(AC12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="68"/>
+    </row>
+    <row r="13" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" s="70">
+        <f>+I13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="70">
+        <f>+N13</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="30">
+        <f>4400000*Y13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC13" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="30" t="e">
+        <f>ROUND(T13-AA13-AC13-AD13 - AE13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" s="30" t="e">
+        <f>AF13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="35" t="e">
+        <f>IF(AND(AF13&gt;AG13,AG13&gt;0),AF13-AG13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="35" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="68"/>
+    </row>
+    <row r="14" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41">
+        <f t="shared" ref="G14:AJ14" si="9">+SUBTOTAL(9,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="36"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="48"/>
+      <c r="X15"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="53"/>
+      <c r="F17" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="S17" s="54"/>
+      <c r="U17" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="57"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AK17" s="59"/>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="L18" s="61"/>
+      <c r="R18" s="51"/>
+      <c r="U18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="AA18" s="51"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="64"/>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="L20" s="61"/>
+      <c r="R20" s="51"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="65"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="66"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24" s="48"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="W24" s="66"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="47"/>
+      <c r="U25"/>
+      <c r="W25" s="66"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="W26" s="66"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="T28" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F796C3-52BD-4090-9F9C-CE6D8B42B19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3E9EB-543E-4CD2-8B7B-ADD6F701D553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Nhân viên'!$A$11:$AJ$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tất cả'!$A$11:$AK$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tất cả'!$A$11:$AL$14</definedName>
     <definedName name="bangluong" localSheetId="1">'Nhân viên'!$A$9:$AE$14</definedName>
-    <definedName name="bangluong" localSheetId="0">'Tất cả'!$A$9:$AF$14</definedName>
+    <definedName name="bangluong" localSheetId="0">'Tất cả'!$A$9:$AG$14</definedName>
     <definedName name="bangluong">'[1]BẢNG LƯƠNG T10.2022'!$A$10:$AA$20</definedName>
     <definedName name="BANGLUONGNB" localSheetId="1">#REF!</definedName>
     <definedName name="BANGLUONGNB" localSheetId="0">#REF!</definedName>
@@ -37,7 +37,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Nhân viên'!$A$1:$AG$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tất cả'!$A$1:$AH$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tất cả'!$A$1:$AI$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Nhân viên'!$9:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tất cả'!$9:$10</definedName>
   </definedNames>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Chức vụ</t>
-  </si>
-  <si>
-    <t>Phân loại</t>
   </si>
   <si>
     <t>Ngày công 
@@ -166,22 +163,7 @@
     <t>Trang phục</t>
   </si>
   <si>
-    <t>Điện thoại</t>
-  </si>
-  <si>
-    <t>Xăng xe</t>
-  </si>
-  <si>
-    <t>Ăn trưa</t>
-  </si>
-  <si>
-    <t>Phụ cấp chuyên cần</t>
-  </si>
-  <si>
     <t>Phụ cấp ăn ca</t>
-  </si>
-  <si>
-    <t>Phụ cấp chức vụ</t>
   </si>
   <si>
     <t xml:space="preserve">Bản thân </t>
@@ -221,24 +203,47 @@
     <t>Bổ sung khác</t>
   </si>
   <si>
-    <t xml:space="preserve">Bổ sung khác </t>
+    <t>Đi lại</t>
+  </si>
+  <si>
+    <t>Trách nhiệm</t>
+  </si>
+  <si>
+    <t>Khu vực</t>
+  </si>
+  <si>
+    <t>Thu hút</t>
+  </si>
+  <si>
+    <t>Thâm niên</t>
+  </si>
+  <si>
+    <t>Bằng cấp</t>
+  </si>
+  <si>
+    <t>Hiệu suất</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Bộ phận</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="10">
+  <numFmts count="9">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -425,7 +430,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,12 +464,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,18 +573,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -835,12 +834,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2312,13 +2305,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AE17" sqref="AE17"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,60 +2321,62 @@
     <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15" style="3" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
-    <col min="29" max="31" width="12.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="15" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15.28515625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="13.85546875" style="3" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="3"/>
-    <col min="37" max="37" width="40.7109375" style="6" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15" style="3" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
+    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15" style="3" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="3"/>
+    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2398,11 +2393,12 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2415,20 +2411,20 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="95" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="95"/>
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="95"/>
       <c r="V5" s="95"/>
-      <c r="W5" s="9"/>
+      <c r="W5" s="95"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="10"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -2438,8 +2434,9 @@
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
-    </row>
-    <row r="6" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="9"/>
+    </row>
+    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2452,20 +2449,20 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="96" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="96"/>
       <c r="Q6" s="96"/>
       <c r="R6" s="96"/>
       <c r="S6" s="96"/>
       <c r="T6" s="96"/>
       <c r="U6" s="96"/>
       <c r="V6" s="96"/>
-      <c r="W6" s="12"/>
+      <c r="W6" s="96"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="13"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
@@ -2475,8 +2472,9 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
-    </row>
-    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="12"/>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -2495,23 +2493,24 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="17"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -2602,29 +2601,37 @@
       <c r="AD8" s="19">
         <v>30</v>
       </c>
+      <c r="AE8" s="19">
+        <v>31</v>
+      </c>
       <c r="AF8" s="19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG8" s="19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH8" s="19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI8" s="19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AJ8" s="19">
-        <v>35</v>
-      </c>
-      <c r="AK8" s="20"/>
-    </row>
-    <row r="9" spans="1:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>37</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="99" t="s">
         <v>9</v>
@@ -2633,19 +2640,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="G9" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="H9" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="I9" s="93" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>15</v>
       </c>
       <c r="J9" s="93"/>
       <c r="K9" s="93"/>
@@ -2653,66 +2660,67 @@
       <c r="M9" s="93"/>
       <c r="N9" s="93"/>
       <c r="O9" s="93"/>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="93"/>
+      <c r="Q9" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="79" t="s">
+      <c r="S9" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="79" t="s">
+      <c r="T9" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" s="90" t="s">
+      <c r="V9" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="91" t="s">
+      <c r="W9" s="92"/>
+      <c r="X9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="92"/>
-      <c r="W9" s="79" t="s">
+      <c r="Y9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="93"/>
       <c r="Z9" s="93"/>
       <c r="AA9" s="93"/>
-      <c r="AB9" s="79" t="s">
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="71" t="s">
+      <c r="AE9" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="71" t="s">
+      <c r="AF9" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF9" s="86" t="s">
+      <c r="AH9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AG9" s="87" t="s">
+      <c r="AI9" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="AH9" s="79" t="s">
+      <c r="AJ9" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AI9" s="89" t="s">
+      <c r="AK9" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AJ9" s="77" t="s">
+      <c r="AL9" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AK9" s="73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="98"/>
       <c r="C10" s="100"/>
@@ -2722,62 +2730,65 @@
       <c r="G10" s="79"/>
       <c r="H10" s="79"/>
       <c r="I10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="X10" s="81"/>
+      <c r="Y10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="Z10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="AA10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="AB10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" s="81"/>
-      <c r="X10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="73"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="73"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2817,68 +2828,68 @@
       <c r="N11" s="3">
         <v>14</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>15</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>16</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>17</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>18</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>20</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <v>21</v>
       </c>
-      <c r="V11" s="3">
+      <c r="W11" s="3">
         <v>22</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>23</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>24</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Z11" s="5">
         <v>25</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <v>26</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>27</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>29</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>30</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="3">
         <v>31</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>32</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>33</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>34</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AK11" s="3">
         <v>35</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AL11" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -2887,7 +2898,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30">
-        <f t="shared" ref="H12:H13" si="0">+G12+O12</f>
+        <f t="shared" ref="H12:H13" si="0">+G12+P12</f>
         <v>0</v>
       </c>
       <c r="I12" s="30"/>
@@ -2897,74 +2908,75 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
-      <c r="P12" s="69">
-        <f t="shared" ref="P12:P13" si="1">SUM(I12:O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="32" t="e">
-        <f t="shared" ref="T12:T13" si="2">ROUND(((G12+P12+Q12)/F12*R12)+S12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="70">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="69">
+        <f t="shared" ref="Q12:Q13" si="1">SUM(I12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="30"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="32" t="e">
+        <f t="shared" ref="U12:U13" si="2">ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="70">
         <f>+I12</f>
         <v>0</v>
       </c>
-      <c r="V12" s="70">
+      <c r="W12" s="70">
         <f>+N12</f>
         <v>0</v>
       </c>
-      <c r="W12" s="30" t="e">
-        <f t="shared" ref="W12:W13" si="3">+T12-U12-V12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="30">
-        <f>4400000*Y12</f>
+      <c r="X12" s="30" t="e">
+        <f t="shared" ref="X12:X13" si="3">+U12-V12-W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="32">
         <v>0</v>
       </c>
       <c r="AA12" s="30">
-        <f t="shared" ref="AA12:AA13" si="4">ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="33" t="e">
-        <f t="shared" ref="AB12:AB13" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC12" s="34" t="e">
-        <f t="shared" ref="AC12:AC13" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="34">
-        <f t="shared" ref="AD12:AD13" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="30" t="e">
-        <f>ROUND(T12-AA12-AC12-AD12 - AE12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>4400000*Z12</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="30">
+        <f t="shared" ref="AB12:AB13" si="4">ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="33" t="e">
+        <f t="shared" ref="AC12:AC13" si="5">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="34" t="e">
+        <f t="shared" ref="AD12:AD13" si="6">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="34">
+        <f t="shared" ref="AE12:AE13" si="7">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="34"/>
       <c r="AG12" s="30" t="e">
-        <f>AF12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="35" t="e">
-        <f>IF(AND(AF12&gt;AG12,AG12&gt;0),AF12-AG12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="35" t="e">
-        <f t="shared" ref="AJ12:AJ13" si="8">+IF(AC12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="68"/>
-    </row>
-    <row r="13" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="30" t="e">
+        <f>AG12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="35" t="e">
+        <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="35" t="e">
+        <f t="shared" ref="AK12:AK13" si="8">+IF(AD12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="68"/>
+    </row>
+    <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -2983,76 +2995,77 @@
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
-      <c r="P13" s="69">
+      <c r="P13" s="30"/>
+      <c r="Q13" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="32" t="e">
+      <c r="R13" s="30"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="70">
+      <c r="V13" s="70">
         <f>+I13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="70">
+      <c r="W13" s="70">
         <f>+N13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="30" t="e">
+      <c r="X13" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="30">
-        <f>4400000*Y13</f>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="32">
         <v>0</v>
       </c>
       <c r="AA13" s="30">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="33" t="e">
+      <c r="AC13" s="33" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="34" t="e">
+      <c r="AD13" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="34">
+      <c r="AE13" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="30" t="e">
-        <f>ROUND(T13-AA13-AC13-AD13 - AE13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AF13" s="34"/>
       <c r="AG13" s="30" t="e">
-        <f>AF13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="35" t="e">
-        <f>IF(AND(AF13&gt;AG13,AG13&gt;0),AF13-AG13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="35" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="30" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="35" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="35" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK13" s="68"/>
-    </row>
-    <row r="14" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL13" s="68"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="38"/>
@@ -3060,7 +3073,7 @@
       <c r="E14" s="39"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41">
-        <f t="shared" ref="G14:AJ14" si="9">+SUBTOTAL(9,G12:G13)</f>
+        <f t="shared" ref="G14:AK14" si="9">+SUBTOTAL(9,G12:G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="41">
@@ -3091,10 +3104,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="O14" s="41"/>
       <c r="P14" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -3111,31 +3121,31 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="T14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V14" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="41">
+      <c r="W14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -3143,45 +3153,49 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="AB14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE14" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG14" s="44" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="36"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="36"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
@@ -3200,24 +3214,25 @@
       <c r="P15" s="47"/>
       <c r="Q15" s="47"/>
       <c r="R15" s="47"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="16"/>
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
-      <c r="W15" s="48"/>
-      <c r="X15"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="48"/>
+      <c r="Y15"/>
+      <c r="Z15" s="49"/>
       <c r="AA15"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15"/>
+      <c r="AB15"/>
+      <c r="AC15" s="50"/>
       <c r="AD15"/>
       <c r="AE15"/>
-      <c r="AF15" s="51"/>
+      <c r="AF15"/>
       <c r="AG15" s="51"/>
       <c r="AH15" s="51"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI15" s="51"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46"/>
@@ -3233,73 +3248,74 @@
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
-      <c r="P16" s="47"/>
+      <c r="P16" s="45"/>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="16"/>
       <c r="U16" s="47"/>
       <c r="V16" s="47"/>
-      <c r="AF16" s="4"/>
+      <c r="W16" s="47"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI16" s="4"/>
+    </row>
+    <row r="17" spans="1:38" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="53"/>
       <c r="F17" s="74" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
       <c r="L17" s="55"/>
-      <c r="S17" s="54"/>
-      <c r="U17" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="V17" s="75"/>
+      <c r="T17" s="54"/>
+      <c r="V17" s="75" t="s">
+        <v>39</v>
+      </c>
       <c r="W17" s="75"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="57"/>
-      <c r="AC17" s="58"/>
+      <c r="X17" s="75"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
       <c r="AD17" s="58"/>
       <c r="AE17" s="58"/>
-      <c r="AF17" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG17" s="76"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="76" t="s">
+        <v>40</v>
+      </c>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
-      <c r="AK17" s="59"/>
-    </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="76"/>
+      <c r="AL17" s="59"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="84" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="61"/>
-      <c r="R18" s="51"/>
-      <c r="U18" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="V18" s="84"/>
+      <c r="S18" s="51"/>
+      <c r="V18" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="W18" s="84"/>
-      <c r="AA18" s="51"/>
-      <c r="AC18" s="47"/>
+      <c r="X18" s="84"/>
+      <c r="AB18" s="51"/>
       <c r="AD18" s="47"/>
       <c r="AE18" s="47"/>
-      <c r="AF18" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG18" s="84"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="AH18" s="84"/>
       <c r="AI18" s="84"/>
-    </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="84"/>
+    </row>
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
@@ -3319,42 +3335,43 @@
       <c r="V19" s="60"/>
       <c r="W19" s="60"/>
       <c r="X19" s="60"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="62"/>
       <c r="AA19" s="60"/>
       <c r="AB19" s="60"/>
-      <c r="AC19" s="63"/>
+      <c r="AC19" s="60"/>
       <c r="AD19" s="63"/>
       <c r="AE19" s="63"/>
-      <c r="AF19" s="60"/>
+      <c r="AF19" s="63"/>
       <c r="AG19" s="60"/>
       <c r="AH19" s="60"/>
       <c r="AI19" s="60"/>
       <c r="AJ19" s="60"/>
-      <c r="AK19" s="64"/>
-    </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="64"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="61"/>
-      <c r="R20" s="51"/>
-      <c r="U20" s="60"/>
+      <c r="S20" s="51"/>
       <c r="V20" s="60"/>
       <c r="W20" s="60"/>
-      <c r="X20" s="65"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="47"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="65"/>
+      <c r="AC20" s="51"/>
       <c r="AD20" s="47"/>
       <c r="AE20" s="47"/>
-      <c r="AF20" s="60"/>
+      <c r="AF20" s="47"/>
       <c r="AG20" s="60"/>
       <c r="AH20" s="60"/>
       <c r="AI20" s="60"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="60"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="46"/>
@@ -3370,24 +3387,25 @@
       <c r="M21" s="45"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
-      <c r="P21" s="47"/>
+      <c r="P21" s="45"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="47"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="47"/>
       <c r="V21" s="47"/>
-      <c r="W21" s="51"/>
-      <c r="AA21" s="51"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="51"/>
       <c r="AB21" s="51"/>
       <c r="AC21" s="51"/>
       <c r="AD21" s="51"/>
       <c r="AE21" s="51"/>
-      <c r="AF21" s="4"/>
+      <c r="AF21" s="51"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
@@ -3403,19 +3421,20 @@
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
-      <c r="P22" s="47"/>
+      <c r="P22" s="45"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="47"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
-      <c r="W22" s="66"/>
-      <c r="AF22" s="4"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="66"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI22" s="4"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
       <c r="C23" s="46"/>
@@ -3431,17 +3450,17 @@
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
-      <c r="P23" s="47"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="47"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="16"/>
       <c r="U23" s="47"/>
       <c r="V23" s="47"/>
       <c r="W23" s="47"/>
       <c r="X23" s="47"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="67"/>
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
       <c r="AC23" s="47"/>
@@ -3450,8 +3469,9 @@
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
       <c r="AH23" s="47"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI23" s="47"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -3465,12 +3485,13 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
-      <c r="S24" s="48"/>
-      <c r="T24"/>
+      <c r="S24"/>
+      <c r="T24" s="48"/>
       <c r="U24"/>
-      <c r="W24" s="66"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="V24"/>
+      <c r="X24" s="66"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -3484,22 +3505,23 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="47"/>
-      <c r="U25"/>
-      <c r="W25" s="66"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="W26" s="66"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="T28" s="51"/>
+      <c r="S25"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="47"/>
+      <c r="V25"/>
+      <c r="X25" s="66"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="X26" s="66"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U28" s="51"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:AK14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A11:AL14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="36">
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -3509,31 +3531,31 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="AG9:AG10"/>
     <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="AG17:AJ17"/>
     <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="P9:P10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3542,7 +3564,7 @@
     <brk id="18" max="33" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="34" max="66" man="1"/>
+    <brk id="35" max="66" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
@@ -3552,13 +3574,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AD14" sqref="AD14:AE14"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,60 +3590,62 @@
     <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15" style="3" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
-    <col min="29" max="31" width="12.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="15" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15.28515625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="13.85546875" style="3" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="3"/>
-    <col min="37" max="37" width="40.7109375" style="6" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15" style="3" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
+    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15" style="3" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="3"/>
+    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3638,11 +3662,12 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -3655,20 +3680,20 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="95" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="95"/>
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="95"/>
       <c r="V5" s="95"/>
-      <c r="W5" s="9"/>
+      <c r="W5" s="95"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="10"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -3678,8 +3703,9 @@
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
-    </row>
-    <row r="6" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="9"/>
+    </row>
+    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3692,20 +3718,20 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="96" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="96"/>
       <c r="Q6" s="96"/>
       <c r="R6" s="96"/>
       <c r="S6" s="96"/>
       <c r="T6" s="96"/>
       <c r="U6" s="96"/>
       <c r="V6" s="96"/>
-      <c r="W6" s="12"/>
+      <c r="W6" s="96"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="13"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
@@ -3715,8 +3741,9 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
-    </row>
-    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="12"/>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -3735,23 +3762,24 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="17"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -3794,77 +3822,77 @@
       <c r="N8" s="19">
         <v>14</v>
       </c>
-      <c r="O8" s="19">
+      <c r="P8" s="19">
         <v>15</v>
       </c>
-      <c r="P8" s="19">
+      <c r="Q8" s="19">
         <v>16</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="R8" s="19">
         <v>17</v>
       </c>
-      <c r="R8" s="19">
+      <c r="S8" s="19">
         <v>18</v>
       </c>
-      <c r="S8" s="19">
+      <c r="T8" s="19">
         <v>19</v>
       </c>
-      <c r="T8" s="19">
+      <c r="U8" s="19">
         <v>20</v>
       </c>
-      <c r="U8" s="19">
+      <c r="V8" s="19">
         <v>21</v>
       </c>
-      <c r="V8" s="19">
+      <c r="W8" s="19">
         <v>22</v>
       </c>
-      <c r="W8" s="19">
+      <c r="X8" s="19">
         <v>23</v>
       </c>
-      <c r="X8" s="19">
+      <c r="Y8" s="19">
         <v>24</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Z8" s="19">
         <v>25</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AA8" s="19">
         <v>26</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AB8" s="19">
         <v>27</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AC8" s="19">
         <v>28</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AD8" s="19">
         <v>29</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AE8" s="19">
         <v>30</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AG8" s="19">
         <v>31</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AH8" s="19">
         <v>32</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AI8" s="19">
         <v>33</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="AJ8" s="19">
         <v>34</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="AK8" s="19">
         <v>35</v>
       </c>
-      <c r="AK8" s="20"/>
-    </row>
-    <row r="9" spans="1:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL8" s="20"/>
+    </row>
+    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="99" t="s">
         <v>9</v>
@@ -3873,19 +3901,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="G9" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="H9" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="I9" s="93" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>15</v>
       </c>
       <c r="J9" s="93"/>
       <c r="K9" s="93"/>
@@ -3893,66 +3921,67 @@
       <c r="M9" s="93"/>
       <c r="N9" s="93"/>
       <c r="O9" s="93"/>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="93"/>
+      <c r="Q9" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="79" t="s">
+      <c r="S9" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="79" t="s">
+      <c r="T9" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="T9" s="90" t="s">
+      <c r="V9" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="91" t="s">
+      <c r="W9" s="92"/>
+      <c r="X9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="92"/>
-      <c r="W9" s="79" t="s">
+      <c r="Y9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="93"/>
       <c r="Z9" s="93"/>
       <c r="AA9" s="93"/>
-      <c r="AB9" s="79" t="s">
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="71" t="s">
+      <c r="AE9" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="71" t="s">
+      <c r="AF9" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF9" s="86" t="s">
+      <c r="AH9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AG9" s="87" t="s">
+      <c r="AI9" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="AH9" s="79" t="s">
+      <c r="AJ9" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AI9" s="89" t="s">
+      <c r="AK9" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AJ9" s="77" t="s">
+      <c r="AL9" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AK9" s="73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="98"/>
       <c r="C10" s="100"/>
@@ -3962,62 +3991,65 @@
       <c r="G10" s="79"/>
       <c r="H10" s="79"/>
       <c r="I10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="X10" s="81"/>
+      <c r="Y10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="Z10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="AA10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="AB10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" s="81"/>
-      <c r="X10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="73"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="73"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4057,68 +4089,68 @@
       <c r="N11" s="3">
         <v>14</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>15</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>16</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>17</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>18</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>20</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <v>21</v>
       </c>
-      <c r="V11" s="3">
+      <c r="W11" s="3">
         <v>22</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>23</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>24</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Z11" s="5">
         <v>25</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <v>26</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>27</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>29</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>30</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="3">
         <v>31</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>32</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>33</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>34</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AK11" s="3">
         <v>35</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AL11" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -4127,7 +4159,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30">
-        <f t="shared" ref="H12:H13" si="0">+G12+O12</f>
+        <f t="shared" ref="H12:H13" si="0">+G12+P12</f>
         <v>0</v>
       </c>
       <c r="I12" s="30"/>
@@ -4137,74 +4169,75 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
-      <c r="P12" s="69">
-        <f t="shared" ref="P12:P13" si="1">SUM(I12:O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="32" t="e">
-        <f t="shared" ref="T12:T13" si="2">ROUND(((G12+P12+Q12)/F12*R12)+S12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="70">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="69">
+        <f t="shared" ref="Q12:Q13" si="1">SUM(I12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="30"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="32" t="e">
+        <f t="shared" ref="U12:U13" si="2">ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="70">
         <f>+I12</f>
         <v>0</v>
       </c>
-      <c r="V12" s="70">
+      <c r="W12" s="70">
         <f>+N12</f>
         <v>0</v>
       </c>
-      <c r="W12" s="30" t="e">
-        <f t="shared" ref="W12:W13" si="3">+T12-U12-V12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="30">
-        <f>4400000*Y12</f>
+      <c r="X12" s="30" t="e">
+        <f t="shared" ref="X12:X13" si="3">+U12-V12-W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="32">
         <v>0</v>
       </c>
       <c r="AA12" s="30">
-        <f t="shared" ref="AA12:AA13" si="4">ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="33" t="e">
-        <f t="shared" ref="AB12:AB13" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC12" s="34" t="e">
-        <f t="shared" ref="AC12:AC13" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="34">
-        <f t="shared" ref="AD12:AD13" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="30" t="e">
-        <f>ROUND(T12-AA12-AC12-AD12 - AE12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>4400000*Z12</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="30">
+        <f t="shared" ref="AB12:AB13" si="4">ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="33" t="e">
+        <f t="shared" ref="AC12:AC13" si="5">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="34" t="e">
+        <f t="shared" ref="AD12:AD13" si="6">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="34">
+        <f t="shared" ref="AE12:AE13" si="7">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="34"/>
       <c r="AG12" s="30" t="e">
-        <f>AF12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="35" t="e">
-        <f>IF(AND(AF12&gt;AG12,AG12&gt;0),AF12-AG12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="35" t="e">
-        <f t="shared" ref="AJ12:AJ13" si="8">+IF(AC12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="68"/>
-    </row>
-    <row r="13" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="30" t="e">
+        <f>AG12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="35" t="e">
+        <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="35" t="e">
+        <f t="shared" ref="AK12:AK13" si="8">+IF(AD12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="68"/>
+    </row>
+    <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -4223,76 +4256,77 @@
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
-      <c r="P13" s="69">
+      <c r="P13" s="30"/>
+      <c r="Q13" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="32" t="e">
+      <c r="R13" s="30"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="70">
+      <c r="V13" s="70">
         <f>+I13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="70">
+      <c r="W13" s="70">
         <f>+N13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="30" t="e">
+      <c r="X13" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="30">
-        <f>4400000*Y13</f>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="32">
         <v>0</v>
       </c>
       <c r="AA13" s="30">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="33" t="e">
+      <c r="AC13" s="33" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="34" t="e">
+      <c r="AD13" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="34">
+      <c r="AE13" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="30" t="e">
-        <f>ROUND(T13-AA13-AC13-AD13 - AE13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AF13" s="34"/>
       <c r="AG13" s="30" t="e">
-        <f>AF13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="35" t="e">
-        <f>IF(AND(AF13&gt;AG13,AG13&gt;0),AF13-AG13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="35" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="30" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="35" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="35" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK13" s="68"/>
-    </row>
-    <row r="14" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL13" s="68"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="38"/>
@@ -4300,7 +4334,7 @@
       <c r="E14" s="39"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41">
-        <f t="shared" ref="G14:AJ14" si="9">+SUBTOTAL(9,G12:G13)</f>
+        <f t="shared" ref="G14:AK14" si="9">+SUBTOTAL(9,G12:G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="41">
@@ -4331,10 +4365,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="O14" s="41"/>
       <c r="P14" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -4351,31 +4382,31 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="T14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V14" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="41">
+      <c r="W14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4383,45 +4414,49 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="AB14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE14" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG14" s="44" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="36"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="36"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
@@ -4440,24 +4475,25 @@
       <c r="P15" s="47"/>
       <c r="Q15" s="47"/>
       <c r="R15" s="47"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="16"/>
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
-      <c r="W15" s="48"/>
-      <c r="X15"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="48"/>
+      <c r="Y15"/>
+      <c r="Z15" s="49"/>
       <c r="AA15"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15"/>
+      <c r="AB15"/>
+      <c r="AC15" s="50"/>
       <c r="AD15"/>
       <c r="AE15"/>
-      <c r="AF15" s="51"/>
+      <c r="AF15"/>
       <c r="AG15" s="51"/>
       <c r="AH15" s="51"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI15" s="51"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46"/>
@@ -4473,73 +4509,74 @@
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
-      <c r="P16" s="47"/>
+      <c r="P16" s="45"/>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="16"/>
       <c r="U16" s="47"/>
       <c r="V16" s="47"/>
-      <c r="AF16" s="4"/>
+      <c r="W16" s="47"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI16" s="4"/>
+    </row>
+    <row r="17" spans="1:38" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="53"/>
       <c r="F17" s="74" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
       <c r="L17" s="55"/>
-      <c r="S17" s="54"/>
-      <c r="U17" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="V17" s="75"/>
+      <c r="T17" s="54"/>
+      <c r="V17" s="75" t="s">
+        <v>39</v>
+      </c>
       <c r="W17" s="75"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="57"/>
-      <c r="AC17" s="58"/>
+      <c r="X17" s="75"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
       <c r="AD17" s="58"/>
       <c r="AE17" s="58"/>
-      <c r="AF17" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG17" s="76"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="76" t="s">
+        <v>40</v>
+      </c>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
-      <c r="AK17" s="59"/>
-    </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="76"/>
+      <c r="AL17" s="59"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="84" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="61"/>
-      <c r="R18" s="51"/>
-      <c r="U18" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="V18" s="84"/>
+      <c r="S18" s="51"/>
+      <c r="V18" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="W18" s="84"/>
-      <c r="AA18" s="51"/>
-      <c r="AC18" s="47"/>
+      <c r="X18" s="84"/>
+      <c r="AB18" s="51"/>
       <c r="AD18" s="47"/>
       <c r="AE18" s="47"/>
-      <c r="AF18" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG18" s="84"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="AH18" s="84"/>
       <c r="AI18" s="84"/>
-    </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="84"/>
+    </row>
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
@@ -4559,42 +4596,43 @@
       <c r="V19" s="60"/>
       <c r="W19" s="60"/>
       <c r="X19" s="60"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="62"/>
       <c r="AA19" s="60"/>
       <c r="AB19" s="60"/>
-      <c r="AC19" s="63"/>
+      <c r="AC19" s="60"/>
       <c r="AD19" s="63"/>
       <c r="AE19" s="63"/>
-      <c r="AF19" s="60"/>
+      <c r="AF19" s="63"/>
       <c r="AG19" s="60"/>
       <c r="AH19" s="60"/>
       <c r="AI19" s="60"/>
       <c r="AJ19" s="60"/>
-      <c r="AK19" s="64"/>
-    </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="64"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="61"/>
-      <c r="R20" s="51"/>
-      <c r="U20" s="60"/>
+      <c r="S20" s="51"/>
       <c r="V20" s="60"/>
       <c r="W20" s="60"/>
-      <c r="X20" s="65"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="47"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="65"/>
+      <c r="AC20" s="51"/>
       <c r="AD20" s="47"/>
       <c r="AE20" s="47"/>
-      <c r="AF20" s="60"/>
+      <c r="AF20" s="47"/>
       <c r="AG20" s="60"/>
       <c r="AH20" s="60"/>
       <c r="AI20" s="60"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="60"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="46"/>
@@ -4610,24 +4648,25 @@
       <c r="M21" s="45"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
-      <c r="P21" s="47"/>
+      <c r="P21" s="45"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="47"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="47"/>
       <c r="V21" s="47"/>
-      <c r="W21" s="51"/>
-      <c r="AA21" s="51"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="51"/>
       <c r="AB21" s="51"/>
       <c r="AC21" s="51"/>
       <c r="AD21" s="51"/>
       <c r="AE21" s="51"/>
-      <c r="AF21" s="4"/>
+      <c r="AF21" s="51"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
@@ -4643,19 +4682,20 @@
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
-      <c r="P22" s="47"/>
+      <c r="P22" s="45"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="47"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
-      <c r="W22" s="66"/>
-      <c r="AF22" s="4"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="66"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI22" s="4"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
       <c r="C23" s="46"/>
@@ -4671,17 +4711,17 @@
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
-      <c r="P23" s="47"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="47"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="16"/>
       <c r="U23" s="47"/>
       <c r="V23" s="47"/>
       <c r="W23" s="47"/>
       <c r="X23" s="47"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="67"/>
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
       <c r="AC23" s="47"/>
@@ -4690,8 +4730,9 @@
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
       <c r="AH23" s="47"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI23" s="47"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -4705,12 +4746,13 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
-      <c r="S24" s="48"/>
-      <c r="T24"/>
+      <c r="S24"/>
+      <c r="T24" s="48"/>
       <c r="U24"/>
-      <c r="W24" s="66"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="V24"/>
+      <c r="X24" s="66"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -4724,56 +4766,57 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="47"/>
-      <c r="U25"/>
-      <c r="W25" s="66"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="W26" s="66"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="T28" s="51"/>
+      <c r="S25"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="47"/>
+      <c r="V25"/>
+      <c r="X25" s="66"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="X26" s="66"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U28" s="51"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="36">
-    <mergeCell ref="T9:T10"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="U17:W17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O6:V6"/>
-    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:W9"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="AI9:AI10"/>
     <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -4789,13 +4832,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AE13" sqref="AE13"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4805,60 +4848,62 @@
     <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15" style="3" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
-    <col min="29" max="31" width="12.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="15" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15.28515625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="13.85546875" style="3" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="3"/>
-    <col min="37" max="37" width="40.7109375" style="6" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15" style="3" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
+    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15" style="3" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="3"/>
+    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -4875,11 +4920,12 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -4892,20 +4938,20 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="95" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="95"/>
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="95"/>
       <c r="V5" s="95"/>
-      <c r="W5" s="9"/>
+      <c r="W5" s="95"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="10"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -4915,8 +4961,9 @@
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
-    </row>
-    <row r="6" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="9"/>
+    </row>
+    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -4929,20 +4976,20 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="96" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="96"/>
       <c r="Q6" s="96"/>
       <c r="R6" s="96"/>
       <c r="S6" s="96"/>
       <c r="T6" s="96"/>
       <c r="U6" s="96"/>
       <c r="V6" s="96"/>
-      <c r="W6" s="12"/>
+      <c r="W6" s="96"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="13"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
@@ -4952,8 +4999,9 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
-    </row>
-    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="12"/>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -4972,23 +5020,24 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="17"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -5031,77 +5080,77 @@
       <c r="N8" s="19">
         <v>14</v>
       </c>
-      <c r="O8" s="19">
+      <c r="P8" s="19">
         <v>15</v>
       </c>
-      <c r="P8" s="19">
+      <c r="Q8" s="19">
         <v>16</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="R8" s="19">
         <v>17</v>
       </c>
-      <c r="R8" s="19">
+      <c r="S8" s="19">
         <v>18</v>
       </c>
-      <c r="S8" s="19">
+      <c r="T8" s="19">
         <v>19</v>
       </c>
-      <c r="T8" s="19">
+      <c r="U8" s="19">
         <v>20</v>
       </c>
-      <c r="U8" s="19">
+      <c r="V8" s="19">
         <v>21</v>
       </c>
-      <c r="V8" s="19">
+      <c r="W8" s="19">
         <v>22</v>
       </c>
-      <c r="W8" s="19">
+      <c r="X8" s="19">
         <v>23</v>
       </c>
-      <c r="X8" s="19">
+      <c r="Y8" s="19">
         <v>24</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Z8" s="19">
         <v>25</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AA8" s="19">
         <v>26</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AB8" s="19">
         <v>27</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AC8" s="19">
         <v>28</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AD8" s="19">
         <v>29</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AE8" s="19">
         <v>30</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AG8" s="19">
         <v>31</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AH8" s="19">
         <v>32</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AI8" s="19">
         <v>33</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="AJ8" s="19">
         <v>34</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="AK8" s="19">
         <v>35</v>
       </c>
-      <c r="AK8" s="20"/>
-    </row>
-    <row r="9" spans="1:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL8" s="20"/>
+    </row>
+    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="99" t="s">
         <v>9</v>
@@ -5110,19 +5159,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="G9" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="H9" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="I9" s="93" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>15</v>
       </c>
       <c r="J9" s="93"/>
       <c r="K9" s="93"/>
@@ -5130,66 +5179,67 @@
       <c r="M9" s="93"/>
       <c r="N9" s="93"/>
       <c r="O9" s="93"/>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="93"/>
+      <c r="Q9" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="79" t="s">
+      <c r="S9" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="79" t="s">
+      <c r="T9" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" s="90" t="s">
+      <c r="V9" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="91" t="s">
+      <c r="W9" s="92"/>
+      <c r="X9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="92"/>
-      <c r="W9" s="79" t="s">
+      <c r="Y9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="93"/>
       <c r="Z9" s="93"/>
       <c r="AA9" s="93"/>
-      <c r="AB9" s="79" t="s">
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="71" t="s">
+      <c r="AE9" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="71" t="s">
+      <c r="AF9" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF9" s="86" t="s">
+      <c r="AH9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AG9" s="87" t="s">
+      <c r="AI9" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="AH9" s="79" t="s">
+      <c r="AJ9" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AI9" s="89" t="s">
+      <c r="AK9" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AJ9" s="77" t="s">
+      <c r="AL9" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AK9" s="73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="98"/>
       <c r="C10" s="100"/>
@@ -5199,62 +5249,65 @@
       <c r="G10" s="79"/>
       <c r="H10" s="79"/>
       <c r="I10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="X10" s="81"/>
+      <c r="Y10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="Z10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="AA10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="AB10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" s="81"/>
-      <c r="X10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="73"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="73"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -5294,68 +5347,68 @@
       <c r="N11" s="3">
         <v>14</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>15</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>16</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>17</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>18</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>20</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <v>21</v>
       </c>
-      <c r="V11" s="3">
+      <c r="W11" s="3">
         <v>22</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>23</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>24</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Z11" s="5">
         <v>25</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <v>26</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>27</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>29</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>30</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="3">
         <v>31</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>32</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>33</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>34</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AK11" s="3">
         <v>35</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AL11" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -5364,7 +5417,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30">
-        <f t="shared" ref="H12:H13" si="0">+G12+O12</f>
+        <f t="shared" ref="H12:H13" si="0">+G12+P12</f>
         <v>0</v>
       </c>
       <c r="I12" s="30"/>
@@ -5374,74 +5427,75 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
-      <c r="P12" s="69">
-        <f t="shared" ref="P12:P13" si="1">SUM(I12:O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="32" t="e">
-        <f t="shared" ref="T12:T13" si="2">ROUND(((G12+P12+Q12)/F12*R12)+S12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="70">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="69">
+        <f t="shared" ref="Q12:Q13" si="1">SUM(I12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="30"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="32" t="e">
+        <f t="shared" ref="U12:U13" si="2">ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="70">
         <f>+I12</f>
         <v>0</v>
       </c>
-      <c r="V12" s="70">
+      <c r="W12" s="70">
         <f>+N12</f>
         <v>0</v>
       </c>
-      <c r="W12" s="30" t="e">
-        <f t="shared" ref="W12:W13" si="3">+T12-U12-V12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="30">
-        <f>4400000*Y12</f>
+      <c r="X12" s="30" t="e">
+        <f t="shared" ref="X12:X13" si="3">+U12-V12-W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="32">
         <v>0</v>
       </c>
       <c r="AA12" s="30">
-        <f t="shared" ref="AA12:AA13" si="4">ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="33" t="e">
-        <f t="shared" ref="AB12:AB13" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC12" s="34" t="e">
-        <f t="shared" ref="AC12:AC13" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="34">
-        <f t="shared" ref="AD12:AD13" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="30" t="e">
-        <f>ROUND(T12-AA12-AC12-AD12 - AE12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>4400000*Z12</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="30">
+        <f t="shared" ref="AB12:AB13" si="4">ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="33" t="e">
+        <f t="shared" ref="AC12:AC13" si="5">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="34" t="e">
+        <f t="shared" ref="AD12:AD13" si="6">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="34">
+        <f t="shared" ref="AE12:AE13" si="7">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="34"/>
       <c r="AG12" s="30" t="e">
-        <f>AF12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="35" t="e">
-        <f>IF(AND(AF12&gt;AG12,AG12&gt;0),AF12-AG12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="35" t="e">
-        <f t="shared" ref="AJ12:AJ13" si="8">+IF(AC12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="68"/>
-    </row>
-    <row r="13" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="30" t="e">
+        <f>AG12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="35" t="e">
+        <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="35" t="e">
+        <f t="shared" ref="AK12:AK13" si="8">+IF(AD12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="68"/>
+    </row>
+    <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -5460,76 +5514,77 @@
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
-      <c r="P13" s="69">
+      <c r="P13" s="30"/>
+      <c r="Q13" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="32" t="e">
+      <c r="R13" s="30"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="70">
+      <c r="V13" s="70">
         <f>+I13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="70">
+      <c r="W13" s="70">
         <f>+N13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="30" t="e">
+      <c r="X13" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="30">
-        <f>4400000*Y13</f>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="32">
         <v>0</v>
       </c>
       <c r="AA13" s="30">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="33" t="e">
+      <c r="AC13" s="33" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="34" t="e">
+      <c r="AD13" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="34">
+      <c r="AE13" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="30" t="e">
-        <f>ROUND(T13-AA13-AC13-AD13 - AE13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AF13" s="34"/>
       <c r="AG13" s="30" t="e">
-        <f>AF13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="35" t="e">
-        <f>IF(AND(AF13&gt;AG13,AG13&gt;0),AF13-AG13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="35" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="30" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="35" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="35" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK13" s="68"/>
-    </row>
-    <row r="14" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL13" s="68"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="38"/>
@@ -5537,7 +5592,7 @@
       <c r="E14" s="39"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41">
-        <f t="shared" ref="G14:AJ14" si="9">+SUBTOTAL(9,G12:G13)</f>
+        <f t="shared" ref="G14:AK14" si="9">+SUBTOTAL(9,G12:G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="41">
@@ -5568,10 +5623,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="O14" s="41"/>
       <c r="P14" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5588,31 +5640,31 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="T14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V14" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="41">
+      <c r="W14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -5620,45 +5672,49 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="AB14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE14" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG14" s="44" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="36"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="36"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
@@ -5677,24 +5733,25 @@
       <c r="P15" s="47"/>
       <c r="Q15" s="47"/>
       <c r="R15" s="47"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="16"/>
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
-      <c r="W15" s="48"/>
-      <c r="X15"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="48"/>
+      <c r="Y15"/>
+      <c r="Z15" s="49"/>
       <c r="AA15"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15"/>
+      <c r="AB15"/>
+      <c r="AC15" s="50"/>
       <c r="AD15"/>
       <c r="AE15"/>
-      <c r="AF15" s="51"/>
+      <c r="AF15"/>
       <c r="AG15" s="51"/>
       <c r="AH15" s="51"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI15" s="51"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46"/>
@@ -5710,73 +5767,74 @@
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
-      <c r="P16" s="47"/>
+      <c r="P16" s="45"/>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="16"/>
       <c r="U16" s="47"/>
       <c r="V16" s="47"/>
-      <c r="AF16" s="4"/>
+      <c r="W16" s="47"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI16" s="4"/>
+    </row>
+    <row r="17" spans="1:38" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="53"/>
       <c r="F17" s="74" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
       <c r="L17" s="55"/>
-      <c r="S17" s="54"/>
-      <c r="U17" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="V17" s="75"/>
+      <c r="T17" s="54"/>
+      <c r="V17" s="75" t="s">
+        <v>39</v>
+      </c>
       <c r="W17" s="75"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="57"/>
-      <c r="AC17" s="58"/>
+      <c r="X17" s="75"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
       <c r="AD17" s="58"/>
       <c r="AE17" s="58"/>
-      <c r="AF17" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG17" s="76"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="76" t="s">
+        <v>40</v>
+      </c>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
-      <c r="AK17" s="59"/>
-    </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="76"/>
+      <c r="AL17" s="59"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="84" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="61"/>
-      <c r="R18" s="51"/>
-      <c r="U18" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="V18" s="84"/>
+      <c r="S18" s="51"/>
+      <c r="V18" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="W18" s="84"/>
-      <c r="AA18" s="51"/>
-      <c r="AC18" s="47"/>
+      <c r="X18" s="84"/>
+      <c r="AB18" s="51"/>
       <c r="AD18" s="47"/>
       <c r="AE18" s="47"/>
-      <c r="AF18" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG18" s="84"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="AH18" s="84"/>
       <c r="AI18" s="84"/>
-    </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="84"/>
+    </row>
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
@@ -5796,42 +5854,43 @@
       <c r="V19" s="60"/>
       <c r="W19" s="60"/>
       <c r="X19" s="60"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="62"/>
       <c r="AA19" s="60"/>
       <c r="AB19" s="60"/>
-      <c r="AC19" s="63"/>
+      <c r="AC19" s="60"/>
       <c r="AD19" s="63"/>
       <c r="AE19" s="63"/>
-      <c r="AF19" s="60"/>
+      <c r="AF19" s="63"/>
       <c r="AG19" s="60"/>
       <c r="AH19" s="60"/>
       <c r="AI19" s="60"/>
       <c r="AJ19" s="60"/>
-      <c r="AK19" s="64"/>
-    </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="64"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="61"/>
-      <c r="R20" s="51"/>
-      <c r="U20" s="60"/>
+      <c r="S20" s="51"/>
       <c r="V20" s="60"/>
       <c r="W20" s="60"/>
-      <c r="X20" s="65"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="47"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="65"/>
+      <c r="AC20" s="51"/>
       <c r="AD20" s="47"/>
       <c r="AE20" s="47"/>
-      <c r="AF20" s="60"/>
+      <c r="AF20" s="47"/>
       <c r="AG20" s="60"/>
       <c r="AH20" s="60"/>
       <c r="AI20" s="60"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="60"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="46"/>
@@ -5847,24 +5906,25 @@
       <c r="M21" s="45"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
-      <c r="P21" s="47"/>
+      <c r="P21" s="45"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="47"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="47"/>
       <c r="V21" s="47"/>
-      <c r="W21" s="51"/>
-      <c r="AA21" s="51"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="51"/>
       <c r="AB21" s="51"/>
       <c r="AC21" s="51"/>
       <c r="AD21" s="51"/>
       <c r="AE21" s="51"/>
-      <c r="AF21" s="4"/>
+      <c r="AF21" s="51"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
@@ -5880,19 +5940,20 @@
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
-      <c r="P22" s="47"/>
+      <c r="P22" s="45"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="47"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
-      <c r="W22" s="66"/>
-      <c r="AF22" s="4"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="66"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI22" s="4"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
       <c r="C23" s="46"/>
@@ -5908,17 +5969,17 @@
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
-      <c r="P23" s="47"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="47"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="16"/>
       <c r="U23" s="47"/>
       <c r="V23" s="47"/>
       <c r="W23" s="47"/>
       <c r="X23" s="47"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="67"/>
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
       <c r="AC23" s="47"/>
@@ -5927,8 +5988,9 @@
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
       <c r="AH23" s="47"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI23" s="47"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -5942,12 +6004,13 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
-      <c r="S24" s="48"/>
-      <c r="T24"/>
+      <c r="S24"/>
+      <c r="T24" s="48"/>
       <c r="U24"/>
-      <c r="W24" s="66"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="V24"/>
+      <c r="X24" s="66"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -5961,21 +6024,22 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="47"/>
-      <c r="U25"/>
-      <c r="W25" s="66"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="W26" s="66"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="T28" s="51"/>
+      <c r="S25"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="47"/>
+      <c r="V25"/>
+      <c r="X25" s="66"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="X26" s="66"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -5984,32 +6048,32 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="U17:W17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="U18:W18"/>
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="AG9:AG10"/>
     <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6017,13 +6081,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AD14" sqref="AD14:AE14"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6033,60 +6097,62 @@
     <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15" style="3" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
-    <col min="29" max="31" width="12.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="15" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15.28515625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="13.85546875" style="3" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="3"/>
-    <col min="37" max="37" width="40.7109375" style="6" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15" style="3" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
+    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15" style="3" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="3"/>
+    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6103,11 +6169,12 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -6120,20 +6187,20 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="95" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="95"/>
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="95"/>
       <c r="V5" s="95"/>
-      <c r="W5" s="9"/>
+      <c r="W5" s="95"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="10"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -6143,8 +6210,9 @@
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
-    </row>
-    <row r="6" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="9"/>
+    </row>
+    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -6157,20 +6225,20 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="96" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="96"/>
       <c r="Q6" s="96"/>
       <c r="R6" s="96"/>
       <c r="S6" s="96"/>
       <c r="T6" s="96"/>
       <c r="U6" s="96"/>
       <c r="V6" s="96"/>
-      <c r="W6" s="12"/>
+      <c r="W6" s="96"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="13"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
@@ -6180,8 +6248,9 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
-    </row>
-    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="12"/>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -6200,23 +6269,24 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="17"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -6259,77 +6329,77 @@
       <c r="N8" s="19">
         <v>14</v>
       </c>
-      <c r="O8" s="19">
+      <c r="P8" s="19">
         <v>15</v>
       </c>
-      <c r="P8" s="19">
+      <c r="Q8" s="19">
         <v>16</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="R8" s="19">
         <v>17</v>
       </c>
-      <c r="R8" s="19">
+      <c r="S8" s="19">
         <v>18</v>
       </c>
-      <c r="S8" s="19">
+      <c r="T8" s="19">
         <v>19</v>
       </c>
-      <c r="T8" s="19">
+      <c r="U8" s="19">
         <v>20</v>
       </c>
-      <c r="U8" s="19">
+      <c r="V8" s="19">
         <v>21</v>
       </c>
-      <c r="V8" s="19">
+      <c r="W8" s="19">
         <v>22</v>
       </c>
-      <c r="W8" s="19">
+      <c r="X8" s="19">
         <v>23</v>
       </c>
-      <c r="X8" s="19">
+      <c r="Y8" s="19">
         <v>24</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Z8" s="19">
         <v>25</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AA8" s="19">
         <v>26</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AB8" s="19">
         <v>27</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AC8" s="19">
         <v>28</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AD8" s="19">
         <v>29</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AE8" s="19">
         <v>30</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AG8" s="19">
         <v>31</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AH8" s="19">
         <v>32</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AI8" s="19">
         <v>33</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="AJ8" s="19">
         <v>34</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="AK8" s="19">
         <v>35</v>
       </c>
-      <c r="AK8" s="20"/>
-    </row>
-    <row r="9" spans="1:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL8" s="20"/>
+    </row>
+    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="99" t="s">
         <v>9</v>
@@ -6338,19 +6408,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="G9" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="H9" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="I9" s="93" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>15</v>
       </c>
       <c r="J9" s="93"/>
       <c r="K9" s="93"/>
@@ -6358,66 +6428,67 @@
       <c r="M9" s="93"/>
       <c r="N9" s="93"/>
       <c r="O9" s="93"/>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="93"/>
+      <c r="Q9" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="79" t="s">
+      <c r="S9" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="79" t="s">
+      <c r="T9" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" s="90" t="s">
+      <c r="V9" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="91" t="s">
+      <c r="W9" s="92"/>
+      <c r="X9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="92"/>
-      <c r="W9" s="79" t="s">
+      <c r="Y9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="93"/>
       <c r="Z9" s="93"/>
       <c r="AA9" s="93"/>
-      <c r="AB9" s="79" t="s">
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="71" t="s">
+      <c r="AE9" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="71" t="s">
+      <c r="AF9" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF9" s="86" t="s">
+      <c r="AH9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AG9" s="87" t="s">
+      <c r="AI9" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="AH9" s="79" t="s">
+      <c r="AJ9" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AI9" s="89" t="s">
+      <c r="AK9" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AJ9" s="77" t="s">
+      <c r="AL9" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AK9" s="73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="98"/>
       <c r="C10" s="100"/>
@@ -6427,62 +6498,65 @@
       <c r="G10" s="79"/>
       <c r="H10" s="79"/>
       <c r="I10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="X10" s="81"/>
+      <c r="Y10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="Z10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="AA10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="AB10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" s="81"/>
-      <c r="X10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="73"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="73"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -6522,68 +6596,68 @@
       <c r="N11" s="3">
         <v>14</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>15</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>16</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>17</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>18</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>20</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <v>21</v>
       </c>
-      <c r="V11" s="3">
+      <c r="W11" s="3">
         <v>22</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>23</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>24</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Z11" s="5">
         <v>25</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <v>26</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>27</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>29</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>30</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="3">
         <v>31</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>32</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>33</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>34</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AK11" s="3">
         <v>35</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AL11" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -6592,7 +6666,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30">
-        <f t="shared" ref="H12:H13" si="0">+G12+O12</f>
+        <f t="shared" ref="H12:H13" si="0">+G12+P12</f>
         <v>0</v>
       </c>
       <c r="I12" s="30"/>
@@ -6602,74 +6676,75 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
-      <c r="P12" s="69">
-        <f t="shared" ref="P12:P13" si="1">SUM(I12:O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="32" t="e">
-        <f t="shared" ref="T12:T13" si="2">ROUND(((G12+P12+Q12)/F12*R12)+S12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="70">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="69">
+        <f t="shared" ref="Q12:Q13" si="1">SUM(I12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="30"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="32" t="e">
+        <f t="shared" ref="U12:U13" si="2">ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="70">
         <f>+I12</f>
         <v>0</v>
       </c>
-      <c r="V12" s="70">
+      <c r="W12" s="70">
         <f>+N12</f>
         <v>0</v>
       </c>
-      <c r="W12" s="30" t="e">
-        <f t="shared" ref="W12:W13" si="3">+T12-U12-V12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="30">
-        <f>4400000*Y12</f>
+      <c r="X12" s="30" t="e">
+        <f t="shared" ref="X12:X13" si="3">+U12-V12-W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="32">
         <v>0</v>
       </c>
       <c r="AA12" s="30">
-        <f t="shared" ref="AA12:AA13" si="4">ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="33" t="e">
-        <f t="shared" ref="AB12:AB13" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC12" s="34" t="e">
-        <f t="shared" ref="AC12:AC13" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="34">
-        <f t="shared" ref="AD12:AD13" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="30" t="e">
-        <f>ROUND(T12-AA12-AC12-AD12 - AE12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>4400000*Z12</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="30">
+        <f t="shared" ref="AB12:AB13" si="4">ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="33" t="e">
+        <f t="shared" ref="AC12:AC13" si="5">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="34" t="e">
+        <f t="shared" ref="AD12:AD13" si="6">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="34">
+        <f t="shared" ref="AE12:AE13" si="7">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="34"/>
       <c r="AG12" s="30" t="e">
-        <f>AF12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="35" t="e">
-        <f>IF(AND(AF12&gt;AG12,AG12&gt;0),AF12-AG12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="35" t="e">
-        <f t="shared" ref="AJ12:AJ13" si="8">+IF(AC12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="68"/>
-    </row>
-    <row r="13" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="30" t="e">
+        <f>AG12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="35" t="e">
+        <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="35" t="e">
+        <f t="shared" ref="AK12:AK13" si="8">+IF(AD12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="68"/>
+    </row>
+    <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -6688,76 +6763,77 @@
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
-      <c r="P13" s="69">
+      <c r="P13" s="30"/>
+      <c r="Q13" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="32" t="e">
+      <c r="R13" s="30"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="70">
+      <c r="V13" s="70">
         <f>+I13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="70">
+      <c r="W13" s="70">
         <f>+N13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="30" t="e">
+      <c r="X13" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="30">
-        <f>4400000*Y13</f>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="32">
         <v>0</v>
       </c>
       <c r="AA13" s="30">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="33" t="e">
+      <c r="AC13" s="33" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="34" t="e">
+      <c r="AD13" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="34">
+      <c r="AE13" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="30" t="e">
-        <f>ROUND(T13-AA13-AC13-AD13 - AE13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AF13" s="34"/>
       <c r="AG13" s="30" t="e">
-        <f>AF13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="35" t="e">
-        <f>IF(AND(AF13&gt;AG13,AG13&gt;0),AF13-AG13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="35" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="30" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="35" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="35" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK13" s="68"/>
-    </row>
-    <row r="14" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL13" s="68"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="38"/>
@@ -6765,7 +6841,7 @@
       <c r="E14" s="39"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41">
-        <f t="shared" ref="G14:AJ14" si="9">+SUBTOTAL(9,G12:G13)</f>
+        <f t="shared" ref="G14:AK14" si="9">+SUBTOTAL(9,G12:G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="41">
@@ -6796,10 +6872,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="O14" s="41"/>
       <c r="P14" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6816,31 +6889,31 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="T14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V14" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="41">
+      <c r="W14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6848,45 +6921,49 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="AB14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE14" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG14" s="44" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="36"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="36"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
@@ -6905,24 +6982,25 @@
       <c r="P15" s="47"/>
       <c r="Q15" s="47"/>
       <c r="R15" s="47"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="16"/>
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
-      <c r="W15" s="48"/>
-      <c r="X15"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="48"/>
+      <c r="Y15"/>
+      <c r="Z15" s="49"/>
       <c r="AA15"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15"/>
+      <c r="AB15"/>
+      <c r="AC15" s="50"/>
       <c r="AD15"/>
       <c r="AE15"/>
-      <c r="AF15" s="51"/>
+      <c r="AF15"/>
       <c r="AG15" s="51"/>
       <c r="AH15" s="51"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI15" s="51"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46"/>
@@ -6938,73 +7016,74 @@
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
-      <c r="P16" s="47"/>
+      <c r="P16" s="45"/>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="16"/>
       <c r="U16" s="47"/>
       <c r="V16" s="47"/>
-      <c r="AF16" s="4"/>
+      <c r="W16" s="47"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI16" s="4"/>
+    </row>
+    <row r="17" spans="1:38" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="53"/>
       <c r="F17" s="74" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
       <c r="L17" s="55"/>
-      <c r="S17" s="54"/>
-      <c r="U17" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="V17" s="75"/>
+      <c r="T17" s="54"/>
+      <c r="V17" s="75" t="s">
+        <v>39</v>
+      </c>
       <c r="W17" s="75"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="57"/>
-      <c r="AC17" s="58"/>
+      <c r="X17" s="75"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
       <c r="AD17" s="58"/>
       <c r="AE17" s="58"/>
-      <c r="AF17" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG17" s="76"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="76" t="s">
+        <v>40</v>
+      </c>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
-      <c r="AK17" s="59"/>
-    </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="76"/>
+      <c r="AL17" s="59"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="84" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="61"/>
-      <c r="R18" s="51"/>
-      <c r="U18" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="V18" s="84"/>
+      <c r="S18" s="51"/>
+      <c r="V18" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="W18" s="84"/>
-      <c r="AA18" s="51"/>
-      <c r="AC18" s="47"/>
+      <c r="X18" s="84"/>
+      <c r="AB18" s="51"/>
       <c r="AD18" s="47"/>
       <c r="AE18" s="47"/>
-      <c r="AF18" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG18" s="84"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="AH18" s="84"/>
       <c r="AI18" s="84"/>
-    </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="84"/>
+    </row>
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
@@ -7024,42 +7103,43 @@
       <c r="V19" s="60"/>
       <c r="W19" s="60"/>
       <c r="X19" s="60"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="62"/>
       <c r="AA19" s="60"/>
       <c r="AB19" s="60"/>
-      <c r="AC19" s="63"/>
+      <c r="AC19" s="60"/>
       <c r="AD19" s="63"/>
       <c r="AE19" s="63"/>
-      <c r="AF19" s="60"/>
+      <c r="AF19" s="63"/>
       <c r="AG19" s="60"/>
       <c r="AH19" s="60"/>
       <c r="AI19" s="60"/>
       <c r="AJ19" s="60"/>
-      <c r="AK19" s="64"/>
-    </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="64"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="61"/>
-      <c r="R20" s="51"/>
-      <c r="U20" s="60"/>
+      <c r="S20" s="51"/>
       <c r="V20" s="60"/>
       <c r="W20" s="60"/>
-      <c r="X20" s="65"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="47"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="65"/>
+      <c r="AC20" s="51"/>
       <c r="AD20" s="47"/>
       <c r="AE20" s="47"/>
-      <c r="AF20" s="60"/>
+      <c r="AF20" s="47"/>
       <c r="AG20" s="60"/>
       <c r="AH20" s="60"/>
       <c r="AI20" s="60"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="60"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="46"/>
@@ -7075,24 +7155,25 @@
       <c r="M21" s="45"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
-      <c r="P21" s="47"/>
+      <c r="P21" s="45"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="47"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="47"/>
       <c r="V21" s="47"/>
-      <c r="W21" s="51"/>
-      <c r="AA21" s="51"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="51"/>
       <c r="AB21" s="51"/>
       <c r="AC21" s="51"/>
       <c r="AD21" s="51"/>
       <c r="AE21" s="51"/>
-      <c r="AF21" s="4"/>
+      <c r="AF21" s="51"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
@@ -7108,19 +7189,20 @@
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
-      <c r="P22" s="47"/>
+      <c r="P22" s="45"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="47"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
-      <c r="W22" s="66"/>
-      <c r="AF22" s="4"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="66"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI22" s="4"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
       <c r="C23" s="46"/>
@@ -7136,17 +7218,17 @@
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
-      <c r="P23" s="47"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="47"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="16"/>
       <c r="U23" s="47"/>
       <c r="V23" s="47"/>
       <c r="W23" s="47"/>
       <c r="X23" s="47"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="67"/>
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
       <c r="AC23" s="47"/>
@@ -7155,8 +7237,9 @@
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
       <c r="AH23" s="47"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI23" s="47"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -7170,12 +7253,13 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
-      <c r="S24" s="48"/>
-      <c r="T24"/>
+      <c r="S24"/>
+      <c r="T24" s="48"/>
       <c r="U24"/>
-      <c r="W24" s="66"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="V24"/>
+      <c r="X24" s="66"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -7189,21 +7273,22 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="47"/>
-      <c r="U25"/>
-      <c r="W25" s="66"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="W26" s="66"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="T28" s="51"/>
+      <c r="S25"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="47"/>
+      <c r="V25"/>
+      <c r="X25" s="66"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="X26" s="66"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -7212,32 +7297,32 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="U17:W17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="U18:W18"/>
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="AG9:AG10"/>
     <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7245,13 +7330,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BE417A-60B7-46CC-952E-E46FBED66C4F}">
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="W12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AE14" sqref="AE14"/>
+      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7261,60 +7346,62 @@
     <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15" style="3" customWidth="1"/>
-    <col min="25" max="25" width="5.28515625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
-    <col min="29" max="31" width="12.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="15" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15.28515625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="13.85546875" style="3" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="3"/>
-    <col min="37" max="37" width="40.7109375" style="6" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15" style="3" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
+    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15" style="3" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="3"/>
+    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -7331,11 +7418,12 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:37" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -7348,20 +7436,20 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="95" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="95"/>
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
       <c r="S5" s="95"/>
       <c r="T5" s="95"/>
       <c r="U5" s="95"/>
       <c r="V5" s="95"/>
-      <c r="W5" s="9"/>
+      <c r="W5" s="95"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="10"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
@@ -7371,8 +7459,9 @@
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
-    </row>
-    <row r="6" spans="1:37" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="9"/>
+    </row>
+    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -7385,20 +7474,20 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="96" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="96"/>
       <c r="Q6" s="96"/>
       <c r="R6" s="96"/>
       <c r="S6" s="96"/>
       <c r="T6" s="96"/>
       <c r="U6" s="96"/>
       <c r="V6" s="96"/>
-      <c r="W6" s="12"/>
+      <c r="W6" s="96"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="13"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
@@ -7408,8 +7497,9 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
-    </row>
-    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="12"/>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -7428,23 +7518,24 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="17"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="18" t="s">
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -7487,77 +7578,77 @@
       <c r="N8" s="19">
         <v>14</v>
       </c>
-      <c r="O8" s="19">
+      <c r="P8" s="19">
         <v>15</v>
       </c>
-      <c r="P8" s="19">
+      <c r="Q8" s="19">
         <v>16</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="R8" s="19">
         <v>17</v>
       </c>
-      <c r="R8" s="19">
+      <c r="S8" s="19">
         <v>18</v>
       </c>
-      <c r="S8" s="19">
+      <c r="T8" s="19">
         <v>19</v>
       </c>
-      <c r="T8" s="19">
+      <c r="U8" s="19">
         <v>20</v>
       </c>
-      <c r="U8" s="19">
+      <c r="V8" s="19">
         <v>21</v>
       </c>
-      <c r="V8" s="19">
+      <c r="W8" s="19">
         <v>22</v>
       </c>
-      <c r="W8" s="19">
+      <c r="X8" s="19">
         <v>23</v>
       </c>
-      <c r="X8" s="19">
+      <c r="Y8" s="19">
         <v>24</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Z8" s="19">
         <v>25</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AA8" s="19">
         <v>26</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AB8" s="19">
         <v>27</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AC8" s="19">
         <v>28</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AD8" s="19">
         <v>29</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AE8" s="19">
         <v>30</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AG8" s="19">
         <v>31</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AH8" s="19">
         <v>32</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="AI8" s="19">
         <v>33</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="AJ8" s="19">
         <v>34</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="AK8" s="19">
         <v>35</v>
       </c>
-      <c r="AK8" s="20"/>
-    </row>
-    <row r="9" spans="1:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL8" s="20"/>
+    </row>
+    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="99" t="s">
         <v>9</v>
@@ -7566,19 +7657,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="G9" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="H9" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="I9" s="93" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>15</v>
       </c>
       <c r="J9" s="93"/>
       <c r="K9" s="93"/>
@@ -7586,66 +7677,67 @@
       <c r="M9" s="93"/>
       <c r="N9" s="93"/>
       <c r="O9" s="93"/>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="93"/>
+      <c r="Q9" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="79" t="s">
+      <c r="S9" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="79" t="s">
+      <c r="T9" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="T9" s="90" t="s">
+      <c r="V9" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="91" t="s">
+      <c r="W9" s="92"/>
+      <c r="X9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="92"/>
-      <c r="W9" s="79" t="s">
+      <c r="Y9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y9" s="93"/>
       <c r="Z9" s="93"/>
       <c r="AA9" s="93"/>
-      <c r="AB9" s="79" t="s">
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="71" t="s">
+      <c r="AE9" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="71" t="s">
+      <c r="AF9" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF9" s="86" t="s">
+      <c r="AH9" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="AG9" s="87" t="s">
+      <c r="AI9" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="AH9" s="79" t="s">
+      <c r="AJ9" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="AI9" s="89" t="s">
+      <c r="AK9" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="AJ9" s="77" t="s">
+      <c r="AL9" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AK9" s="73" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="98"/>
       <c r="C10" s="100"/>
@@ -7655,62 +7747,65 @@
       <c r="G10" s="79"/>
       <c r="H10" s="79"/>
       <c r="I10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="X10" s="81"/>
+      <c r="Y10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="Z10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="AA10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="AB10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" s="81"/>
-      <c r="X10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="73"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="73"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -7750,68 +7845,68 @@
       <c r="N11" s="3">
         <v>14</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>15</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>16</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>17</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>18</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>20</v>
       </c>
-      <c r="U11" s="3">
+      <c r="V11" s="3">
         <v>21</v>
       </c>
-      <c r="V11" s="3">
+      <c r="W11" s="3">
         <v>22</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>23</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>24</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Z11" s="5">
         <v>25</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <v>26</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>27</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>29</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>30</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="3">
         <v>31</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>32</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>33</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>34</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AK11" s="3">
         <v>35</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AL11" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -7820,7 +7915,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30">
-        <f t="shared" ref="H12:H13" si="0">+G12+O12</f>
+        <f t="shared" ref="H12:H13" si="0">+G12+P12</f>
         <v>0</v>
       </c>
       <c r="I12" s="30"/>
@@ -7830,74 +7925,75 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
-      <c r="P12" s="69">
-        <f t="shared" ref="P12:P13" si="1">SUM(I12:O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="32" t="e">
-        <f t="shared" ref="T12:T13" si="2">ROUND(((G12+P12+Q12)/F12*R12)+S12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="70">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="69">
+        <f t="shared" ref="Q12:Q13" si="1">SUM(I12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="30"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="32" t="e">
+        <f t="shared" ref="U12:U13" si="2">ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="70">
         <f>+I12</f>
         <v>0</v>
       </c>
-      <c r="V12" s="70">
+      <c r="W12" s="70">
         <f>+N12</f>
         <v>0</v>
       </c>
-      <c r="W12" s="30" t="e">
-        <f t="shared" ref="W12:W13" si="3">+T12-U12-V12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="30">
-        <f>4400000*Y12</f>
+      <c r="X12" s="30" t="e">
+        <f t="shared" ref="X12:X13" si="3">+U12-V12-W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="32">
         <v>0</v>
       </c>
       <c r="AA12" s="30">
-        <f t="shared" ref="AA12:AA13" si="4">ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="33" t="e">
-        <f t="shared" ref="AB12:AB13" si="5">+IF(W12-X12-Z12-AA12&gt;0,W12-X12-Z12-AA12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC12" s="34" t="e">
-        <f t="shared" ref="AC12:AC13" si="6">ROUND(IF(AB12&gt;80000000,AB12*35%-9850000,IF(AB12&gt;52000000,AB12*30%-5850000,IF(AB12&gt;32000000,AB12*25%-3250000,IF(AB12&gt;18000000,AB12*20%-1650000,IF(AB12&gt;10000000,AB12*15%-750000,IF(AB12&gt;5000000,AB12*10%-250000,IF(AB12&gt;0,AB12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="34">
-        <f t="shared" ref="AD12:AD13" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="30" t="e">
-        <f>ROUND(T12-AA12-AC12-AD12 - AE12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>4400000*Z12</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="30">
+        <f t="shared" ref="AB12:AB13" si="4">ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="33" t="e">
+        <f t="shared" ref="AC12:AC13" si="5">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="34" t="e">
+        <f t="shared" ref="AD12:AD13" si="6">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="34">
+        <f t="shared" ref="AE12:AE13" si="7">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="34"/>
       <c r="AG12" s="30" t="e">
-        <f>AF12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="35" t="e">
-        <f>IF(AND(AF12&gt;AG12,AG12&gt;0),AF12-AG12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="35" t="e">
-        <f t="shared" ref="AJ12:AJ13" si="8">+IF(AC12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="68"/>
-    </row>
-    <row r="13" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="30" t="e">
+        <f>AG12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="35" t="e">
+        <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="35" t="e">
+        <f t="shared" ref="AK12:AK13" si="8">+IF(AD12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="68"/>
+    </row>
+    <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
@@ -7916,76 +8012,77 @@
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
-      <c r="P13" s="69">
+      <c r="P13" s="30"/>
+      <c r="Q13" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="32" t="e">
+      <c r="R13" s="30"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="70">
+      <c r="V13" s="70">
         <f>+I13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="70">
+      <c r="W13" s="70">
         <f>+N13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="30" t="e">
+      <c r="X13" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="30">
-        <f>4400000*Y13</f>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="32">
         <v>0</v>
       </c>
       <c r="AA13" s="30">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="33" t="e">
+      <c r="AC13" s="33" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC13" s="34" t="e">
+      <c r="AD13" s="34" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD13" s="34">
+      <c r="AE13" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="30" t="e">
-        <f>ROUND(T13-AA13-AC13-AD13 - AE13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AF13" s="34"/>
       <c r="AG13" s="30" t="e">
-        <f>AF13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="35" t="e">
-        <f>IF(AND(AF13&gt;AG13,AG13&gt;0),AF13-AG13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="35" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="30" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="35" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="35" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK13" s="68"/>
-    </row>
-    <row r="14" spans="1:37" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL13" s="68"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="38"/>
@@ -7993,7 +8090,7 @@
       <c r="E14" s="39"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41">
-        <f t="shared" ref="G14:AJ14" si="9">+SUBTOTAL(9,G12:G13)</f>
+        <f t="shared" ref="G14:AK14" si="9">+SUBTOTAL(9,G12:G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="41">
@@ -8024,10 +8121,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="O14" s="41"/>
       <c r="P14" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -8044,31 +8138,31 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="T14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="V14" s="41">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="41">
+      <c r="W14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -8076,45 +8170,49 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
+      <c r="AB14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AE14" s="42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG14" s="44" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="36"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF14" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="42" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="44" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="36"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="45"/>
       <c r="C15" s="46"/>
@@ -8133,24 +8231,25 @@
       <c r="P15" s="47"/>
       <c r="Q15" s="47"/>
       <c r="R15" s="47"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="16"/>
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
-      <c r="W15" s="48"/>
-      <c r="X15"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="48"/>
+      <c r="Y15"/>
+      <c r="Z15" s="49"/>
       <c r="AA15"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15"/>
+      <c r="AB15"/>
+      <c r="AC15" s="50"/>
       <c r="AD15"/>
       <c r="AE15"/>
-      <c r="AF15" s="51"/>
+      <c r="AF15"/>
       <c r="AG15" s="51"/>
       <c r="AH15" s="51"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI15" s="51"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46"/>
@@ -8166,73 +8265,74 @@
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
-      <c r="P16" s="47"/>
+      <c r="P16" s="45"/>
       <c r="Q16" s="47"/>
       <c r="R16" s="47"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="16"/>
       <c r="U16" s="47"/>
       <c r="V16" s="47"/>
-      <c r="AF16" s="4"/>
+      <c r="W16" s="47"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-    </row>
-    <row r="17" spans="1:37" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI16" s="4"/>
+    </row>
+    <row r="17" spans="1:38" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="53"/>
       <c r="F17" s="74" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
       <c r="L17" s="55"/>
-      <c r="S17" s="54"/>
-      <c r="U17" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="V17" s="75"/>
+      <c r="T17" s="54"/>
+      <c r="V17" s="75" t="s">
+        <v>39</v>
+      </c>
       <c r="W17" s="75"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="57"/>
-      <c r="AC17" s="58"/>
+      <c r="X17" s="75"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
       <c r="AD17" s="58"/>
       <c r="AE17" s="58"/>
-      <c r="AF17" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG17" s="76"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="76" t="s">
+        <v>40</v>
+      </c>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
-      <c r="AK17" s="59"/>
-    </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="76"/>
+      <c r="AL17" s="59"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="84" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="61"/>
-      <c r="R18" s="51"/>
-      <c r="U18" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="V18" s="84"/>
+      <c r="S18" s="51"/>
+      <c r="V18" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="W18" s="84"/>
-      <c r="AA18" s="51"/>
-      <c r="AC18" s="47"/>
+      <c r="X18" s="84"/>
+      <c r="AB18" s="51"/>
       <c r="AD18" s="47"/>
       <c r="AE18" s="47"/>
-      <c r="AF18" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG18" s="84"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="AH18" s="84"/>
       <c r="AI18" s="84"/>
-    </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="84"/>
+    </row>
+    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
@@ -8252,42 +8352,43 @@
       <c r="V19" s="60"/>
       <c r="W19" s="60"/>
       <c r="X19" s="60"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="62"/>
       <c r="AA19" s="60"/>
       <c r="AB19" s="60"/>
-      <c r="AC19" s="63"/>
+      <c r="AC19" s="60"/>
       <c r="AD19" s="63"/>
       <c r="AE19" s="63"/>
-      <c r="AF19" s="60"/>
+      <c r="AF19" s="63"/>
       <c r="AG19" s="60"/>
       <c r="AH19" s="60"/>
       <c r="AI19" s="60"/>
       <c r="AJ19" s="60"/>
-      <c r="AK19" s="64"/>
-    </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="64"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="61"/>
-      <c r="R20" s="51"/>
-      <c r="U20" s="60"/>
+      <c r="S20" s="51"/>
       <c r="V20" s="60"/>
       <c r="W20" s="60"/>
-      <c r="X20" s="65"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="47"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="65"/>
+      <c r="AC20" s="51"/>
       <c r="AD20" s="47"/>
       <c r="AE20" s="47"/>
-      <c r="AF20" s="60"/>
+      <c r="AF20" s="47"/>
       <c r="AG20" s="60"/>
       <c r="AH20" s="60"/>
       <c r="AI20" s="60"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="60"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="45"/>
       <c r="C21" s="46"/>
@@ -8303,24 +8404,25 @@
       <c r="M21" s="45"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
-      <c r="P21" s="47"/>
+      <c r="P21" s="45"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="47"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="47"/>
       <c r="V21" s="47"/>
-      <c r="W21" s="51"/>
-      <c r="AA21" s="51"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="51"/>
       <c r="AB21" s="51"/>
       <c r="AC21" s="51"/>
       <c r="AD21" s="51"/>
       <c r="AE21" s="51"/>
-      <c r="AF21" s="4"/>
+      <c r="AF21" s="51"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
@@ -8336,19 +8438,20 @@
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
-      <c r="P22" s="47"/>
+      <c r="P22" s="45"/>
       <c r="Q22" s="47"/>
       <c r="R22" s="47"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
-      <c r="W22" s="66"/>
-      <c r="AF22" s="4"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="66"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI22" s="4"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="45"/>
       <c r="C23" s="46"/>
@@ -8364,17 +8467,17 @@
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
-      <c r="P23" s="47"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="47"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="16"/>
       <c r="U23" s="47"/>
       <c r="V23" s="47"/>
       <c r="W23" s="47"/>
       <c r="X23" s="47"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="67"/>
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
       <c r="AC23" s="47"/>
@@ -8383,8 +8486,9 @@
       <c r="AF23" s="47"/>
       <c r="AG23" s="47"/>
       <c r="AH23" s="47"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI23" s="47"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -8398,12 +8502,13 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
-      <c r="S24" s="48"/>
-      <c r="T24"/>
+      <c r="S24"/>
+      <c r="T24" s="48"/>
       <c r="U24"/>
-      <c r="W24" s="66"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="V24"/>
+      <c r="X24" s="66"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -8417,30 +8522,27 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="47"/>
-      <c r="U25"/>
-      <c r="W25" s="66"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="W26" s="66"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="T28" s="51"/>
+      <c r="S25"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="47"/>
+      <c r="V25"/>
+      <c r="X25" s="66"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="X26" s="66"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U28" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:W10"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="U17:W17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="U18:W18"/>
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="S9:S10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="P5:W5"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -8450,22 +8552,26 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="O6:V6"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:X10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AC9:AC10"/>
     <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3E9EB-543E-4CD2-8B7B-ADD6F701D553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F86CFC9-18C4-433A-B5BE-68016779754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
@@ -617,9 +617,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,6 +832,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -2307,11 +2307,11 @@
   </sheetPr>
   <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,16 +2412,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="95" t="s">
+      <c r="P5" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -2450,16 +2450,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="96" t="s">
+      <c r="P6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -2483,8 +2483,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2627,166 +2627,166 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="86" t="s">
+      <c r="A9" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="79" t="s">
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="79" t="s">
+      <c r="R9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="82" t="s">
+      <c r="T9" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="90" t="s">
+      <c r="U9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="91" t="s">
+      <c r="V9" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="W9" s="92"/>
-      <c r="X9" s="79" t="s">
+      <c r="W9" s="91"/>
+      <c r="X9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="93" t="s">
+      <c r="Y9" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="79" t="s">
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="71" t="s">
+      <c r="AD9" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AE9" s="71" t="s">
+      <c r="AE9" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="AF9" s="71" t="s">
+      <c r="AF9" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="AG9" s="86" t="s">
+      <c r="AG9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="AH9" s="87" t="s">
+      <c r="AH9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AI9" s="79" t="s">
+      <c r="AI9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="AJ9" s="89" t="s">
+      <c r="AJ9" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="AK9" s="77" t="s">
+      <c r="AK9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AL9" s="73" t="s">
+      <c r="AL9" s="72" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="22" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="22" t="s">
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="22" t="s">
+      <c r="W10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="24" t="s">
+      <c r="X10" s="80"/>
+      <c r="Y10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="Z10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="23" t="s">
+      <c r="AA10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AB10" s="23" t="s">
+      <c r="AB10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="80"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="73"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="72"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2890,586 +2890,582 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30">
-        <f t="shared" ref="H12:H13" si="0">+G12+P12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="69">
-        <f t="shared" ref="Q12:Q13" si="1">SUM(I12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32" t="e">
-        <f t="shared" ref="U12:U13" si="2">ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="70">
-        <f>+I12</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="70">
-        <f>+N12</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="30" t="e">
-        <f t="shared" ref="X12:X13" si="3">+U12-V12-W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="30">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29">
+        <f>+G12+O12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="68">
+        <f>SUM(I12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31" t="e">
+        <f>ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="69">
+        <v>0</v>
+      </c>
+      <c r="W12" s="69">
+        <v>0</v>
+      </c>
+      <c r="X12" s="100" t="e">
+        <f>+U12-V12-W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="29">
         <f>4400000*Z12</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="30">
-        <f t="shared" ref="AB12:AB13" si="4">ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="33" t="e">
-        <f t="shared" ref="AC12:AC13" si="5">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="34" t="e">
-        <f t="shared" ref="AD12:AD13" si="6">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="34">
-        <f t="shared" ref="AE12:AE13" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="30" t="e">
+      <c r="AB12" s="29">
+        <f>ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="32" t="e">
+        <f t="shared" ref="AC12:AC13" si="0">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="33" t="e">
+        <f t="shared" ref="AD12:AD13" si="1">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="33">
+        <f t="shared" ref="AE12:AE13" si="2">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="29" t="e">
         <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="30" t="e">
+      <c r="AH12" s="29" t="e">
         <f>AG12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="35" t="e">
+      <c r="AI12" s="34" t="e">
         <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="35" t="e">
-        <f t="shared" ref="AK12:AK13" si="8">+IF(AD12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="68"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="34" t="e">
+        <f t="shared" ref="AK12:AK13" si="3">+IF(AD12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="67"/>
     </row>
     <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <f>+G13+O13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="68">
+        <f t="shared" ref="Q12:Q13" si="4">SUM(I13:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31" t="e">
+        <f t="shared" ref="U12:U13" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="69">
+        <v>0</v>
+      </c>
+      <c r="W13" s="69">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29" t="e">
+        <f t="shared" ref="X12:X13" si="6">+U13-V13-W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <f t="shared" ref="AB12:AB13" si="7">ROUND(H13*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="69">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="33" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="70">
-        <f>+I13</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="70">
-        <f>+N13</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="29" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="29" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="34" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="30">
-        <f>4400000*Z13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="33" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="34" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="30" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="30" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="35" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="35" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="68"/>
+      <c r="AL13" s="67"/>
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41">
-        <f t="shared" ref="G14:AK14" si="9">+SUBTOTAL(9,G12:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="44" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40">
+        <f t="shared" ref="G14:AK14" si="8">+SUBTOTAL(9,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="43" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="35"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="48"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="47"/>
       <c r="Y15"/>
-      <c r="Z15" s="49"/>
+      <c r="Z15" s="48"/>
       <c r="AA15"/>
       <c r="AB15"/>
-      <c r="AC15" s="50"/>
+      <c r="AC15" s="49"/>
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="1:38" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="53"/>
-      <c r="F17" s="74" t="s">
+    <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="52"/>
+      <c r="F17" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="T17" s="54"/>
-      <c r="V17" s="75" t="s">
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="T17" s="53"/>
+      <c r="V17" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="76" t="s">
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="56"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AL17" s="59"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AL17" s="58"/>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="L18" s="61"/>
-      <c r="S18" s="51"/>
-      <c r="V18" s="84" t="s">
+      <c r="L18" s="60"/>
+      <c r="S18" s="50"/>
+      <c r="V18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="AB18" s="51"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="84" t="s">
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="AB18" s="50"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="64"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="63"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="L20" s="61"/>
-      <c r="S20" s="51"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="65"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="S20" s="50"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="64"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="66"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="65"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F24"/>
@@ -3486,10 +3482,10 @@
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" s="48"/>
+      <c r="T24" s="47"/>
       <c r="U24"/>
       <c r="V24"/>
-      <c r="X24" s="66"/>
+      <c r="X24" s="65"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F25"/>
@@ -3506,16 +3502,16 @@
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="46"/>
       <c r="V25"/>
-      <c r="X25" s="66"/>
+      <c r="X25" s="65"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X26" s="66"/>
+      <c r="X26" s="65"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U28" s="51"/>
+      <c r="U28" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:AL14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3580,7 +3576,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,16 +3677,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="95" t="s">
+      <c r="P5" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -3719,16 +3715,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="96" t="s">
+      <c r="P6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -3752,8 +3748,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3822,232 +3818,240 @@
       <c r="N8" s="19">
         <v>14</v>
       </c>
+      <c r="O8" s="19">
+        <v>15</v>
+      </c>
       <c r="P8" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19">
+        <v>19</v>
+      </c>
+      <c r="T8" s="19">
+        <v>20</v>
+      </c>
+      <c r="U8" s="19">
+        <v>21</v>
+      </c>
+      <c r="V8" s="19">
+        <v>22</v>
+      </c>
+      <c r="W8" s="19">
+        <v>23</v>
+      </c>
+      <c r="X8" s="19">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>31</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>32</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>33</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>34</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>35</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>36</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>37</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="R9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="19">
+      <c r="S9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="19">
+      <c r="T9" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="19">
+      <c r="V9" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="19">
+      <c r="W9" s="91"/>
+      <c r="X9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="19">
+      <c r="Y9" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="19">
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="19">
+      <c r="AD9" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="AE9" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AF9" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AH9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AI9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AJ9" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AK9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AL9" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AG8" s="19">
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="W10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="X10" s="80"/>
+      <c r="Y10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="Z10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AA10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AL8" s="20"/>
-    </row>
-    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="92"/>
-      <c r="X9" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="23" t="s">
+      <c r="AB10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="80"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="73"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="72"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -4151,586 +4155,582 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30">
-        <f t="shared" ref="H12:H13" si="0">+G12+P12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="69">
-        <f t="shared" ref="Q12:Q13" si="1">SUM(I12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32" t="e">
-        <f t="shared" ref="U12:U13" si="2">ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="70">
-        <f>+I12</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="70">
-        <f>+N12</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="30" t="e">
-        <f t="shared" ref="X12:X13" si="3">+U12-V12-W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="30">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29">
+        <f>+G12+O12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="68">
+        <f>SUM(I12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31" t="e">
+        <f>ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="69">
+        <v>0</v>
+      </c>
+      <c r="W12" s="69">
+        <v>0</v>
+      </c>
+      <c r="X12" s="100" t="e">
+        <f>+U12-V12-W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="29">
         <f>4400000*Z12</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="30">
-        <f t="shared" ref="AB12:AB13" si="4">ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="33" t="e">
-        <f t="shared" ref="AC12:AC13" si="5">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="34" t="e">
-        <f t="shared" ref="AD12:AD13" si="6">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="34">
-        <f t="shared" ref="AE12:AE13" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="30" t="e">
+      <c r="AB12" s="29">
+        <f>ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="32" t="e">
+        <f t="shared" ref="AC12:AC13" si="0">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="33" t="e">
+        <f t="shared" ref="AD12:AD13" si="1">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="33">
+        <f t="shared" ref="AE12:AE13" si="2">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="29" t="e">
         <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="30" t="e">
+      <c r="AH12" s="29" t="e">
         <f>AG12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="35" t="e">
+      <c r="AI12" s="34" t="e">
         <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="35" t="e">
-        <f t="shared" ref="AK12:AK13" si="8">+IF(AD12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="68"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="34" t="e">
+        <f t="shared" ref="AK12:AK13" si="3">+IF(AD12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="67"/>
     </row>
     <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <f>+G13+O13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="68">
+        <f t="shared" ref="Q13:Q14" si="4">SUM(I13:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31" t="e">
+        <f t="shared" ref="U13:U14" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="69">
+        <v>0</v>
+      </c>
+      <c r="W13" s="69">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29" t="e">
+        <f t="shared" ref="X13:X14" si="6">+U13-V13-W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <f t="shared" ref="AB13:AB14" si="7">ROUND(H13*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="69">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="33" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="70">
-        <f>+I13</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="70">
-        <f>+N13</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="29" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="29" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="34" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="30">
-        <f>4400000*Z13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="33" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="34" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="30" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="30" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="35" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="35" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="68"/>
+      <c r="AL13" s="67"/>
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41">
-        <f t="shared" ref="G14:AK14" si="9">+SUBTOTAL(9,G12:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="44" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40">
+        <f t="shared" ref="G14:AK14" si="8">+SUBTOTAL(9,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="43" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="35"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="48"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="47"/>
       <c r="Y15"/>
-      <c r="Z15" s="49"/>
+      <c r="Z15" s="48"/>
       <c r="AA15"/>
       <c r="AB15"/>
-      <c r="AC15" s="50"/>
+      <c r="AC15" s="49"/>
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="1:38" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="53"/>
-      <c r="F17" s="74" t="s">
+    <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="52"/>
+      <c r="F17" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="T17" s="54"/>
-      <c r="V17" s="75" t="s">
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="T17" s="53"/>
+      <c r="V17" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="76" t="s">
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="56"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AL17" s="59"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AL17" s="58"/>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="L18" s="61"/>
-      <c r="S18" s="51"/>
-      <c r="V18" s="84" t="s">
+      <c r="L18" s="60"/>
+      <c r="S18" s="50"/>
+      <c r="V18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="AB18" s="51"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="84" t="s">
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="AB18" s="50"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="64"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="63"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="L20" s="61"/>
-      <c r="S20" s="51"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="65"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="S20" s="50"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="64"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="66"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="65"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F24"/>
@@ -4747,10 +4747,10 @@
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" s="48"/>
+      <c r="T24" s="47"/>
       <c r="U24"/>
       <c r="V24"/>
-      <c r="X24" s="66"/>
+      <c r="X24" s="65"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F25"/>
@@ -4767,16 +4767,16 @@
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="46"/>
       <c r="V25"/>
-      <c r="X25" s="66"/>
+      <c r="X25" s="65"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X26" s="66"/>
+      <c r="X26" s="65"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U28" s="51"/>
+      <c r="U28" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -4838,7 +4838,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4939,16 +4939,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="95" t="s">
+      <c r="P5" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -4977,16 +4977,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="96" t="s">
+      <c r="P6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -5010,8 +5010,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -5080,232 +5080,240 @@
       <c r="N8" s="19">
         <v>14</v>
       </c>
+      <c r="O8" s="19">
+        <v>15</v>
+      </c>
       <c r="P8" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19">
+        <v>19</v>
+      </c>
+      <c r="T8" s="19">
+        <v>20</v>
+      </c>
+      <c r="U8" s="19">
+        <v>21</v>
+      </c>
+      <c r="V8" s="19">
+        <v>22</v>
+      </c>
+      <c r="W8" s="19">
+        <v>23</v>
+      </c>
+      <c r="X8" s="19">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>31</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>32</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>33</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>34</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>35</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>36</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>37</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="R9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="19">
+      <c r="S9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="19">
+      <c r="T9" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="19">
+      <c r="V9" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="19">
+      <c r="W9" s="91"/>
+      <c r="X9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="19">
+      <c r="Y9" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="19">
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="19">
+      <c r="AD9" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="AE9" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AF9" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AH9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AI9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AJ9" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AK9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AL9" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AG8" s="19">
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="W10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="X10" s="80"/>
+      <c r="Y10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="Z10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AA10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AL8" s="20"/>
-    </row>
-    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="92"/>
-      <c r="X9" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="23" t="s">
+      <c r="AB10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="80"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="73"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="72"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -5409,586 +5417,582 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30">
-        <f t="shared" ref="H12:H13" si="0">+G12+P12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="69">
-        <f t="shared" ref="Q12:Q13" si="1">SUM(I12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32" t="e">
-        <f t="shared" ref="U12:U13" si="2">ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="70">
-        <f>+I12</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="70">
-        <f>+N12</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="30" t="e">
-        <f t="shared" ref="X12:X13" si="3">+U12-V12-W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="30">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29">
+        <f>+G12+O12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="68">
+        <f>SUM(I12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31" t="e">
+        <f>ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="69">
+        <v>0</v>
+      </c>
+      <c r="W12" s="69">
+        <v>0</v>
+      </c>
+      <c r="X12" s="100" t="e">
+        <f>+U12-V12-W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="29">
         <f>4400000*Z12</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="30">
-        <f t="shared" ref="AB12:AB13" si="4">ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="33" t="e">
-        <f t="shared" ref="AC12:AC13" si="5">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="34" t="e">
-        <f t="shared" ref="AD12:AD13" si="6">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="34">
-        <f t="shared" ref="AE12:AE13" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="30" t="e">
+      <c r="AB12" s="29">
+        <f>ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="32" t="e">
+        <f t="shared" ref="AC12:AC13" si="0">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="33" t="e">
+        <f t="shared" ref="AD12:AD13" si="1">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="33">
+        <f t="shared" ref="AE12:AE13" si="2">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="29" t="e">
         <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="30" t="e">
+      <c r="AH12" s="29" t="e">
         <f>AG12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="35" t="e">
+      <c r="AI12" s="34" t="e">
         <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="35" t="e">
-        <f t="shared" ref="AK12:AK13" si="8">+IF(AD12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="68"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="34" t="e">
+        <f t="shared" ref="AK12:AK13" si="3">+IF(AD12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="67"/>
     </row>
     <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <f>+G13+O13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="68">
+        <f t="shared" ref="Q13:Q14" si="4">SUM(I13:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31" t="e">
+        <f t="shared" ref="U13:U14" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="69">
+        <v>0</v>
+      </c>
+      <c r="W13" s="69">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29" t="e">
+        <f t="shared" ref="X13:X14" si="6">+U13-V13-W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <f t="shared" ref="AB13:AB14" si="7">ROUND(H13*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="69">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="33" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="70">
-        <f>+I13</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="70">
-        <f>+N13</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="29" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="29" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="34" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="30">
-        <f>4400000*Z13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="33" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="34" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="30" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="30" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="35" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="35" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="68"/>
+      <c r="AL13" s="67"/>
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41">
-        <f t="shared" ref="G14:AK14" si="9">+SUBTOTAL(9,G12:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="44" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40">
+        <f t="shared" ref="G14:AK14" si="8">+SUBTOTAL(9,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="43" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="35"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="48"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="47"/>
       <c r="Y15"/>
-      <c r="Z15" s="49"/>
+      <c r="Z15" s="48"/>
       <c r="AA15"/>
       <c r="AB15"/>
-      <c r="AC15" s="50"/>
+      <c r="AC15" s="49"/>
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="1:38" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="53"/>
-      <c r="F17" s="74" t="s">
+    <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="52"/>
+      <c r="F17" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="T17" s="54"/>
-      <c r="V17" s="75" t="s">
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="T17" s="53"/>
+      <c r="V17" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="76" t="s">
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="56"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AL17" s="59"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AL17" s="58"/>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="L18" s="61"/>
-      <c r="S18" s="51"/>
-      <c r="V18" s="84" t="s">
+      <c r="L18" s="60"/>
+      <c r="S18" s="50"/>
+      <c r="V18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="AB18" s="51"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="84" t="s">
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="AB18" s="50"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="64"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="63"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="L20" s="61"/>
-      <c r="S20" s="51"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="65"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="S20" s="50"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="64"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="66"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="65"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F24"/>
@@ -6005,10 +6009,10 @@
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" s="48"/>
+      <c r="T24" s="47"/>
       <c r="U24"/>
       <c r="V24"/>
-      <c r="X24" s="66"/>
+      <c r="X24" s="65"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F25"/>
@@ -6025,16 +6029,16 @@
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="46"/>
       <c r="V25"/>
-      <c r="X25" s="66"/>
+      <c r="X25" s="65"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X26" s="66"/>
+      <c r="X26" s="65"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U28" s="51"/>
+      <c r="U28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -6188,16 +6192,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="95" t="s">
+      <c r="P5" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -6226,16 +6230,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="96" t="s">
+      <c r="P6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -6259,8 +6263,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -6329,232 +6333,240 @@
       <c r="N8" s="19">
         <v>14</v>
       </c>
+      <c r="O8" s="19">
+        <v>15</v>
+      </c>
       <c r="P8" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19">
+        <v>19</v>
+      </c>
+      <c r="T8" s="19">
+        <v>20</v>
+      </c>
+      <c r="U8" s="19">
+        <v>21</v>
+      </c>
+      <c r="V8" s="19">
+        <v>22</v>
+      </c>
+      <c r="W8" s="19">
+        <v>23</v>
+      </c>
+      <c r="X8" s="19">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>31</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>32</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>33</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>34</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>35</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>36</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>37</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="R9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="19">
+      <c r="S9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="19">
+      <c r="T9" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="19">
+      <c r="V9" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="19">
+      <c r="W9" s="91"/>
+      <c r="X9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="19">
+      <c r="Y9" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="19">
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="19">
+      <c r="AD9" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="AE9" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AF9" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AH9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AI9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AJ9" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AK9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AL9" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AG8" s="19">
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="W10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="X10" s="80"/>
+      <c r="Y10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="Z10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AA10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AL8" s="20"/>
-    </row>
-    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="92"/>
-      <c r="X9" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="23" t="s">
+      <c r="AB10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="80"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="73"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="72"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -6658,586 +6670,582 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30">
-        <f t="shared" ref="H12:H13" si="0">+G12+P12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="69">
-        <f t="shared" ref="Q12:Q13" si="1">SUM(I12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32" t="e">
-        <f t="shared" ref="U12:U13" si="2">ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="70">
-        <f>+I12</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="70">
-        <f>+N12</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="30" t="e">
-        <f t="shared" ref="X12:X13" si="3">+U12-V12-W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="30">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29">
+        <f>+G12+O12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="68">
+        <f>SUM(I12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31" t="e">
+        <f>ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="69">
+        <v>0</v>
+      </c>
+      <c r="W12" s="69">
+        <v>0</v>
+      </c>
+      <c r="X12" s="100" t="e">
+        <f>+U12-V12-W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="29">
         <f>4400000*Z12</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="30">
-        <f t="shared" ref="AB12:AB13" si="4">ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="33" t="e">
-        <f t="shared" ref="AC12:AC13" si="5">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="34" t="e">
-        <f t="shared" ref="AD12:AD13" si="6">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="34">
-        <f t="shared" ref="AE12:AE13" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="30" t="e">
+      <c r="AB12" s="29">
+        <f>ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="32" t="e">
+        <f t="shared" ref="AC12:AC13" si="0">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="33" t="e">
+        <f t="shared" ref="AD12:AD13" si="1">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="33">
+        <f t="shared" ref="AE12:AE13" si="2">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="29" t="e">
         <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="30" t="e">
+      <c r="AH12" s="29" t="e">
         <f>AG12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="35" t="e">
+      <c r="AI12" s="34" t="e">
         <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="35" t="e">
-        <f t="shared" ref="AK12:AK13" si="8">+IF(AD12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="68"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="34" t="e">
+        <f t="shared" ref="AK12:AK13" si="3">+IF(AD12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="67"/>
     </row>
     <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <f>+G13+O13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="68">
+        <f t="shared" ref="Q13:Q14" si="4">SUM(I13:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31" t="e">
+        <f t="shared" ref="U13:U14" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="69">
+        <v>0</v>
+      </c>
+      <c r="W13" s="69">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29" t="e">
+        <f t="shared" ref="X13:X14" si="6">+U13-V13-W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <f t="shared" ref="AB13:AB14" si="7">ROUND(H13*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="69">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="33" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="70">
-        <f>+I13</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="70">
-        <f>+N13</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="29" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="29" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="34" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="30">
-        <f>4400000*Z13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="33" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="34" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="30" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="30" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="35" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="35" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="68"/>
+      <c r="AL13" s="67"/>
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41">
-        <f t="shared" ref="G14:AK14" si="9">+SUBTOTAL(9,G12:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="44" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40">
+        <f t="shared" ref="G14:AK14" si="8">+SUBTOTAL(9,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="43" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="35"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="48"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="47"/>
       <c r="Y15"/>
-      <c r="Z15" s="49"/>
+      <c r="Z15" s="48"/>
       <c r="AA15"/>
       <c r="AB15"/>
-      <c r="AC15" s="50"/>
+      <c r="AC15" s="49"/>
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="1:38" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="53"/>
-      <c r="F17" s="74" t="s">
+    <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="52"/>
+      <c r="F17" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="T17" s="54"/>
-      <c r="V17" s="75" t="s">
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="T17" s="53"/>
+      <c r="V17" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="76" t="s">
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="56"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AL17" s="59"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AL17" s="58"/>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="L18" s="61"/>
-      <c r="S18" s="51"/>
-      <c r="V18" s="84" t="s">
+      <c r="L18" s="60"/>
+      <c r="S18" s="50"/>
+      <c r="V18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="AB18" s="51"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="84" t="s">
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="AB18" s="50"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="64"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="63"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="L20" s="61"/>
-      <c r="S20" s="51"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="65"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="S20" s="50"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="64"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="66"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="65"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F24"/>
@@ -7254,10 +7262,10 @@
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" s="48"/>
+      <c r="T24" s="47"/>
       <c r="U24"/>
       <c r="V24"/>
-      <c r="X24" s="66"/>
+      <c r="X24" s="65"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F25"/>
@@ -7274,16 +7282,16 @@
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="46"/>
       <c r="V25"/>
-      <c r="X25" s="66"/>
+      <c r="X25" s="65"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X26" s="66"/>
+      <c r="X26" s="65"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U28" s="51"/>
+      <c r="U28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -7332,11 +7340,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BE417A-60B7-46CC-952E-E46FBED66C4F}">
   <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="W12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomRight" activeCell="AA15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7437,16 +7445,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="95" t="s">
+      <c r="P5" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -7475,16 +7483,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="96" t="s">
+      <c r="P6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -7508,8 +7516,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -7578,232 +7586,240 @@
       <c r="N8" s="19">
         <v>14</v>
       </c>
+      <c r="O8" s="19">
+        <v>15</v>
+      </c>
       <c r="P8" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19">
+        <v>19</v>
+      </c>
+      <c r="T8" s="19">
+        <v>20</v>
+      </c>
+      <c r="U8" s="19">
+        <v>21</v>
+      </c>
+      <c r="V8" s="19">
+        <v>22</v>
+      </c>
+      <c r="W8" s="19">
+        <v>23</v>
+      </c>
+      <c r="X8" s="19">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>31</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>32</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>33</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>34</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>35</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>36</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>37</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="R9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="19">
+      <c r="S9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="19">
+      <c r="T9" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="19">
+      <c r="V9" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="19">
+      <c r="W9" s="91"/>
+      <c r="X9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="19">
+      <c r="Y9" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="19">
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="19">
+      <c r="AD9" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="AE9" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AF9" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AH9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AI9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AJ9" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AK9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AE8" s="19">
+      <c r="AL9" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AG8" s="19">
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AH8" s="19">
+      <c r="W10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="X10" s="80"/>
+      <c r="Y10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="Z10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AA10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AL8" s="20"/>
-    </row>
-    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="92"/>
-      <c r="X9" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="87" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="73" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="23" t="s">
+      <c r="AB10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="80"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="73"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="72"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -7907,586 +7923,582 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30">
-        <f t="shared" ref="H12:H13" si="0">+G12+P12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="69">
-        <f t="shared" ref="Q12:Q13" si="1">SUM(I12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32" t="e">
-        <f t="shared" ref="U12:U13" si="2">ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="70">
-        <f>+I12</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="70">
-        <f>+N12</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="30" t="e">
-        <f t="shared" ref="X12:X13" si="3">+U12-V12-W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="30">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29">
+        <f>+G12+O12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="68">
+        <f>SUM(I12:P12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31" t="e">
+        <f>ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="69">
+        <v>0</v>
+      </c>
+      <c r="W12" s="69">
+        <v>0</v>
+      </c>
+      <c r="X12" s="100" t="e">
+        <f>+U12-V12-W12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="29">
         <f>4400000*Z12</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="30">
-        <f t="shared" ref="AB12:AB13" si="4">ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="33" t="e">
-        <f t="shared" ref="AC12:AC13" si="5">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="34" t="e">
-        <f t="shared" ref="AD12:AD13" si="6">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="34">
-        <f t="shared" ref="AE12:AE13" si="7">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="30" t="e">
+      <c r="AB12" s="29">
+        <f>ROUND(H12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="32" t="e">
+        <f t="shared" ref="AC12:AC13" si="0">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12" s="33" t="e">
+        <f t="shared" ref="AD12:AD13" si="1">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="33">
+        <f t="shared" ref="AE12:AE13" si="2">ROUND(H12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="29" t="e">
         <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH12" s="30" t="e">
+      <c r="AH12" s="29" t="e">
         <f>AG12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI12" s="35" t="e">
+      <c r="AI12" s="34" t="e">
         <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="35" t="e">
-        <f t="shared" ref="AK12:AK13" si="8">+IF(AD12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="68"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="34" t="e">
+        <f t="shared" ref="AK12:AK13" si="3">+IF(AD12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="67"/>
     </row>
     <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <f>+G13+O13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="68">
+        <f t="shared" ref="Q13:Q14" si="4">SUM(I13:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31" t="e">
+        <f t="shared" ref="U13:U14" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="69">
+        <v>0</v>
+      </c>
+      <c r="W13" s="69">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29" t="e">
+        <f t="shared" ref="X13:X14" si="6">+U13-V13-W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <f t="shared" ref="AB13:AB14" si="7">ROUND(H13*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="32" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="69">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="33" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="30"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="33">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="70">
-        <f>+I13</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="70">
-        <f>+N13</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="30" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="29" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="29" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="34" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="30">
-        <f>4400000*Z13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="33" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="34" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="30" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="30" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="35" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="35" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="68"/>
+      <c r="AL13" s="67"/>
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41">
-        <f t="shared" ref="G14:AK14" si="9">+SUBTOTAL(9,G12:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="42" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="44" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40">
+        <f t="shared" ref="G14:AK14" si="8">+SUBTOTAL(9,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="43" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="40" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="35"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="48"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="47"/>
       <c r="Y15"/>
-      <c r="Z15" s="49"/>
+      <c r="Z15" s="48"/>
       <c r="AA15"/>
       <c r="AB15"/>
-      <c r="AC15" s="50"/>
+      <c r="AC15" s="49"/>
       <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
     </row>
-    <row r="17" spans="1:38" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="53"/>
-      <c r="F17" s="74" t="s">
+    <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="52"/>
+      <c r="F17" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="T17" s="54"/>
-      <c r="V17" s="75" t="s">
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="T17" s="53"/>
+      <c r="V17" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="76" t="s">
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="56"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AL17" s="59"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AL17" s="58"/>
     </row>
     <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="L18" s="61"/>
-      <c r="S18" s="51"/>
-      <c r="V18" s="84" t="s">
+      <c r="L18" s="60"/>
+      <c r="S18" s="50"/>
+      <c r="V18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="AB18" s="51"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="84" t="s">
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="AB18" s="50"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="64"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="63"/>
     </row>
     <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="L20" s="61"/>
-      <c r="S20" s="51"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="65"/>
-      <c r="AC20" s="51"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="S20" s="50"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="64"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
       <c r="T21" s="16"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="51"/>
-      <c r="AB21" s="51"/>
-      <c r="AC21" s="51"/>
-      <c r="AD21" s="51"/>
-      <c r="AE21" s="51"/>
-      <c r="AF21" s="51"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="66"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="65"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="46"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F24"/>
@@ -8503,10 +8515,10 @@
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24" s="48"/>
+      <c r="T24" s="47"/>
       <c r="U24"/>
       <c r="V24"/>
-      <c r="X24" s="66"/>
+      <c r="X24" s="65"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F25"/>
@@ -8523,16 +8535,16 @@
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="46"/>
       <c r="V25"/>
-      <c r="X25" s="66"/>
+      <c r="X25" s="65"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X26" s="66"/>
+      <c r="X26" s="65"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U28" s="51"/>
+      <c r="U28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -8542,6 +8554,7 @@
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="T9:T10"/>
+    <mergeCell ref="X9:X10"/>
     <mergeCell ref="P5:W5"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="A9:A10"/>
@@ -8556,7 +8569,6 @@
     <mergeCell ref="I9:P9"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:X10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="AL9:AL10"/>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F86CFC9-18C4-433A-B5BE-68016779754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF61817-C065-4153-92A9-BE909E6A3A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
     <sheet name="Nhân viên" sheetId="14" r:id="rId2"/>
     <sheet name="Dịch vụ" sheetId="15" r:id="rId3"/>
     <sheet name="Học việc,thử việc" sheetId="16" r:id="rId4"/>
-    <sheet name="Clone" sheetId="19" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Nhân viên'!$A$11:$AJ$14</definedName>
@@ -37,7 +36,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Nhân viên'!$A$1:$AG$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tất cả'!$A$1:$AI$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tất cả'!$A$1:$AI$20</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Nhân viên'!$9:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tất cả'!$9:$10</definedName>
   </definedNames>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -176,9 +175,6 @@
 thuộc</t>
   </si>
   <si>
-    <t>BHXH</t>
-  </si>
-  <si>
     <t>TỔNG:</t>
   </si>
   <si>
@@ -228,6 +224,9 @@
   </si>
   <si>
     <t>Bộ phận</t>
+  </si>
+  <si>
+    <t>Lương đóng Bảo hiểm (XH,YT,TN)</t>
   </si>
 </sst>
 </file>
@@ -468,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -565,6 +564,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -584,7 +594,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -743,11 +753,151 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,74 +917,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1026,7 +1113,7 @@
             <v>Ăn trưa</v>
           </cell>
           <cell r="U11" t="str">
-            <v xml:space="preserve">Bản thân </v>
+            <v>Bản thân</v>
           </cell>
           <cell r="V11" t="str">
             <v>Số NPT</v>
@@ -1697,10 +1784,10 @@
             <v>Lương đóng BHXH</v>
           </cell>
           <cell r="E25" t="str">
-            <v xml:space="preserve"> Nhân viên đóng</v>
+            <v>Nhân viên đóng</v>
           </cell>
           <cell r="I25" t="str">
-            <v xml:space="preserve"> Công ty đóng</v>
+            <v>Công ty đóng</v>
           </cell>
           <cell r="M25" t="str">
             <v>Tổng cộng</v>
@@ -2305,13 +2392,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,7 +2430,7 @@
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="22.5703125" style="3" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
     <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" customWidth="1"/>
@@ -2412,16 +2499,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -2450,16 +2537,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -2483,8 +2570,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2627,144 +2714,144 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="85" t="s">
+      <c r="A9" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="120"/>
+      <c r="X9" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE9" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF9" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="81" t="s">
+      <c r="AG9" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ9" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL9" s="124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="91"/>
-      <c r="X9" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="21" t="s">
+      <c r="L10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="89"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="118"/>
       <c r="V10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="X10" s="80"/>
+      <c r="X10" s="110"/>
       <c r="Y10" s="23" t="s">
         <v>33</v>
       </c>
@@ -2775,18 +2862,1471 @@
         <v>35</v>
       </c>
       <c r="AB10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="124"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3">
+        <v>13</v>
+      </c>
+      <c r="N11" s="3">
+        <v>14</v>
+      </c>
+      <c r="P11" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>16</v>
+      </c>
+      <c r="R11" s="3">
+        <v>17</v>
+      </c>
+      <c r="S11" s="3">
+        <v>18</v>
+      </c>
+      <c r="U11" s="3">
+        <v>20</v>
+      </c>
+      <c r="V11" s="3">
+        <v>21</v>
+      </c>
+      <c r="W11" s="3">
+        <v>22</v>
+      </c>
+      <c r="X11" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>27</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>29</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>31</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>32</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>33</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>34</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>35</v>
+      </c>
+      <c r="AL11" s="6">
         <v>36</v>
       </c>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="80"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="72"/>
+    </row>
+    <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40">
+        <f>SUMIF($E13:$E14,$A12,G13:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="40">
+        <f t="shared" ref="H12:AK12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="35"/>
+    </row>
+    <row r="13" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
+        <f>+G13+O13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="68">
+        <f>SUM(I13:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="31" t="e">
+        <f>ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="69">
+        <v>0</v>
+      </c>
+      <c r="W13" s="69">
+        <v>0</v>
+      </c>
+      <c r="X13" s="70" t="e">
+        <f>+U13-V13-W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <f>4400000*Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <f>ROUND(H13*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="32" t="e">
+        <f t="shared" ref="AC13:AC14" si="1">+IF(X13-Y13-AA13-AB13&gt;0,X13-Y13-AA13-AB13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13" s="33" t="e">
+        <f t="shared" ref="AD13:AD14" si="2">ROUND(IF(AC13&gt;80000000,AC13*35%-9850000,IF(AC13&gt;52000000,AC13*30%-5850000,IF(AC13&gt;32000000,AC13*25%-3250000,IF(AC13&gt;18000000,AC13*20%-1650000,IF(AC13&gt;10000000,AC13*15%-750000,IF(AC13&gt;5000000,AC13*10%-250000,IF(AC13&gt;0,AC13*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="33">
+        <f t="shared" ref="AE13:AE14" si="3">ROUND(H13*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="29" t="e">
+        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="29" t="e">
+        <f>AG13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="34" t="e">
+        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="34" t="e">
+        <f t="shared" ref="AK13:AK14" si="4">+IF(AD13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" s="67"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77">
+        <f>+G14+O14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="78">
+        <f t="shared" ref="Q14" si="5">SUM(I14:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="77"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="80" t="e">
+        <f t="shared" ref="U14" si="6">ROUND(((G14+Q14+R14)/F14*S14)+T14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="81">
+        <v>0</v>
+      </c>
+      <c r="W14" s="81">
+        <v>0</v>
+      </c>
+      <c r="X14" s="77" t="e">
+        <f t="shared" ref="X14" si="7">+U14-V14-W14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="80">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="77">
+        <f>4400000*Z14</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="77">
+        <f t="shared" ref="AB14" si="8">ROUND(H14*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="82" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="83" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="77" t="e">
+        <f>ROUND(U14-AB14-AD14-AE14 - AF14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="77" t="e">
+        <f>AG14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="84" t="e">
+        <f>IF(AND(AG14&gt;AH14,AH14&gt;0),AG14-AH14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="84" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="85"/>
+    </row>
+    <row r="15" spans="1:38" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AL15" s="28"/>
+    </row>
+    <row r="16" spans="1:38" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="41">
+        <f>SUMIF($E12:$E15,"",G12:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
+        <f t="shared" ref="H16:AK16" si="9">SUMIF($E12:$E15,"",H12:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH16" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI16" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL16" s="98"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+    </row>
+    <row r="19" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="52"/>
+      <c r="F19" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="T19" s="53"/>
+      <c r="V19" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="126"/>
+      <c r="X19" s="126"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="56"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH19" s="127"/>
+      <c r="AI19" s="127"/>
+      <c r="AJ19" s="127"/>
+      <c r="AL19" s="58"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="L20" s="60"/>
+      <c r="S20" s="50"/>
+      <c r="V20" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" s="112"/>
+      <c r="X20" s="112"/>
+      <c r="AB20" s="50"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH20" s="112"/>
+      <c r="AI20" s="112"/>
+      <c r="AJ20" s="112"/>
+    </row>
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="63"/>
+    </row>
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="L22" s="60"/>
+      <c r="S22" s="50"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="64"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="65"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26" s="47"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="X26" s="65"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="46"/>
+      <c r="V27"/>
+      <c r="X27" s="65"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="X28" s="65"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U30" s="50"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A11:AL14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="37">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="20" max="33" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="35" max="66" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A56AC-9D97-42B4-BD8C-C6FA9C06AF2D}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AL28"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15" style="3" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
+    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="15" style="3" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="3"/>
+    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="AB3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+    </row>
+    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5</v>
+      </c>
+      <c r="F8" s="19">
+        <v>6</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>8</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9</v>
+      </c>
+      <c r="J8" s="19">
+        <v>10</v>
+      </c>
+      <c r="K8" s="19">
+        <v>11</v>
+      </c>
+      <c r="L8" s="19">
+        <v>12</v>
+      </c>
+      <c r="M8" s="19">
+        <v>13</v>
+      </c>
+      <c r="N8" s="19">
+        <v>14</v>
+      </c>
+      <c r="O8" s="19">
+        <v>15</v>
+      </c>
+      <c r="P8" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>17</v>
+      </c>
+      <c r="R8" s="19">
+        <v>18</v>
+      </c>
+      <c r="S8" s="19">
+        <v>19</v>
+      </c>
+      <c r="T8" s="19">
+        <v>20</v>
+      </c>
+      <c r="U8" s="19">
+        <v>21</v>
+      </c>
+      <c r="V8" s="19">
+        <v>22</v>
+      </c>
+      <c r="W8" s="19">
+        <v>23</v>
+      </c>
+      <c r="X8" s="19">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>28</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>30</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>31</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>32</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>33</v>
+      </c>
+      <c r="AH8" s="19">
+        <v>34</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>35</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>36</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>37</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="120"/>
+      <c r="X9" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE9" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF9" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG9" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ9" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL9" s="124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="124"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2926,7 +4466,7 @@
       <c r="W12" s="69">
         <v>0</v>
       </c>
-      <c r="X12" s="100" t="e">
+      <c r="X12" s="70" t="e">
         <f>+U12-V12-W12</f>
         <v>#DIV/0!</v>
       </c>
@@ -2995,14 +4535,14 @@
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="68">
-        <f t="shared" ref="Q12:Q13" si="4">SUM(I13:P13)</f>
+        <f t="shared" ref="Q13" si="4">SUM(I13:P13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="29"/>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f t="shared" ref="U12:U13" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
+        <f t="shared" ref="U13" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V13" s="69">
@@ -3012,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="29" t="e">
-        <f t="shared" ref="X12:X13" si="6">+U13-V13-W13</f>
+        <f t="shared" ref="X13" si="6">+U13-V13-W13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y13" s="29"/>
@@ -3024,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f t="shared" ref="AB12:AB13" si="7">ROUND(H13*10.5%,0)</f>
+        <f t="shared" ref="AB13" si="7">ROUND(H13*10.5%,0)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="e">
@@ -3061,7 +4601,7 @@
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -3258,58 +4798,58 @@
     </row>
     <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="52"/>
-      <c r="F17" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
+      <c r="F17" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
       <c r="L17" s="54"/>
       <c r="T17" s="53"/>
-      <c r="V17" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
+      <c r="V17" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
       <c r="Z17" s="55"/>
       <c r="AA17" s="56"/>
       <c r="AD17" s="57"/>
       <c r="AE17" s="57"/>
       <c r="AF17" s="57"/>
-      <c r="AG17" s="75" t="s">
+      <c r="AG17" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="127"/>
+      <c r="AL17" s="58"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="60"/>
       <c r="S18" s="50"/>
-      <c r="V18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
+      <c r="V18" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="112"/>
+      <c r="X18" s="112"/>
       <c r="AB18" s="50"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
       <c r="AF18" s="46"/>
-      <c r="AG18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
+      <c r="AG18" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="112"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="59"/>
@@ -3514,44 +5054,44 @@
       <c r="U28" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:AL14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="36">
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="P5:W5"/>
     <mergeCell ref="P6:W6"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="V18:X18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3560,23 +5100,20 @@
     <brk id="18" max="33" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="35" max="66" man="1"/>
+    <brk id="33" max="66" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A56AC-9D97-42B4-BD8C-C6FA9C06AF2D}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
   <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,7 +5145,7 @@
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="24.28515625" style="3" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
     <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" customWidth="1"/>
@@ -3677,16 +5214,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -3715,16 +5252,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -3748,8 +5285,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3892,144 +5429,144 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="85" t="s">
+      <c r="A9" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="120"/>
+      <c r="X9" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE9" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF9" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="81" t="s">
+      <c r="AG9" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ9" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL9" s="124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="91"/>
-      <c r="X9" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="21" t="s">
+      <c r="L10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="89"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="118"/>
       <c r="V10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="X10" s="80"/>
+      <c r="X10" s="110"/>
       <c r="Y10" s="23" t="s">
         <v>33</v>
       </c>
@@ -4040,18 +5577,18 @@
         <v>35</v>
       </c>
       <c r="AB10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="80"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="72"/>
+        <v>53</v>
+      </c>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="124"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -4191,7 +5728,7 @@
       <c r="W12" s="69">
         <v>0</v>
       </c>
-      <c r="X12" s="100" t="e">
+      <c r="X12" s="70" t="e">
         <f>+U12-V12-W12</f>
         <v>#DIV/0!</v>
       </c>
@@ -4260,14 +5797,14 @@
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="68">
-        <f t="shared" ref="Q13:Q14" si="4">SUM(I13:P13)</f>
+        <f t="shared" ref="Q13" si="4">SUM(I13:P13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="29"/>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f t="shared" ref="U13:U14" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
+        <f t="shared" ref="U13" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V13" s="69">
@@ -4277,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="29" t="e">
-        <f t="shared" ref="X13:X14" si="6">+U13-V13-W13</f>
+        <f t="shared" ref="X13" si="6">+U13-V13-W13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y13" s="29"/>
@@ -4289,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f t="shared" ref="AB13:AB14" si="7">ROUND(H13*10.5%,0)</f>
+        <f t="shared" ref="AB13" si="7">ROUND(H13*10.5%,0)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="e">
@@ -4326,7 +5863,7 @@
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -4523,58 +6060,58 @@
     </row>
     <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="52"/>
-      <c r="F17" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
+      <c r="F17" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
       <c r="L17" s="54"/>
       <c r="T17" s="53"/>
-      <c r="V17" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
+      <c r="V17" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
       <c r="Z17" s="55"/>
       <c r="AA17" s="56"/>
       <c r="AD17" s="57"/>
       <c r="AE17" s="57"/>
       <c r="AF17" s="57"/>
-      <c r="AG17" s="75" t="s">
+      <c r="AG17" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="127"/>
+      <c r="AL17" s="58"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="60"/>
       <c r="S18" s="50"/>
-      <c r="V18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
+      <c r="V18" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="112"/>
+      <c r="X18" s="112"/>
       <c r="AB18" s="50"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
       <c r="AF18" s="46"/>
-      <c r="AG18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
+      <c r="AG18" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="112"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="59"/>
@@ -4779,66 +6316,57 @@
       <c r="U28" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="36">
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
-  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="18" max="33" man="1"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="33" max="66" man="1"/>
-  </colBreaks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
   <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4870,7 +6398,7 @@
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" style="3" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
     <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" customWidth="1"/>
@@ -4939,16 +6467,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -4977,16 +6505,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -5010,8 +6538,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -5154,144 +6682,144 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="85" t="s">
+      <c r="A9" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="120"/>
+      <c r="X9" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="113" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE9" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF9" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="81" t="s">
+      <c r="AG9" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH9" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ9" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL9" s="124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="91"/>
-      <c r="X9" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="21" t="s">
+      <c r="L10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="89"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="118"/>
       <c r="V10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="X10" s="80"/>
+      <c r="X10" s="110"/>
       <c r="Y10" s="23" t="s">
         <v>33</v>
       </c>
@@ -5302,18 +6830,18 @@
         <v>35</v>
       </c>
       <c r="AB10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="80"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="72"/>
+        <v>53</v>
+      </c>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="129"/>
+      <c r="AL10" s="124"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -5453,7 +6981,7 @@
       <c r="W12" s="69">
         <v>0</v>
       </c>
-      <c r="X12" s="100" t="e">
+      <c r="X12" s="70" t="e">
         <f>+U12-V12-W12</f>
         <v>#DIV/0!</v>
       </c>
@@ -5522,14 +7050,14 @@
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="68">
-        <f t="shared" ref="Q13:Q14" si="4">SUM(I13:P13)</f>
+        <f t="shared" ref="Q13" si="4">SUM(I13:P13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="29"/>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f t="shared" ref="U13:U14" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
+        <f t="shared" ref="U13" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V13" s="69">
@@ -5539,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="29" t="e">
-        <f t="shared" ref="X13:X14" si="6">+U13-V13-W13</f>
+        <f t="shared" ref="X13" si="6">+U13-V13-W13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y13" s="29"/>
@@ -5551,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f t="shared" ref="AB13:AB14" si="7">ROUND(H13*10.5%,0)</f>
+        <f t="shared" ref="AB13" si="7">ROUND(H13*10.5%,0)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="e">
@@ -5588,7 +7116,7 @@
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -5785,58 +7313,58 @@
     </row>
     <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="52"/>
-      <c r="F17" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
+      <c r="F17" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
       <c r="L17" s="54"/>
       <c r="T17" s="53"/>
-      <c r="V17" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
+      <c r="V17" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
       <c r="Z17" s="55"/>
       <c r="AA17" s="56"/>
       <c r="AD17" s="57"/>
       <c r="AE17" s="57"/>
       <c r="AF17" s="57"/>
-      <c r="AG17" s="75" t="s">
+      <c r="AG17" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="127"/>
+      <c r="AL17" s="58"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="60"/>
       <c r="S18" s="50"/>
-      <c r="V18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
+      <c r="V18" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="112"/>
+      <c r="X18" s="112"/>
       <c r="AB18" s="50"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
       <c r="AF18" s="46"/>
-      <c r="AG18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
+      <c r="AG18" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="112"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="59"/>
@@ -6042,16 +7570,16 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="AD9:AD10"/>
@@ -6068,1233 +7596,6 @@
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="S9:S10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
-  <dimension ref="A1:AL28"/>
-  <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15" style="3" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
-    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15" style="3" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="3"/>
-    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="AB3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>1</v>
-      </c>
-      <c r="B8" s="19">
-        <v>2</v>
-      </c>
-      <c r="C8" s="19">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19">
-        <v>6</v>
-      </c>
-      <c r="G8" s="19">
-        <v>7</v>
-      </c>
-      <c r="H8" s="19">
-        <v>8</v>
-      </c>
-      <c r="I8" s="19">
-        <v>9</v>
-      </c>
-      <c r="J8" s="19">
-        <v>10</v>
-      </c>
-      <c r="K8" s="19">
-        <v>11</v>
-      </c>
-      <c r="L8" s="19">
-        <v>12</v>
-      </c>
-      <c r="M8" s="19">
-        <v>13</v>
-      </c>
-      <c r="N8" s="19">
-        <v>14</v>
-      </c>
-      <c r="O8" s="19">
-        <v>15</v>
-      </c>
-      <c r="P8" s="19">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>17</v>
-      </c>
-      <c r="R8" s="19">
-        <v>18</v>
-      </c>
-      <c r="S8" s="19">
-        <v>19</v>
-      </c>
-      <c r="T8" s="19">
-        <v>20</v>
-      </c>
-      <c r="U8" s="19">
-        <v>21</v>
-      </c>
-      <c r="V8" s="19">
-        <v>22</v>
-      </c>
-      <c r="W8" s="19">
-        <v>23</v>
-      </c>
-      <c r="X8" s="19">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="19">
-        <v>25</v>
-      </c>
-      <c r="Z8" s="19">
-        <v>26</v>
-      </c>
-      <c r="AA8" s="19">
-        <v>27</v>
-      </c>
-      <c r="AB8" s="19">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>29</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="19">
-        <v>31</v>
-      </c>
-      <c r="AF8" s="19">
-        <v>32</v>
-      </c>
-      <c r="AG8" s="19">
-        <v>33</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>34</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>36</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>37</v>
-      </c>
-      <c r="AL8" s="19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="91"/>
-      <c r="X9" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="80"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="72"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>8</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3">
-        <v>11</v>
-      </c>
-      <c r="L11" s="3">
-        <v>12</v>
-      </c>
-      <c r="M11" s="3">
-        <v>13</v>
-      </c>
-      <c r="N11" s="3">
-        <v>14</v>
-      </c>
-      <c r="P11" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>16</v>
-      </c>
-      <c r="R11" s="3">
-        <v>17</v>
-      </c>
-      <c r="S11" s="3">
-        <v>18</v>
-      </c>
-      <c r="U11" s="3">
-        <v>20</v>
-      </c>
-      <c r="V11" s="3">
-        <v>21</v>
-      </c>
-      <c r="W11" s="3">
-        <v>22</v>
-      </c>
-      <c r="X11" s="3">
-        <v>23</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>24</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>25</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>26</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>27</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>29</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>30</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>31</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>32</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>33</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>34</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>35</v>
-      </c>
-      <c r="AL11" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
-        <f>+G12+O12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="68">
-        <f>SUM(I12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="31" t="e">
-        <f>ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="69">
-        <v>0</v>
-      </c>
-      <c r="W12" s="69">
-        <v>0</v>
-      </c>
-      <c r="X12" s="100" t="e">
-        <f>+U12-V12-W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="29">
-        <f>4400000*Z12</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="29">
-        <f>ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="32" t="e">
-        <f t="shared" ref="AC12:AC13" si="0">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="33" t="e">
-        <f t="shared" ref="AD12:AD13" si="1">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="33">
-        <f t="shared" ref="AE12:AE13" si="2">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="29" t="e">
-        <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="29" t="e">
-        <f>AG12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="34" t="e">
-        <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="34" t="e">
-        <f t="shared" ref="AK12:AK13" si="3">+IF(AD12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="67"/>
-    </row>
-    <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29">
-        <f>+G13+O13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="68">
-        <f t="shared" ref="Q13:Q14" si="4">SUM(I13:P13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="31" t="e">
-        <f t="shared" ref="U13:U14" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="69">
-        <v>0</v>
-      </c>
-      <c r="W13" s="69">
-        <v>0</v>
-      </c>
-      <c r="X13" s="29" t="e">
-        <f t="shared" ref="X13:X14" si="6">+U13-V13-W13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="29">
-        <f>4400000*Z13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="29">
-        <f t="shared" ref="AB13:AB14" si="7">ROUND(H13*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="33" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="29" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="29" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="34" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="34" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="67"/>
-    </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40">
-        <f t="shared" ref="G14:AK14" si="8">+SUBTOTAL(9,G12:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="43" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="35"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="47"/>
-      <c r="Y15"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-    </row>
-    <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
-      <c r="F17" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="T17" s="53"/>
-      <c r="V17" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="56"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="60"/>
-      <c r="S18" s="50"/>
-      <c r="V18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="AB18" s="50"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
-    </row>
-    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="63"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="60"/>
-      <c r="S20" s="50"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="64"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="65"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24" s="47"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="X24" s="65"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="46"/>
-      <c r="V25"/>
-      <c r="X25" s="65"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X26" s="65"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U28" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
     <mergeCell ref="P5:W5"/>
     <mergeCell ref="P6:W6"/>
     <mergeCell ref="I7:J7"/>
@@ -7305,1285 +7606,6 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BE417A-60B7-46CC-952E-E46FBED66C4F}">
-  <dimension ref="A1:AL28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="W12" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AA15" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15" style="3" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
-    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15" style="3" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="3"/>
-    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="AB3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>1</v>
-      </c>
-      <c r="B8" s="19">
-        <v>2</v>
-      </c>
-      <c r="C8" s="19">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19">
-        <v>6</v>
-      </c>
-      <c r="G8" s="19">
-        <v>7</v>
-      </c>
-      <c r="H8" s="19">
-        <v>8</v>
-      </c>
-      <c r="I8" s="19">
-        <v>9</v>
-      </c>
-      <c r="J8" s="19">
-        <v>10</v>
-      </c>
-      <c r="K8" s="19">
-        <v>11</v>
-      </c>
-      <c r="L8" s="19">
-        <v>12</v>
-      </c>
-      <c r="M8" s="19">
-        <v>13</v>
-      </c>
-      <c r="N8" s="19">
-        <v>14</v>
-      </c>
-      <c r="O8" s="19">
-        <v>15</v>
-      </c>
-      <c r="P8" s="19">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>17</v>
-      </c>
-      <c r="R8" s="19">
-        <v>18</v>
-      </c>
-      <c r="S8" s="19">
-        <v>19</v>
-      </c>
-      <c r="T8" s="19">
-        <v>20</v>
-      </c>
-      <c r="U8" s="19">
-        <v>21</v>
-      </c>
-      <c r="V8" s="19">
-        <v>22</v>
-      </c>
-      <c r="W8" s="19">
-        <v>23</v>
-      </c>
-      <c r="X8" s="19">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="19">
-        <v>25</v>
-      </c>
-      <c r="Z8" s="19">
-        <v>26</v>
-      </c>
-      <c r="AA8" s="19">
-        <v>27</v>
-      </c>
-      <c r="AB8" s="19">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>29</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="19">
-        <v>31</v>
-      </c>
-      <c r="AF8" s="19">
-        <v>32</v>
-      </c>
-      <c r="AG8" s="19">
-        <v>33</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>34</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>36</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>37</v>
-      </c>
-      <c r="AL8" s="19">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="91"/>
-      <c r="X9" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="80"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="72"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>8</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3">
-        <v>11</v>
-      </c>
-      <c r="L11" s="3">
-        <v>12</v>
-      </c>
-      <c r="M11" s="3">
-        <v>13</v>
-      </c>
-      <c r="N11" s="3">
-        <v>14</v>
-      </c>
-      <c r="P11" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>16</v>
-      </c>
-      <c r="R11" s="3">
-        <v>17</v>
-      </c>
-      <c r="S11" s="3">
-        <v>18</v>
-      </c>
-      <c r="U11" s="3">
-        <v>20</v>
-      </c>
-      <c r="V11" s="3">
-        <v>21</v>
-      </c>
-      <c r="W11" s="3">
-        <v>22</v>
-      </c>
-      <c r="X11" s="3">
-        <v>23</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>24</v>
-      </c>
-      <c r="Z11" s="5">
-        <v>25</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>26</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>27</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>29</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>30</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>31</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>32</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>33</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>34</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>35</v>
-      </c>
-      <c r="AL11" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
-        <f>+G12+O12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="68">
-        <f>SUM(I12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="31" t="e">
-        <f>ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="69">
-        <v>0</v>
-      </c>
-      <c r="W12" s="69">
-        <v>0</v>
-      </c>
-      <c r="X12" s="100" t="e">
-        <f>+U12-V12-W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="29">
-        <f>4400000*Z12</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="29">
-        <f>ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="32" t="e">
-        <f t="shared" ref="AC12:AC13" si="0">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="33" t="e">
-        <f t="shared" ref="AD12:AD13" si="1">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="33">
-        <f t="shared" ref="AE12:AE13" si="2">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="29" t="e">
-        <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="29" t="e">
-        <f>AG12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="34" t="e">
-        <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="34" t="e">
-        <f t="shared" ref="AK12:AK13" si="3">+IF(AD12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="67"/>
-    </row>
-    <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29">
-        <f>+G13+O13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="68">
-        <f t="shared" ref="Q13:Q14" si="4">SUM(I13:P13)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="31" t="e">
-        <f t="shared" ref="U13:U14" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="69">
-        <v>0</v>
-      </c>
-      <c r="W13" s="69">
-        <v>0</v>
-      </c>
-      <c r="X13" s="29" t="e">
-        <f t="shared" ref="X13:X14" si="6">+U13-V13-W13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="29">
-        <f>4400000*Z13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="29">
-        <f t="shared" ref="AB13:AB14" si="7">ROUND(H13*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="33" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="29" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="29" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="34" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="34" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="67"/>
-    </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40">
-        <f t="shared" ref="G14:AK14" si="8">+SUBTOTAL(9,G12:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="43" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="35"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="47"/>
-      <c r="Y15"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-    </row>
-    <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
-      <c r="F17" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="T17" s="53"/>
-      <c r="V17" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="56"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="60"/>
-      <c r="S18" s="50"/>
-      <c r="V18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="AB18" s="50"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
-    </row>
-    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="63"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="60"/>
-      <c r="S20" s="50"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="64"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="65"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24" s="47"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="X24" s="65"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="46"/>
-      <c r="V25"/>
-      <c r="X25" s="65"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X26" s="65"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U28" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF61817-C065-4153-92A9-BE909E6A3A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A070AC-A703-4018-AB27-166C19316C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Lương cơ bản</t>
-  </si>
-  <si>
-    <t>Lương đóng  BHXH</t>
   </si>
   <si>
     <t>Các khoản trợ cấp</t>
@@ -226,7 +223,10 @@
     <t>Bộ phận</t>
   </si>
   <si>
-    <t>Lương đóng Bảo hiểm (XH,YT,TN)</t>
+    <t>Bảo hiểm (XH,YT,TN)</t>
+  </si>
+  <si>
+    <t>BHXH</t>
   </si>
 </sst>
 </file>
@@ -827,6 +827,84 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,12 +914,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,78 +921,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2394,11 +2394,11 @@
   </sheetPr>
   <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,7 +2430,7 @@
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="22.5703125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="3" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
     <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" customWidth="1"/>
@@ -2499,16 +2499,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="100" t="s">
+      <c r="P5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -2537,16 +2537,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="101" t="s">
+      <c r="P6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -2570,8 +2570,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2714,166 +2714,166 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="123"/>
+      <c r="X9" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD9" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF9" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="108" t="s">
+      <c r="AG9" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH9" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI9" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ9" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL9" s="104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="117"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="120"/>
-      <c r="X9" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG9" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="124" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="124"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="104"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2977,11 +2977,11 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
+      <c r="A12" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="39"/>
@@ -3532,58 +3532,58 @@
     </row>
     <row r="19" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="52"/>
-      <c r="F19" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
+      <c r="F19" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
       <c r="L19" s="54"/>
       <c r="T19" s="53"/>
-      <c r="V19" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
+      <c r="V19" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
       <c r="Z19" s="55"/>
       <c r="AA19" s="56"/>
       <c r="AD19" s="57"/>
       <c r="AE19" s="57"/>
       <c r="AF19" s="57"/>
-      <c r="AG19" s="127" t="s">
+      <c r="AG19" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH19" s="107"/>
+      <c r="AI19" s="107"/>
+      <c r="AJ19" s="107"/>
+      <c r="AL19" s="58"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="AH19" s="127"/>
-      <c r="AI19" s="127"/>
-      <c r="AJ19" s="127"/>
-      <c r="AL19" s="58"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" s="60"/>
       <c r="S20" s="50"/>
-      <c r="V20" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="W20" s="112"/>
-      <c r="X20" s="112"/>
+      <c r="V20" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
       <c r="AB20" s="50"/>
       <c r="AD20" s="46"/>
       <c r="AE20" s="46"/>
       <c r="AF20" s="46"/>
-      <c r="AG20" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH20" s="112"/>
-      <c r="AI20" s="112"/>
-      <c r="AJ20" s="112"/>
+      <c r="AG20" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="115"/>
+      <c r="AJ20" s="115"/>
     </row>
     <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="59"/>
@@ -3790,17 +3790,16 @@
   </sheetData>
   <autoFilter ref="A11:AL14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="37">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="V20:X20"/>
     <mergeCell ref="AG20:AJ20"/>
@@ -3817,16 +3816,17 @@
     <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:P9"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3851,7 +3851,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+      <selection pane="bottomRight" activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3883,7 +3883,7 @@
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="22.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" style="3" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
     <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" customWidth="1"/>
@@ -3952,16 +3952,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="100" t="s">
+      <c r="P5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -3990,16 +3990,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="101" t="s">
+      <c r="P6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -4023,8 +4023,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -4167,166 +4167,166 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="123"/>
+      <c r="X9" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD9" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF9" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="108" t="s">
+      <c r="AG9" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH9" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI9" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ9" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL9" s="104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="117"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="120"/>
-      <c r="X9" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG9" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="124" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="124"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="104"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -4601,7 +4601,7 @@
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -4798,58 +4798,58 @@
     </row>
     <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="52"/>
-      <c r="F17" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
+      <c r="F17" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
       <c r="L17" s="54"/>
       <c r="T17" s="53"/>
-      <c r="V17" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="W17" s="126"/>
-      <c r="X17" s="126"/>
+      <c r="V17" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
       <c r="Z17" s="55"/>
       <c r="AA17" s="56"/>
       <c r="AD17" s="57"/>
       <c r="AE17" s="57"/>
       <c r="AF17" s="57"/>
-      <c r="AG17" s="127" t="s">
+      <c r="AG17" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="107"/>
+      <c r="AJ17" s="107"/>
+      <c r="AL17" s="58"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="127"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="60"/>
       <c r="S18" s="50"/>
-      <c r="V18" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="W18" s="112"/>
-      <c r="X18" s="112"/>
+      <c r="V18" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
       <c r="AB18" s="50"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
       <c r="AF18" s="46"/>
-      <c r="AG18" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
-      <c r="AJ18" s="112"/>
+      <c r="AG18" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" s="115"/>
+      <c r="AI18" s="115"/>
+      <c r="AJ18" s="115"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="59"/>
@@ -5056,6 +5056,29 @@
   </sheetData>
   <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="36">
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="AG18:AJ18"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:AB9"/>
@@ -5069,29 +5092,6 @@
     <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="AG9:AG10"/>
     <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -5113,7 +5113,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,7 +5145,7 @@
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="24.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" style="3" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
     <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" customWidth="1"/>
@@ -5214,16 +5214,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="100" t="s">
+      <c r="P5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -5252,16 +5252,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="101" t="s">
+      <c r="P6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -5285,8 +5285,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -5429,166 +5429,166 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="123"/>
+      <c r="X9" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD9" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF9" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="108" t="s">
+      <c r="AG9" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH9" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI9" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ9" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL9" s="104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="117"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="120"/>
-      <c r="X9" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG9" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="124" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="124"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="104"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -5863,7 +5863,7 @@
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -6060,58 +6060,58 @@
     </row>
     <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="52"/>
-      <c r="F17" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
+      <c r="F17" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
       <c r="L17" s="54"/>
       <c r="T17" s="53"/>
-      <c r="V17" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="W17" s="126"/>
-      <c r="X17" s="126"/>
+      <c r="V17" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
       <c r="Z17" s="55"/>
       <c r="AA17" s="56"/>
       <c r="AD17" s="57"/>
       <c r="AE17" s="57"/>
       <c r="AF17" s="57"/>
-      <c r="AG17" s="127" t="s">
+      <c r="AG17" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="107"/>
+      <c r="AJ17" s="107"/>
+      <c r="AL17" s="58"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="127"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="60"/>
       <c r="S18" s="50"/>
-      <c r="V18" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="W18" s="112"/>
-      <c r="X18" s="112"/>
+      <c r="V18" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
       <c r="AB18" s="50"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
       <c r="AF18" s="46"/>
-      <c r="AG18" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
-      <c r="AJ18" s="112"/>
+      <c r="AG18" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" s="115"/>
+      <c r="AI18" s="115"/>
+      <c r="AJ18" s="115"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="59"/>
@@ -6317,16 +6317,16 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="AD9:AD10"/>
@@ -6343,16 +6343,16 @@
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="S9:S10"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6362,11 +6362,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
   <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AB10" sqref="AB10"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,7 +6398,7 @@
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" style="3" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
     <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" customWidth="1"/>
@@ -6467,16 +6467,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="100" t="s">
+      <c r="P5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -6505,16 +6505,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="101" t="s">
+      <c r="P6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -6538,8 +6538,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -6682,166 +6682,166 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="V9" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="123"/>
+      <c r="X9" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="124"/>
+      <c r="AC9" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD9" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF9" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="108" t="s">
+      <c r="AG9" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH9" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI9" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ9" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL9" s="104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="117"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="108" t="s">
-        <v>16</v>
-      </c>
-      <c r="S9" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="120"/>
-      <c r="X9" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y9" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="113" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="113" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF9" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG9" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI9" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ9" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK9" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" s="124" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="129"/>
-      <c r="AL10" s="124"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="104"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -7116,7 +7116,7 @@
     </row>
     <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -7313,58 +7313,58 @@
     </row>
     <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="52"/>
-      <c r="F17" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
+      <c r="F17" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
       <c r="L17" s="54"/>
       <c r="T17" s="53"/>
-      <c r="V17" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="W17" s="126"/>
-      <c r="X17" s="126"/>
+      <c r="V17" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
       <c r="Z17" s="55"/>
       <c r="AA17" s="56"/>
       <c r="AD17" s="57"/>
       <c r="AE17" s="57"/>
       <c r="AF17" s="57"/>
-      <c r="AG17" s="127" t="s">
+      <c r="AG17" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="107"/>
+      <c r="AJ17" s="107"/>
+      <c r="AL17" s="58"/>
+    </row>
+    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="127"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="L18" s="60"/>
       <c r="S18" s="50"/>
-      <c r="V18" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="W18" s="112"/>
-      <c r="X18" s="112"/>
+      <c r="V18" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
       <c r="AB18" s="50"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
       <c r="AF18" s="46"/>
-      <c r="AG18" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH18" s="112"/>
-      <c r="AI18" s="112"/>
-      <c r="AJ18" s="112"/>
+      <c r="AG18" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" s="115"/>
+      <c r="AI18" s="115"/>
+      <c r="AJ18" s="115"/>
     </row>
     <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="59"/>
@@ -7570,16 +7570,16 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="AD9:AD10"/>
@@ -7596,16 +7596,16 @@
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="S9:S10"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="AG18:AJ18"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A070AC-A703-4018-AB27-166C19316C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302721CF-9168-4CB5-AAF5-FF2562F8FE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dịch vụ'!$A$11:$AL$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Học việc,thử việc'!$A$11:$AL$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Nhân viên'!$A$11:$AJ$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tất cả'!$A$11:$AL$14</definedName>
     <definedName name="bangluong" localSheetId="1">'Nhân viên'!$A$9:$AE$14</definedName>
@@ -58,12 +60,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>CÔNG TY CỔ PHẦN ASTA HEALTHCARE USA</t>
   </si>
   <si>
     <t xml:space="preserve">Lô D1, D2, D6, D7 và D8 tại Khu công nghiệp Hoà Hiệp 1, </t>
@@ -172,12 +171,6 @@
 thuộc</t>
   </si>
   <si>
-    <t>TỔNG:</t>
-  </si>
-  <si>
-    <t>Giám đốc</t>
-  </si>
-  <si>
     <t>Kế toán trưởng</t>
   </si>
   <si>
@@ -226,7 +219,13 @@
     <t>Bảo hiểm (XH,YT,TN)</t>
   </si>
   <si>
-    <t>BHXH</t>
+    <t>Tổng Giám đốc</t>
+  </si>
+  <si>
+    <t>Lương đóng BHXH</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -462,7 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +593,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,12 +674,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -693,12 +686,6 @@
     <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,10 +694,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -748,13 +731,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -777,9 +754,6 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -787,9 +761,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,18 +798,87 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,70 +897,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2394,11 +2374,11 @@
   </sheetPr>
   <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,21 +2390,20 @@
     <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="16.42578125" style="3" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
@@ -2444,28 +2423,28 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AB3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="G4" s="4"/>
@@ -2499,16 +2478,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
+      <c r="P5" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -2537,16 +2516,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
+      <c r="P6" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -2569,9 +2548,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2591,7 +2570,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -2714,166 +2693,166 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="117" t="s">
+      <c r="A9" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="113"/>
+      <c r="X9" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG9" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH9" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI9" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ9" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK9" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL9" s="117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="124" t="s">
+      <c r="K10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="V9" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9" s="123"/>
-      <c r="X9" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD9" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE9" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF9" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG9" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH9" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI9" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ9" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL9" s="104" t="s">
+      <c r="Q10" s="101"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="21" t="s">
+      <c r="W10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="116"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="109"/>
-      <c r="AL10" s="104"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="109"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="117"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2895,31 +2874,28 @@
         <v>7</v>
       </c>
       <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>11</v>
+      </c>
+      <c r="K11" s="3">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3">
+        <v>13</v>
+      </c>
+      <c r="M11" s="3">
+        <v>14</v>
+      </c>
+      <c r="P11" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="3">
         <v>8</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3">
-        <v>11</v>
-      </c>
-      <c r="L11" s="3">
-        <v>12</v>
-      </c>
-      <c r="M11" s="3">
-        <v>13</v>
-      </c>
-      <c r="N11" s="3">
-        <v>14</v>
-      </c>
-      <c r="P11" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>16</v>
       </c>
       <c r="R11" s="3">
         <v>17</v>
@@ -2977,135 +2953,132 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40">
+      <c r="A12" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
         <f>SUMIF($E13:$E14,$A12,G13:G14)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="38">
         <f t="shared" ref="H12:AK12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="40">
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38">
+        <f>SUMIF($E13:$E14,$A12,P13:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="38">
+        <f t="shared" ref="Q12" si="1">SUMIF($E13:$E14,$A12,Q13:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38">
+        <f>SUMIF($E13:$E14,$A12,R13:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="38">
+        <f>SUMIF($E13:$E14,$A12,AC13:AC14)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3119,10 +3092,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
-      <c r="H13" s="29">
-        <f>+G13+O13</f>
-        <v>0</v>
-      </c>
+      <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -3130,29 +3100,34 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="68">
-        <f>SUM(I13:P13)</f>
+      <c r="P13" s="92">
+        <f>SUM(H13:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="29">
+        <f>+G13+N13</f>
         <v>0</v>
       </c>
       <c r="R13" s="29"/>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f>ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="69">
-        <v>0</v>
-      </c>
-      <c r="W13" s="69">
-        <v>0</v>
-      </c>
-      <c r="X13" s="70" t="e">
+        <f>ROUND(((G13+P13+R13)/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="62">
+        <v>0</v>
+      </c>
+      <c r="W13" s="62">
+        <v>0</v>
+      </c>
+      <c r="X13" s="90" t="e">
         <f>+U13-V13-W13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y13" s="29"/>
+      <c r="Y13" s="31">
+        <v>0</v>
+      </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
@@ -3161,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f>ROUND(H13*10.5%,0)</f>
+        <f>ROUND(Q13*10.5%,0)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="e">
-        <f t="shared" ref="AC13:AC14" si="1">+IF(X13-Y13-AA13-AB13&gt;0,X13-Y13-AA13-AB13,0)</f>
+        <f>+IF(X13-Y13-AA13-AB13&gt;0,X13-Y13-AA13-AB13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD13" s="33" t="e">
-        <f t="shared" ref="AD13:AD14" si="2">ROUND(IF(AC13&gt;80000000,AC13*35%-9850000,IF(AC13&gt;52000000,AC13*30%-5850000,IF(AC13&gt;32000000,AC13*25%-3250000,IF(AC13&gt;18000000,AC13*20%-1650000,IF(AC13&gt;10000000,AC13*15%-750000,IF(AC13&gt;5000000,AC13*10%-250000,IF(AC13&gt;0,AC13*5%,0))))))),0)</f>
+        <f>ROUND(IF(AC13&gt;80000000,AC13*35%-9850000,IF(AC13&gt;52000000,AC13*30%-5850000,IF(AC13&gt;32000000,AC13*25%-3250000,IF(AC13&gt;18000000,AC13*20%-1650000,IF(AC13&gt;10000000,AC13*15%-750000,IF(AC13&gt;5000000,AC13*10%-250000,IF(AC13&gt;0,AC13*5%,0))))))),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE13" s="33">
-        <f t="shared" ref="AE13:AE14" si="3">ROUND(H13*1%,0)</f>
+        <f>ROUND(Q13*1%,0)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="33"/>
@@ -3191,555 +3166,551 @@
       </c>
       <c r="AJ13" s="29"/>
       <c r="AK13" s="34" t="e">
-        <f t="shared" ref="AK13:AK14" si="4">+IF(AD13&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="67"/>
-    </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77">
-        <f>+G14+O14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="78">
-        <f t="shared" ref="Q14" si="5">SUM(I14:P14)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="77"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="80" t="e">
-        <f t="shared" ref="U14" si="6">ROUND(((G14+Q14+R14)/F14*S14)+T14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="81">
-        <v>0</v>
-      </c>
-      <c r="W14" s="81">
-        <v>0</v>
-      </c>
-      <c r="X14" s="77" t="e">
-        <f t="shared" ref="X14" si="7">+U14-V14-W14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="80">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="77">
+        <f t="shared" ref="AK13:AK14" si="2">+IF(AD13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" s="61"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="92">
+        <f>SUM(H14:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="29">
+        <f>+G14+N14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="78"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="31" t="e">
+        <f>ROUND(((G14+P14+R14)/F14*S14)+T14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="72">
+        <v>0</v>
+      </c>
+      <c r="W14" s="72">
+        <v>0</v>
+      </c>
+      <c r="X14" s="69" t="e">
+        <f>+U14-V14-W14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="69">
         <f>4400000*Z14</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="77">
-        <f t="shared" ref="AB14" si="8">ROUND(H14*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="82" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="83" t="e">
+      <c r="AB14" s="29">
+        <f>ROUND(Q14*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="32" t="e">
+        <f>+IF(X14-Y14-AA14-AB14&gt;0,X14-Y14-AA14-AB14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="73" t="e">
+        <f>ROUND(IF(AC14&gt;80000000,AC14*35%-9850000,IF(AC14&gt;52000000,AC14*30%-5850000,IF(AC14&gt;32000000,AC14*25%-3250000,IF(AC14&gt;18000000,AC14*20%-1650000,IF(AC14&gt;10000000,AC14*15%-750000,IF(AC14&gt;5000000,AC14*10%-250000,IF(AC14&gt;0,AC14*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="33">
+        <f>ROUND(Q14*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="69" t="e">
+        <f>ROUND(U14-AB14-AD14-AE14 - AF14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="69" t="e">
+        <f>AG14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="74" t="e">
+        <f>IF(AND(AG14&gt;AH14,AH14&gt;0),AG14-AH14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE14" s="83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="77" t="e">
-        <f>ROUND(U14-AB14-AD14-AE14 - AF14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="77" t="e">
-        <f>AG14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="84" t="e">
-        <f>IF(AND(AG14&gt;AH14,AH14&gt;0),AG14-AH14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="84" t="e">
+      <c r="AL14" s="75"/>
+    </row>
+    <row r="15" spans="1:38" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AL15" s="28"/>
+    </row>
+    <row r="16" spans="1:38" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="39">
+        <f>SUMIF($E12:$E15,"",G12:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" ref="H16:AK16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39">
+        <f t="shared" ref="P16:Q16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="39">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="85"/>
-    </row>
-    <row r="15" spans="1:38" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="91"/>
-      <c r="AB15" s="91"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="91"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="94"/>
-      <c r="AL15" s="28"/>
-    </row>
-    <row r="16" spans="1:38" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="41">
-        <f>SUMIF($E12:$E15,"",G12:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="41">
-        <f t="shared" ref="H16:AK16" si="9">SUMIF($E12:$E15,"",H12:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD16" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH16" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI16" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ16" s="41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="41" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL16" s="98"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="39">
+        <f ca="1">SUMIF($E12:$E15,"",R12:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="39" t="e">
+        <f>SUMIF($E12:$E15,"",AC12:AC15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL16" s="88"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-    </row>
-    <row r="19" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="52"/>
-      <c r="F19" s="105" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+    </row>
+    <row r="19" spans="1:38" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="46"/>
+      <c r="F19" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="118"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="T19" s="47"/>
+      <c r="V19" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="50"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH19" s="120"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AL19" s="52"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="T19" s="53"/>
-      <c r="V19" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="56"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH19" s="107"/>
-      <c r="AI19" s="107"/>
-      <c r="AJ19" s="107"/>
-      <c r="AL19" s="58"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="60"/>
-      <c r="S20" s="50"/>
-      <c r="V20" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="AB20" s="50"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH20" s="115"/>
-      <c r="AI20" s="115"/>
-      <c r="AJ20" s="115"/>
+      <c r="K20" s="54"/>
+      <c r="S20" s="44"/>
+      <c r="V20" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="AB20" s="44"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="105"/>
     </row>
     <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="63"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="53"/>
+      <c r="AJ21" s="53"/>
+      <c r="AK21" s="53"/>
+      <c r="AL21" s="57"/>
     </row>
     <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="L22" s="60"/>
-      <c r="S22" s="50"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="64"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
+      <c r="K22" s="54"/>
+      <c r="Q22" s="53"/>
+      <c r="S22" s="44"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="58"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
       <c r="T24" s="16"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="65"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="59"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
       <c r="T25" s="16"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F26"/>
@@ -3756,10 +3727,10 @@
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
-      <c r="T26" s="47"/>
+      <c r="T26" s="43"/>
       <c r="U26"/>
       <c r="V26"/>
-      <c r="X26" s="65"/>
+      <c r="X26" s="59"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F27"/>
@@ -3776,31 +3747,32 @@
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="46"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="42"/>
       <c r="V27"/>
-      <c r="X27" s="65"/>
+      <c r="X27" s="59"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X28" s="65"/>
+      <c r="X28" s="59"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U30" s="50"/>
+      <c r="U30" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:AL14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="37">
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F20:H20"/>
+  <mergeCells count="36">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="V20:X20"/>
     <mergeCell ref="AG20:AJ20"/>
     <mergeCell ref="AE9:AE10"/>
@@ -3814,19 +3786,17 @@
     <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="AC9:AC10"/>
     <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3845,13 +3815,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Y23" sqref="Y23"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,27 +3833,26 @@
     <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="16.42578125" style="3" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="19.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="3" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
     <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" customWidth="1"/>
@@ -3897,28 +3866,28 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AB3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="G4" s="4"/>
@@ -3952,16 +3921,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
+      <c r="P5" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -3990,16 +3959,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
+      <c r="P6" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -4022,9 +3991,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -4044,7 +4013,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -4167,166 +4136,166 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="117" t="s">
+      <c r="A9" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="113"/>
+      <c r="X9" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG9" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH9" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI9" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ9" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK9" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL9" s="117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="124" t="s">
+      <c r="K10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="V9" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9" s="123"/>
-      <c r="X9" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD9" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE9" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF9" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG9" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH9" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI9" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ9" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL9" s="104" t="s">
+      <c r="Q10" s="101"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="21" t="s">
+      <c r="W10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="116"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="109"/>
-      <c r="AL10" s="104"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="109"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="117"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -4348,31 +4317,28 @@
         <v>7</v>
       </c>
       <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>11</v>
+      </c>
+      <c r="K11" s="3">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3">
+        <v>13</v>
+      </c>
+      <c r="M11" s="3">
+        <v>14</v>
+      </c>
+      <c r="P11" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="3">
         <v>8</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3">
-        <v>11</v>
-      </c>
-      <c r="L11" s="3">
-        <v>12</v>
-      </c>
-      <c r="M11" s="3">
-        <v>13</v>
-      </c>
-      <c r="N11" s="3">
-        <v>14</v>
-      </c>
-      <c r="P11" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>16</v>
       </c>
       <c r="R11" s="3">
         <v>17</v>
@@ -4429,92 +4395,139 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
-        <f>+G12+O12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="68">
-        <f>SUM(I12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="31" t="e">
-        <f>ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="69">
-        <v>0</v>
-      </c>
-      <c r="W12" s="69">
-        <v>0</v>
-      </c>
-      <c r="X12" s="70" t="e">
-        <f>+U12-V12-W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="29">
-        <f>4400000*Z12</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="29">
-        <f>ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="32" t="e">
-        <f t="shared" ref="AC12:AC13" si="0">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="33" t="e">
-        <f t="shared" ref="AD12:AD13" si="1">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="33">
-        <f t="shared" ref="AE12:AE13" si="2">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="29" t="e">
-        <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="29" t="e">
-        <f>AG12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="34" t="e">
-        <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="34" t="e">
-        <f t="shared" ref="AK12:AK13" si="3">+IF(AD12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="67"/>
-    </row>
-    <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
+        <f>SUMIF($E13:$E14,$A12,G13:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="38">
+        <f t="shared" ref="H12:AK12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38">
+        <f>SUMIF($E13:$E14,$A12,P13:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="38">
+        <f t="shared" ref="Q12" si="1">SUMIF($E13:$E14,$A12,Q13:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38">
+        <f>SUMIF($E13:$E14,$A12,R13:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="38">
+        <f>SUMIF($E13:$E14,$A12,AC13:AC14)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="35"/>
+    </row>
+    <row r="13" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -4522,10 +4535,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
-      <c r="H13" s="29">
-        <f>+G13+O13</f>
-        <v>0</v>
-      </c>
+      <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -4533,29 +4543,34 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="68">
-        <f t="shared" ref="Q13" si="4">SUM(I13:P13)</f>
+      <c r="P13" s="92">
+        <f>SUM(H13:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="29">
+        <f>+G13+N13</f>
         <v>0</v>
       </c>
       <c r="R13" s="29"/>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f t="shared" ref="U13" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="69">
-        <v>0</v>
-      </c>
-      <c r="W13" s="69">
-        <v>0</v>
-      </c>
-      <c r="X13" s="29" t="e">
-        <f t="shared" ref="X13" si="6">+U13-V13-W13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="29"/>
+        <f>ROUND(((G13+P13+R13)/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="62">
+        <v>0</v>
+      </c>
+      <c r="W13" s="62">
+        <v>0</v>
+      </c>
+      <c r="X13" s="90" t="e">
+        <f>+U13-V13-W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="31">
+        <v>0</v>
+      </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
@@ -4564,19 +4579,19 @@
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f t="shared" ref="AB13" si="7">ROUND(H13*10.5%,0)</f>
+        <f>ROUND(Q13*10.5%,0)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="e">
-        <f t="shared" si="0"/>
+        <f>+IF(X13-Y13-AA13-AB13&gt;0,X13-Y13-AA13-AB13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD13" s="33" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(IF(AC13&gt;80000000,AC13*35%-9850000,IF(AC13&gt;52000000,AC13*30%-5850000,IF(AC13&gt;32000000,AC13*25%-3250000,IF(AC13&gt;18000000,AC13*20%-1650000,IF(AC13&gt;10000000,AC13*15%-750000,IF(AC13&gt;5000000,AC13*10%-250000,IF(AC13&gt;0,AC13*5%,0))))))),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE13" s="33">
-        <f t="shared" si="2"/>
+        <f>ROUND(Q13*1%,0)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="33"/>
@@ -4594,497 +4609,609 @@
       </c>
       <c r="AJ13" s="29"/>
       <c r="AK13" s="34" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="67"/>
-    </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+        <f t="shared" ref="AK13:AK14" si="2">+IF(AD13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" s="61"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="92">
+        <f>SUM(H14:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="29">
+        <f>+G14+N14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="78"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="31" t="e">
+        <f>ROUND(((G14+P14+R14)/F14*S14)+T14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="72">
+        <v>0</v>
+      </c>
+      <c r="W14" s="72">
+        <v>0</v>
+      </c>
+      <c r="X14" s="69" t="e">
+        <f>+U14-V14-W14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="69">
+        <f>4400000*Z14</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="29">
+        <f>ROUND(Q14*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="32" t="e">
+        <f>+IF(X14-Y14-AA14-AB14&gt;0,X14-Y14-AA14-AB14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="73" t="e">
+        <f>ROUND(IF(AC14&gt;80000000,AC14*35%-9850000,IF(AC14&gt;52000000,AC14*30%-5850000,IF(AC14&gt;32000000,AC14*25%-3250000,IF(AC14&gt;18000000,AC14*20%-1650000,IF(AC14&gt;10000000,AC14*15%-750000,IF(AC14&gt;5000000,AC14*10%-250000,IF(AC14&gt;0,AC14*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="33">
+        <f>ROUND(Q14*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="69" t="e">
+        <f>ROUND(U14-AB14-AD14-AE14 - AF14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="69" t="e">
+        <f>AG14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="74" t="e">
+        <f>IF(AND(AG14&gt;AH14,AH14&gt;0),AG14-AH14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="75"/>
+    </row>
+    <row r="15" spans="1:38" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AL15" s="28"/>
+    </row>
+    <row r="16" spans="1:38" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="39">
+        <f>SUMIF($E12:$E15,"",G12:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" ref="H16:AK16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39">
+        <f t="shared" ref="P16:Q16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="39">
+        <f ca="1">SUMIF($E12:$E15,"",R12:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="39" t="e">
+        <f>SUMIF($E12:$E15,"",AC12:AC15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL16" s="88"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+    </row>
+    <row r="19" spans="1:38" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="46"/>
+      <c r="F19" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="118"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="T19" s="47"/>
+      <c r="V19" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="50"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40">
-        <f t="shared" ref="G14:AK14" si="8">+SUBTOTAL(9,G12:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="43" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="35"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="47"/>
-      <c r="Y15"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-    </row>
-    <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
-      <c r="F17" s="105" t="s">
+      <c r="AH19" s="120"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AL19" s="52"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="T17" s="53"/>
-      <c r="V17" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="56"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="60"/>
-      <c r="S18" s="50"/>
-      <c r="V18" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="115"/>
-      <c r="X18" s="115"/>
-      <c r="AB18" s="50"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH18" s="115"/>
-      <c r="AI18" s="115"/>
-      <c r="AJ18" s="115"/>
-    </row>
-    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="63"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="60"/>
-      <c r="S20" s="50"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="64"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="65"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
+      <c r="K20" s="54"/>
+      <c r="S20" s="44"/>
+      <c r="V20" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="AB20" s="44"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="105"/>
+    </row>
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="53"/>
+      <c r="AJ21" s="53"/>
+      <c r="AK21" s="53"/>
+      <c r="AL21" s="57"/>
+    </row>
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="K22" s="54"/>
+      <c r="Q22" s="53"/>
+      <c r="S22" s="44"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="58"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24" s="47"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="X24" s="65"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="59"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="46"/>
-      <c r="V25"/>
-      <c r="X25" s="65"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X26" s="65"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26" s="43"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="X26" s="59"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="42"/>
+      <c r="V27"/>
+      <c r="X27" s="59"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U28" s="50"/>
+      <c r="X28" s="59"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U30" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="36">
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AG17:AJ17"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="AI9:AI10"/>
     <mergeCell ref="AJ9:AJ10"/>
@@ -5092,6 +5219,27 @@
     <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="AG9:AG10"/>
     <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="P5:W5"/>
+    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -5107,13 +5255,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5125,27 +5273,26 @@
     <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="16.42578125" style="3" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="19.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="3" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
     <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" customWidth="1"/>
@@ -5159,28 +5306,28 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AB3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="G4" s="4"/>
@@ -5214,16 +5361,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
+      <c r="P5" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -5252,16 +5399,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
+      <c r="P6" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -5284,9 +5431,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -5306,7 +5453,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -5429,166 +5576,166 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="117" t="s">
+      <c r="A9" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="113"/>
+      <c r="X9" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG9" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH9" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI9" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ9" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK9" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL9" s="117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="124" t="s">
+      <c r="K10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="V9" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9" s="123"/>
-      <c r="X9" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD9" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE9" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF9" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG9" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH9" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI9" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ9" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL9" s="104" t="s">
+      <c r="Q10" s="101"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="21" t="s">
+      <c r="W10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="116"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="109"/>
-      <c r="AL10" s="104"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="109"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="117"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -5610,31 +5757,28 @@
         <v>7</v>
       </c>
       <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>11</v>
+      </c>
+      <c r="K11" s="3">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3">
+        <v>13</v>
+      </c>
+      <c r="M11" s="3">
+        <v>14</v>
+      </c>
+      <c r="P11" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="3">
         <v>8</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3">
-        <v>11</v>
-      </c>
-      <c r="L11" s="3">
-        <v>12</v>
-      </c>
-      <c r="M11" s="3">
-        <v>13</v>
-      </c>
-      <c r="N11" s="3">
-        <v>14</v>
-      </c>
-      <c r="P11" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>16</v>
       </c>
       <c r="R11" s="3">
         <v>17</v>
@@ -5691,92 +5835,139 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
-        <f>+G12+O12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="68">
-        <f>SUM(I12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="31" t="e">
-        <f>ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="69">
-        <v>0</v>
-      </c>
-      <c r="W12" s="69">
-        <v>0</v>
-      </c>
-      <c r="X12" s="70" t="e">
-        <f>+U12-V12-W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="29">
-        <f>4400000*Z12</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="29">
-        <f>ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="32" t="e">
-        <f t="shared" ref="AC12:AC13" si="0">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="33" t="e">
-        <f t="shared" ref="AD12:AD13" si="1">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="33">
-        <f t="shared" ref="AE12:AE13" si="2">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="29" t="e">
-        <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="29" t="e">
-        <f>AG12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="34" t="e">
-        <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="34" t="e">
-        <f t="shared" ref="AK12:AK13" si="3">+IF(AD12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="67"/>
-    </row>
-    <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
+        <f>SUMIF($E13:$E14,$A12,G13:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="38">
+        <f t="shared" ref="H12:AK12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38">
+        <f>SUMIF($E13:$E14,$A12,P13:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="38">
+        <f t="shared" ref="Q12" si="1">SUMIF($E13:$E14,$A12,Q13:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38">
+        <f>SUMIF($E13:$E14,$A12,R13:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="38">
+        <f>SUMIF($E13:$E14,$A12,AC13:AC14)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="35"/>
+    </row>
+    <row r="13" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -5784,10 +5975,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
-      <c r="H13" s="29">
-        <f>+G13+O13</f>
-        <v>0</v>
-      </c>
+      <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -5795,29 +5983,34 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="68">
-        <f t="shared" ref="Q13" si="4">SUM(I13:P13)</f>
+      <c r="P13" s="92">
+        <f>SUM(H13:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="29">
+        <f>+G13+N13</f>
         <v>0</v>
       </c>
       <c r="R13" s="29"/>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f t="shared" ref="U13" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="69">
-        <v>0</v>
-      </c>
-      <c r="W13" s="69">
-        <v>0</v>
-      </c>
-      <c r="X13" s="29" t="e">
-        <f t="shared" ref="X13" si="6">+U13-V13-W13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="29"/>
+        <f>ROUND(((G13+P13+R13)/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="62">
+        <v>0</v>
+      </c>
+      <c r="W13" s="62">
+        <v>0</v>
+      </c>
+      <c r="X13" s="90" t="e">
+        <f>+U13-V13-W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="31">
+        <v>0</v>
+      </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
@@ -5826,19 +6019,19 @@
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f t="shared" ref="AB13" si="7">ROUND(H13*10.5%,0)</f>
+        <f>ROUND(Q13*10.5%,0)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="e">
-        <f t="shared" si="0"/>
+        <f>+IF(X13-Y13-AA13-AB13&gt;0,X13-Y13-AA13-AB13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD13" s="33" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(IF(AC13&gt;80000000,AC13*35%-9850000,IF(AC13&gt;52000000,AC13*30%-5850000,IF(AC13&gt;32000000,AC13*25%-3250000,IF(AC13&gt;18000000,AC13*20%-1650000,IF(AC13&gt;10000000,AC13*15%-750000,IF(AC13&gt;5000000,AC13*10%-250000,IF(AC13&gt;0,AC13*5%,0))))))),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE13" s="33">
-        <f t="shared" si="2"/>
+        <f>ROUND(Q13*1%,0)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="33"/>
@@ -5856,470 +6049,623 @@
       </c>
       <c r="AJ13" s="29"/>
       <c r="AK13" s="34" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="67"/>
-    </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+        <f t="shared" ref="AK13:AK14" si="2">+IF(AD13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" s="61"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="92">
+        <f>SUM(H14:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="29">
+        <f>+G14+N14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="78"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="31" t="e">
+        <f>ROUND(((G14+P14+R14)/F14*S14)+T14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="72">
+        <v>0</v>
+      </c>
+      <c r="W14" s="72">
+        <v>0</v>
+      </c>
+      <c r="X14" s="69" t="e">
+        <f>+U14-V14-W14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="69">
+        <f>4400000*Z14</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="29">
+        <f>ROUND(Q14*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="32" t="e">
+        <f>+IF(X14-Y14-AA14-AB14&gt;0,X14-Y14-AA14-AB14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="73" t="e">
+        <f>ROUND(IF(AC14&gt;80000000,AC14*35%-9850000,IF(AC14&gt;52000000,AC14*30%-5850000,IF(AC14&gt;32000000,AC14*25%-3250000,IF(AC14&gt;18000000,AC14*20%-1650000,IF(AC14&gt;10000000,AC14*15%-750000,IF(AC14&gt;5000000,AC14*10%-250000,IF(AC14&gt;0,AC14*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="33">
+        <f>ROUND(Q14*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="69" t="e">
+        <f>ROUND(U14-AB14-AD14-AE14 - AF14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="69" t="e">
+        <f>AG14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="74" t="e">
+        <f>IF(AND(AG14&gt;AH14,AH14&gt;0),AG14-AH14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="75"/>
+    </row>
+    <row r="15" spans="1:38" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AL15" s="28"/>
+    </row>
+    <row r="16" spans="1:38" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="39">
+        <f>SUMIF($E12:$E15,"",G12:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" ref="H16:AK16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39">
+        <f t="shared" ref="P16:Q16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="39">
+        <f ca="1">SUMIF($E12:$E15,"",R12:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="39" t="e">
+        <f>SUMIF($E12:$E15,"",AC12:AC15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL16" s="88"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+    </row>
+    <row r="19" spans="1:38" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="46"/>
+      <c r="F19" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="118"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="T19" s="47"/>
+      <c r="V19" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="50"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40">
-        <f t="shared" ref="G14:AK14" si="8">+SUBTOTAL(9,G12:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="43" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="35"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="47"/>
-      <c r="Y15"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-    </row>
-    <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
-      <c r="F17" s="105" t="s">
+      <c r="AH19" s="120"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AL19" s="52"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="T17" s="53"/>
-      <c r="V17" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="56"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="60"/>
-      <c r="S18" s="50"/>
-      <c r="V18" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="115"/>
-      <c r="X18" s="115"/>
-      <c r="AB18" s="50"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH18" s="115"/>
-      <c r="AI18" s="115"/>
-      <c r="AJ18" s="115"/>
-    </row>
-    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="63"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="60"/>
-      <c r="S20" s="50"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="64"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="65"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
+      <c r="K20" s="54"/>
+      <c r="S20" s="44"/>
+      <c r="V20" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="AB20" s="44"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="105"/>
+    </row>
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="53"/>
+      <c r="AJ21" s="53"/>
+      <c r="AK21" s="53"/>
+      <c r="AL21" s="57"/>
+    </row>
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="K22" s="54"/>
+      <c r="Q22" s="53"/>
+      <c r="S22" s="44"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="58"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24" s="47"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="X24" s="65"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="59"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="46"/>
-      <c r="V25"/>
-      <c r="X25" s="65"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X26" s="65"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26" s="43"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="X26" s="59"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="42"/>
+      <c r="V27"/>
+      <c r="X27" s="59"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U28" s="50"/>
+      <c r="X28" s="59"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U30" s="44"/>
     </row>
   </sheetData>
+  <autoFilter ref="A11:AL11" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}"/>
   <mergeCells count="36">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="P5:W5"/>
     <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -6327,32 +6673,13 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="H9:H10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="I9:P9"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="S9:S10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6360,13 +6687,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="T12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="X32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6378,27 +6705,26 @@
     <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="16.42578125" style="3" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
     <col min="25" max="25" width="15" style="3" customWidth="1"/>
     <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
     <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="19.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="3" customWidth="1"/>
     <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
     <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="15" style="3" customWidth="1"/>
@@ -6412,28 +6738,28 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AB3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="G4" s="4"/>
@@ -6467,16 +6793,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
+      <c r="P5" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="10"/>
@@ -6505,16 +6831,16 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="127" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
+      <c r="P6" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="13"/>
@@ -6537,9 +6863,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -6559,7 +6885,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -6682,166 +7008,166 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="117" t="s">
+      <c r="A9" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="113"/>
+      <c r="X9" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE9" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG9" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH9" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI9" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ9" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK9" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL9" s="117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="124" t="s">
+      <c r="K10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="110" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="V9" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9" s="123"/>
-      <c r="X9" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="110" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD9" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE9" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF9" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG9" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH9" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI9" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ9" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL9" s="104" t="s">
+      <c r="Q10" s="101"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="21" t="s">
+      <c r="W10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="103"/>
-      <c r="AE10" s="116"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="112"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="109"/>
-      <c r="AL10" s="104"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="109"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="117"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -6863,31 +7189,28 @@
         <v>7</v>
       </c>
       <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>11</v>
+      </c>
+      <c r="K11" s="3">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3">
+        <v>13</v>
+      </c>
+      <c r="M11" s="3">
+        <v>14</v>
+      </c>
+      <c r="P11" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="3">
         <v>8</v>
-      </c>
-      <c r="I11" s="3">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3">
-        <v>11</v>
-      </c>
-      <c r="L11" s="3">
-        <v>12</v>
-      </c>
-      <c r="M11" s="3">
-        <v>13</v>
-      </c>
-      <c r="N11" s="3">
-        <v>14</v>
-      </c>
-      <c r="P11" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>16</v>
       </c>
       <c r="R11" s="3">
         <v>17</v>
@@ -6944,92 +7267,139 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
-        <f>+G12+O12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="68">
-        <f>SUM(I12:P12)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="31" t="e">
-        <f>ROUND(((G12+Q12+R12)/F12*S12)+T12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="69">
-        <v>0</v>
-      </c>
-      <c r="W12" s="69">
-        <v>0</v>
-      </c>
-      <c r="X12" s="70" t="e">
-        <f>+U12-V12-W12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="29">
-        <f>4400000*Z12</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="29">
-        <f>ROUND(H12*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="32" t="e">
-        <f t="shared" ref="AC12:AC13" si="0">+IF(X12-Y12-AA12-AB12&gt;0,X12-Y12-AA12-AB12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD12" s="33" t="e">
-        <f t="shared" ref="AD12:AD13" si="1">ROUND(IF(AC12&gt;80000000,AC12*35%-9850000,IF(AC12&gt;52000000,AC12*30%-5850000,IF(AC12&gt;32000000,AC12*25%-3250000,IF(AC12&gt;18000000,AC12*20%-1650000,IF(AC12&gt;10000000,AC12*15%-750000,IF(AC12&gt;5000000,AC12*10%-250000,IF(AC12&gt;0,AC12*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE12" s="33">
-        <f t="shared" ref="AE12:AE13" si="2">ROUND(H12*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="29" t="e">
-        <f>ROUND(U12-AB12-AD12-AE12 - AF12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="29" t="e">
-        <f>AG12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI12" s="34" t="e">
-        <f>IF(AND(AG12&gt;AH12,AH12&gt;0),AG12-AH12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="34" t="e">
-        <f t="shared" ref="AK12:AK13" si="3">+IF(AD12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL12" s="67"/>
-    </row>
-    <row r="13" spans="1:38" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
+        <f>SUMIF($E13:$E14,$A12,G13:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="38">
+        <f t="shared" ref="H12:AK12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38">
+        <f>SUMIF($E13:$E14,$A12,P13:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="38">
+        <f t="shared" ref="Q12" si="1">SUMIF($E13:$E14,$A12,Q13:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38">
+        <f>SUMIF($E13:$E14,$A12,R13:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="38">
+        <f>SUMIF($E13:$E14,$A12,AC13:AC14)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="35"/>
+    </row>
+    <row r="13" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -7037,10 +7407,7 @@
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
-      <c r="H13" s="29">
-        <f>+G13+O13</f>
-        <v>0</v>
-      </c>
+      <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -7048,29 +7415,34 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="68">
-        <f t="shared" ref="Q13" si="4">SUM(I13:P13)</f>
+      <c r="P13" s="92">
+        <f>SUM(H13:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="29">
+        <f>+G13+N13</f>
         <v>0</v>
       </c>
       <c r="R13" s="29"/>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f t="shared" ref="U13" si="5">ROUND(((G13+Q13+R13)/F13*S13)+T13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="69">
-        <v>0</v>
-      </c>
-      <c r="W13" s="69">
-        <v>0</v>
-      </c>
-      <c r="X13" s="29" t="e">
-        <f t="shared" ref="X13" si="6">+U13-V13-W13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="29"/>
+        <f>ROUND(((G13+P13+R13)/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="62">
+        <v>0</v>
+      </c>
+      <c r="W13" s="62">
+        <v>0</v>
+      </c>
+      <c r="X13" s="90" t="e">
+        <f>+U13-V13-W13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="31">
+        <v>0</v>
+      </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
@@ -7079,19 +7451,19 @@
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f t="shared" ref="AB13" si="7">ROUND(H13*10.5%,0)</f>
+        <f>ROUND(Q13*10.5%,0)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="32" t="e">
-        <f t="shared" si="0"/>
+        <f>+IF(X13-Y13-AA13-AB13&gt;0,X13-Y13-AA13-AB13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD13" s="33" t="e">
-        <f t="shared" si="1"/>
+        <f>ROUND(IF(AC13&gt;80000000,AC13*35%-9850000,IF(AC13&gt;52000000,AC13*30%-5850000,IF(AC13&gt;32000000,AC13*25%-3250000,IF(AC13&gt;18000000,AC13*20%-1650000,IF(AC13&gt;10000000,AC13*15%-750000,IF(AC13&gt;5000000,AC13*10%-250000,IF(AC13&gt;0,AC13*5%,0))))))),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE13" s="33">
-        <f t="shared" si="2"/>
+        <f>ROUND(Q13*1%,0)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="33"/>
@@ -7109,470 +7481,623 @@
       </c>
       <c r="AJ13" s="29"/>
       <c r="AK13" s="34" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="67"/>
-    </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+        <f t="shared" ref="AK13:AK14" si="2">+IF(AD13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" s="61"/>
+    </row>
+    <row r="14" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="92">
+        <f>SUM(H14:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="29">
+        <f>+G14+N14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="78"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="31" t="e">
+        <f>ROUND(((G14+P14+R14)/F14*S14)+T14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="72">
+        <v>0</v>
+      </c>
+      <c r="W14" s="72">
+        <v>0</v>
+      </c>
+      <c r="X14" s="69" t="e">
+        <f>+U14-V14-W14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="69">
+        <f>4400000*Z14</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="29">
+        <f>ROUND(Q14*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="32" t="e">
+        <f>+IF(X14-Y14-AA14-AB14&gt;0,X14-Y14-AA14-AB14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14" s="73" t="e">
+        <f>ROUND(IF(AC14&gt;80000000,AC14*35%-9850000,IF(AC14&gt;52000000,AC14*30%-5850000,IF(AC14&gt;32000000,AC14*25%-3250000,IF(AC14&gt;18000000,AC14*20%-1650000,IF(AC14&gt;10000000,AC14*15%-750000,IF(AC14&gt;5000000,AC14*10%-250000,IF(AC14&gt;0,AC14*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="33">
+        <f>ROUND(Q14*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="69" t="e">
+        <f>ROUND(U14-AB14-AD14-AE14 - AF14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH14" s="69" t="e">
+        <f>AG14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="74" t="e">
+        <f>IF(AND(AG14&gt;AH14,AH14&gt;0),AG14-AH14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL14" s="75"/>
+    </row>
+    <row r="15" spans="1:38" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="81"/>
+      <c r="AF15" s="81"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AL15" s="28"/>
+    </row>
+    <row r="16" spans="1:38" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="39">
+        <f>SUMIF($E12:$E15,"",G12:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" ref="H16:AK16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39">
+        <f t="shared" ref="P16:Q16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="39">
+        <f ca="1">SUMIF($E12:$E15,"",R12:R14)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="39" t="e">
+        <f>SUMIF($E12:$E15,"",AC12:AC15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL16" s="88"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+    </row>
+    <row r="19" spans="1:38" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="46"/>
+      <c r="F19" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="118"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="T19" s="47"/>
+      <c r="V19" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="50"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40">
-        <f t="shared" ref="G14:AK14" si="8">+SUBTOTAL(9,G12:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="41" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="43" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="40" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="35"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="47"/>
-      <c r="Y15"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-    </row>
-    <row r="17" spans="1:38" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="52"/>
-      <c r="F17" s="105" t="s">
+      <c r="AH19" s="120"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AL19" s="52"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="L17" s="54"/>
-      <c r="T17" s="53"/>
-      <c r="V17" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="56"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AL17" s="58"/>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="L18" s="60"/>
-      <c r="S18" s="50"/>
-      <c r="V18" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="115"/>
-      <c r="X18" s="115"/>
-      <c r="AB18" s="50"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH18" s="115"/>
-      <c r="AI18" s="115"/>
-      <c r="AJ18" s="115"/>
-    </row>
-    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="63"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="60"/>
-      <c r="S20" s="50"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="64"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="65"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
+      <c r="K20" s="54"/>
+      <c r="S20" s="44"/>
+      <c r="V20" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="AB20" s="44"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH20" s="105"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="105"/>
+    </row>
+    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="53"/>
+      <c r="AJ21" s="53"/>
+      <c r="AK21" s="53"/>
+      <c r="AL21" s="57"/>
+    </row>
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="K22" s="54"/>
+      <c r="Q22" s="53"/>
+      <c r="S22" s="44"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="58"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
       <c r="T23" s="16"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="46"/>
-      <c r="AI23" s="46"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24" s="47"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="X24" s="65"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="59"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="46"/>
-      <c r="V25"/>
-      <c r="X25" s="65"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X26" s="65"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26" s="43"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="X26" s="59"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="42"/>
+      <c r="V27"/>
+      <c r="X27" s="59"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U28" s="50"/>
+      <c r="X28" s="59"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="U30" s="44"/>
     </row>
   </sheetData>
+  <autoFilter ref="A11:AL11" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}"/>
   <mergeCells count="36">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="P5:W5"/>
     <mergeCell ref="P6:W6"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -7580,32 +8105,13 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="H9:H10"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="I9:P9"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="S9:S10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302721CF-9168-4CB5-AAF5-FF2562F8FE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180779ED-3062-42FF-92B1-D962EDA0F8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dịch vụ'!$A$11:$AL$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Học việc,thử việc'!$A$11:$AL$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Nhân viên'!$A$11:$AJ$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tất cả'!$A$11:$AL$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tất cả'!$A$11:$AM$14</definedName>
     <definedName name="bangluong" localSheetId="1">'Nhân viên'!$A$9:$AE$14</definedName>
-    <definedName name="bangluong" localSheetId="0">'Tất cả'!$A$9:$AG$14</definedName>
+    <definedName name="bangluong" localSheetId="0">'Tất cả'!$A$9:$AH$14</definedName>
     <definedName name="bangluong">'[1]BẢNG LƯƠNG T10.2022'!$A$10:$AA$20</definedName>
     <definedName name="BANGLUONGNB" localSheetId="1">#REF!</definedName>
     <definedName name="BANGLUONGNB" localSheetId="0">#REF!</definedName>
@@ -38,7 +38,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Nhân viên'!$A$1:$AG$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tất cả'!$A$1:$AI$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tất cả'!$A$1:$AJ$20</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Nhân viên'!$9:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tất cả'!$9:$10</definedName>
   </definedNames>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Phường Hòa Hiệp Bắc, Thị xã Đông Hoà, Tỉnh Phú Yên, Việt Nam</t>
-  </si>
-  <si>
-    <t>Đông Hòa, ngày 31 tháng 07 năm 2024</t>
   </si>
   <si>
     <t>MST: 4401062392</t>
@@ -222,10 +219,13 @@
     <t>Tổng Giám đốc</t>
   </si>
   <si>
-    <t>Lương đóng BHXH</t>
+    <t>Tổng thu nhập thực tế</t>
   </si>
   <si>
-    <t>c</t>
+    <t>Lương đóng Bảo hiểm</t>
+  </si>
+  <si>
+    <t>Đông Hòa, ngày 30 tháng 11 năm 2024</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -584,6 +584,15 @@
     <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -801,12 +810,15 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,8 +855,8 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -861,9 +873,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -873,6 +882,9 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -888,9 +900,6 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,18 +913,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="25">
     <cellStyle name="Comma [0] 2" xfId="11" xr:uid="{C8FA486F-6811-4C43-BAD3-4D636662A213}"/>
+    <cellStyle name="Comma [0] 2 2" xfId="20" xr:uid="{B2205A2B-55CA-4BDD-88B4-7C9C8BE2B40A}"/>
     <cellStyle name="Comma 2" xfId="4" xr:uid="{21F37CFA-E56C-4B0B-916A-564B0C4B4126}"/>
     <cellStyle name="Comma 2 2" xfId="12" xr:uid="{A1347DFF-E638-4470-AC29-6D24095346CF}"/>
+    <cellStyle name="Comma 2 2 2" xfId="21" xr:uid="{7A04E217-4CFF-4276-B8FA-3078FFDDFB77}"/>
     <cellStyle name="Comma 2 4" xfId="5" xr:uid="{65CC9C5D-49D2-489E-8C4A-1EC7F1EDC04B}"/>
     <cellStyle name="Comma 3" xfId="10" xr:uid="{9F9ACE33-96FE-41C0-A22F-1F00A2B9EDF1}"/>
+    <cellStyle name="Comma 3 2" xfId="19" xr:uid="{E96AA3DD-BB09-4591-865A-713879E293D0}"/>
     <cellStyle name="Comma 4" xfId="14" xr:uid="{00F85154-8CC3-4B11-80AF-76714FAB84B0}"/>
+    <cellStyle name="Comma 4 2" xfId="23" xr:uid="{FD3B55E9-B036-4208-98F4-BA084B861DEE}"/>
     <cellStyle name="Comma 5" xfId="6" xr:uid="{C32E82D7-B78E-4398-A554-4BB1A5AA8C7D}"/>
+    <cellStyle name="Comma 5 2" xfId="16" xr:uid="{99B64630-64BA-4717-B3BD-D722457DCD48}"/>
     <cellStyle name="Currency [0] 2" xfId="9" xr:uid="{82EED162-9152-4D75-83FF-E306F5F68374}"/>
+    <cellStyle name="Currency [0] 2 2" xfId="18" xr:uid="{D3F94348-93DA-4459-8248-BB917B2177A2}"/>
     <cellStyle name="Currency 2" xfId="8" xr:uid="{9319C880-26A7-4CA2-8648-5E415C862599}"/>
+    <cellStyle name="Currency 2 2" xfId="17" xr:uid="{5B637E9B-47D1-406C-BA0E-06498A76A1D5}"/>
     <cellStyle name="Currency 3" xfId="13" xr:uid="{394FB8D4-5CA0-48B9-8838-1881AE772E41}"/>
+    <cellStyle name="Currency 3 2" xfId="22" xr:uid="{D1CBF096-E4B7-4713-8D5D-C93E3EEB2C85}"/>
     <cellStyle name="Currency 4" xfId="15" xr:uid="{B84CEC2A-81A0-4725-B338-AD1F967D782C}"/>
+    <cellStyle name="Currency 4 2" xfId="24" xr:uid="{9808FDFC-CD35-4AB9-9954-A5E059BAB1E3}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal_Mau 01aTBH va 3aTBH 1643 3" xfId="3" xr:uid="{8C472605-C9F6-4CFB-A6E2-063A5B74105E}"/>
@@ -2372,13 +2390,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,65 +2404,63 @@
     <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15" style="3" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
-    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15" style="3" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="3"/>
-    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="3"/>
+    <col min="22" max="22" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="19.85546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="3" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="G4" s="4"/>
@@ -2463,8 +2479,9 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2478,20 +2495,20 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="9"/>
+      <c r="P5" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="10"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
@@ -2501,8 +2518,9 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK5" s="9"/>
+    </row>
+    <row r="6" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2516,20 +2534,20 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="12"/>
+      <c r="P6" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
@@ -2539,8 +2557,9 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK6" s="12"/>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -2548,8 +2567,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2566,17 +2585,18 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="17"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -2691,170 +2711,177 @@
       <c r="AL8" s="19">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="97" t="s">
+      <c r="AM8" s="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z9" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="96" t="s">
+      <c r="AH9" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI9" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ9" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK9" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL9" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM9" s="118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="T9" s="123" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="V9" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" s="113"/>
-      <c r="X9" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD9" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE9" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF9" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG9" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH9" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI9" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ9" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK9" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL9" s="117" t="s">
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="21" t="s">
+      <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="23" t="s">
+      <c r="AA10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="22" t="s">
+      <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AA10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB10" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="110"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="117"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="111"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="118"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2895,9 +2922,6 @@
         <v>16</v>
       </c>
       <c r="Q11" s="3">
-        <v>8</v>
-      </c>
-      <c r="R11" s="3">
         <v>17</v>
       </c>
       <c r="S11" s="3">
@@ -2907,57 +2931,60 @@
         <v>20</v>
       </c>
       <c r="V11" s="3">
+        <v>8</v>
+      </c>
+      <c r="W11" s="3">
         <v>21</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>22</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>23</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Z11" s="3">
         <v>24</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AA11" s="5">
         <v>25</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>26</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>27</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>29</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="3">
         <v>30</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>31</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>32</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>33</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AK11" s="3">
         <v>34</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AL11" s="3">
         <v>35</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AM11" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
@@ -2966,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" ref="H12:AK12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
+        <f t="shared" ref="H12:AL12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
         <v>0</v>
       </c>
       <c r="I12" s="38">
@@ -2999,13 +3026,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="38">
-        <f t="shared" ref="Q12" si="1">SUMIF($E13:$E14,$A12,Q13:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38">
-        <f>SUMIF($E13:$E14,$A12,R13:R14)</f>
-        <v>0</v>
-      </c>
+        <f ca="1">SUMIF($E13:$E14,$A12,Q14:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38"/>
       <c r="S12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3047,11 +3071,11 @@
         <v>0</v>
       </c>
       <c r="AC12" s="38">
-        <f>SUMIF($E13:$E14,$A12,AC13:AC14)</f>
+        <f t="shared" ref="AC12" si="1">SUMIF($E13:$E14,$A12,AC13:AC14)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="38">
-        <f t="shared" si="0"/>
+        <f>SUMIF($E13:$E14,$A12,AD13:AD14)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="38">
@@ -3082,9 +3106,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="35"/>
-    </row>
-    <row r="13" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="35"/>
+    </row>
+    <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -3100,78 +3128,81 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="92">
+      <c r="P13" s="91">
         <f>SUM(H13:O13)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="29">
-        <f>+G13+N13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="29"/>
+      <c r="R13" s="29">
+        <f>G13+P13+Q13</f>
+        <v>0</v>
+      </c>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f>ROUND(((G13+P13+R13)/F13*S13)+T13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="62">
+        <f>ROUND((R13/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="29">
+        <f>+G13+N13</f>
         <v>0</v>
       </c>
       <c r="W13" s="62">
         <v>0</v>
       </c>
-      <c r="X13" s="90" t="e">
-        <f>+U13-V13-W13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="31">
-        <v>0</v>
+      <c r="X13" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="90" t="e">
+        <f>+U13-W13-X13</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
-      <c r="AA13" s="29">
-        <f>4400000*Z13</f>
+      <c r="AA13" s="31">
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f>ROUND(Q13*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="32" t="e">
-        <f>+IF(X13-Y13-AA13-AB13&gt;0,X13-Y13-AA13-AB13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="33" t="e">
-        <f>ROUND(IF(AC13&gt;80000000,AC13*35%-9850000,IF(AC13&gt;52000000,AC13*30%-5850000,IF(AC13&gt;32000000,AC13*25%-3250000,IF(AC13&gt;18000000,AC13*20%-1650000,IF(AC13&gt;10000000,AC13*15%-750000,IF(AC13&gt;5000000,AC13*10%-250000,IF(AC13&gt;0,AC13*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="33">
-        <f>ROUND(Q13*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="29" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>4400000*AA13</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="29">
+        <f>ROUND(V13*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="32" t="e">
+        <f>+IF(Y13-Z13-AB13-AC13&gt;0,Y13-Z13-AB13-AC13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="33" t="e">
+        <f>ROUND(IF(AD13&gt;80000000,AD13*35%-9850000,IF(AD13&gt;52000000,AD13*30%-5850000,IF(AD13&gt;32000000,AD13*25%-3250000,IF(AD13&gt;18000000,AD13*20%-1650000,IF(AD13&gt;10000000,AD13*15%-750000,IF(AD13&gt;5000000,AD13*10%-250000,IF(AD13&gt;0,AD13*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF13" s="33">
+        <f>ROUND(V13*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="33"/>
       <c r="AH13" s="29" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="34" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="34" t="e">
-        <f t="shared" ref="AK13:AK14" si="2">+IF(AD13&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="61"/>
-    </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+        <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="29" t="e">
+        <f>AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="34" t="e">
+        <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="34" t="e">
+        <f t="shared" ref="AL13:AL14" si="2">+IF(AE13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" s="61"/>
+    </row>
+    <row r="14" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -3187,78 +3218,82 @@
       <c r="M14" s="69"/>
       <c r="N14" s="69"/>
       <c r="O14" s="69"/>
-      <c r="P14" s="92">
+      <c r="P14" s="91">
         <f>SUM(H14:O14)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="29">
-        <f>+G14+N14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="78"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29">
+        <f>G14+P14+Q14</f>
+        <v>0</v>
+      </c>
       <c r="S14" s="68"/>
       <c r="T14" s="70"/>
       <c r="U14" s="31" t="e">
-        <f>ROUND(((G14+P14+R14)/F14*S14)+T14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="72">
+        <f>ROUND((R14/F14*S14)+T14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="29">
+        <f>+G14+N14</f>
         <v>0</v>
       </c>
       <c r="W14" s="72">
         <v>0</v>
       </c>
-      <c r="X14" s="69" t="e">
-        <f>+U14-V14-W14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="71">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="69">
-        <f>4400000*Z14</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="29">
-        <f>ROUND(Q14*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="32" t="e">
-        <f>+IF(X14-Y14-AA14-AB14&gt;0,X14-Y14-AA14-AB14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="73" t="e">
-        <f>ROUND(IF(AC14&gt;80000000,AC14*35%-9850000,IF(AC14&gt;52000000,AC14*30%-5850000,IF(AC14&gt;32000000,AC14*25%-3250000,IF(AC14&gt;18000000,AC14*20%-1650000,IF(AC14&gt;10000000,AC14*15%-750000,IF(AC14&gt;5000000,AC14*10%-250000,IF(AC14&gt;0,AC14*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="33">
-        <f>ROUND(Q14*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="69" t="e">
-        <f>ROUND(U14-AB14-AD14-AE14 - AF14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="69" t="e">
-        <f>AG14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="74" t="e">
-        <f>IF(AND(AG14&gt;AH14,AH14&gt;0),AG14-AH14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="74" t="e">
+      <c r="X14" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="69" t="e">
+        <f>+U14-W14-X14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="69">
+        <f>4400000*AA14</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="29">
+        <f>ROUND(V14*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="32" t="e">
+        <f>+IF(Y14-Z14-AB14-AC14&gt;0,Y14-Z14-AB14-AC14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="73" t="e">
+        <f>ROUND(IF(AD14&gt;80000000,AD14*35%-9850000,IF(AD14&gt;52000000,AD14*30%-5850000,IF(AD14&gt;32000000,AD14*25%-3250000,IF(AD14&gt;18000000,AD14*20%-1650000,IF(AD14&gt;10000000,AD14*15%-750000,IF(AD14&gt;5000000,AD14*10%-250000,IF(AD14&gt;0,AD14*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" s="33">
+        <f>ROUND(V14*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="29" t="e">
+        <f>ROUND(U14-AC14-AE14-AF14 - AG14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="69" t="e">
+        <f>AH14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="74" t="e">
+        <f>IF(AND(AH14&gt;AI14,AI14&gt;0),AH14-AI14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="74" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL14" s="75"/>
-    </row>
-    <row r="15" spans="1:38" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM14" s="75"/>
+    </row>
+    <row r="15" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
@@ -3275,27 +3310,27 @@
       <c r="N15" s="78"/>
       <c r="O15" s="78"/>
       <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
       <c r="S15" s="78"/>
       <c r="T15" s="79"/>
       <c r="U15" s="78"/>
       <c r="V15" s="78"/>
       <c r="W15" s="78"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="81"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="82"/>
       <c r="AB15" s="81"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="83"/>
       <c r="AE15" s="81"/>
       <c r="AF15" s="81"/>
-      <c r="AG15" s="84"/>
+      <c r="AG15" s="81"/>
       <c r="AH15" s="84"/>
       <c r="AI15" s="84"/>
-      <c r="AL15" s="28"/>
-    </row>
-    <row r="16" spans="1:38" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="84"/>
+      <c r="AM15" s="28"/>
+    </row>
+    <row r="16" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="86"/>
       <c r="C16" s="87"/>
@@ -3307,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="39">
-        <f t="shared" ref="H16:AK16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
+        <f t="shared" ref="H16:AL16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
         <v>0</v>
       </c>
       <c r="I16" s="39">
@@ -3336,17 +3371,14 @@
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39">
-        <f t="shared" ref="P16:Q16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
+        <f t="shared" ref="P16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="39">
-        <f ca="1">SUMIF($E12:$E15,"",R12:R14)</f>
-        <v>0</v>
-      </c>
+        <f ca="1">SUMIF($E12:$E15,"",Q12:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="39"/>
       <c r="S16" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3367,13 +3399,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X16" s="39" t="e">
+      <c r="X16" s="39">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="39" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z16" s="39">
         <f t="shared" si="3"/>
@@ -3387,25 +3419,25 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="39" t="e">
-        <f>SUMIF($E12:$E15,"",AC12:AC15)</f>
-        <v>#DIV/0!</v>
+      <c r="AC16" s="39">
+        <f t="shared" ref="AC16" si="5">SUMIF($E12:$E15,"",AC12:AC15)</f>
+        <v>0</v>
       </c>
       <c r="AD16" s="39" t="e">
+        <f>SUMIF($E12:$E15,"",AD12:AD15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="AF16" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="39" t="e">
+      <c r="AG16" s="39">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="39" t="e">
         <f t="shared" si="3"/>
@@ -3415,17 +3447,21 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ16" s="39">
+      <c r="AJ16" s="39" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="39" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK16" s="39">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL16" s="88"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM16" s="88"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
@@ -3463,8 +3499,9 @@
       <c r="AI17" s="63"/>
       <c r="AJ17" s="63"/>
       <c r="AK17" s="63"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL17" s="63"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
@@ -3482,10 +3519,6 @@
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
@@ -3496,67 +3529,80 @@
       <c r="AC18" s="63"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="AF18" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="AG18" s="63"/>
       <c r="AH18" s="63"/>
       <c r="AI18" s="63"/>
       <c r="AJ18" s="63"/>
       <c r="AK18" s="63"/>
-    </row>
-    <row r="19" spans="1:38" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL18" s="63"/>
+    </row>
+    <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46"/>
-      <c r="F19" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="118"/>
+      <c r="F19" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="119"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="K19" s="48"/>
-      <c r="T19" s="47"/>
-      <c r="V19" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="50"/>
-      <c r="AD19" s="51"/>
+      <c r="R19" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="W19" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="50"/>
       <c r="AE19" s="51"/>
       <c r="AF19" s="51"/>
-      <c r="AG19" s="120" t="s">
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AM19" s="52"/>
+    </row>
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AL19" s="52"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="K20" s="54"/>
-      <c r="S20" s="44"/>
-      <c r="V20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="AB20" s="44"/>
-      <c r="AD20" s="42"/>
+      <c r="R20" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="W20" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="AC20" s="44"/>
       <c r="AE20" s="42"/>
       <c r="AF20" s="42"/>
-      <c r="AG20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH20" s="105"/>
-      <c r="AI20" s="105"/>
-      <c r="AJ20" s="105"/>
-    </row>
-    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+    </row>
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
@@ -3577,42 +3623,43 @@
       <c r="W21" s="53"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="55"/>
       <c r="AB21" s="53"/>
       <c r="AC21" s="53"/>
-      <c r="AD21" s="56"/>
+      <c r="AD21" s="53"/>
       <c r="AE21" s="56"/>
       <c r="AF21" s="56"/>
-      <c r="AG21" s="53"/>
+      <c r="AG21" s="56"/>
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="53"/>
-      <c r="AL21" s="57"/>
-    </row>
-    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="57"/>
+    </row>
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="K22" s="54"/>
-      <c r="Q22" s="53"/>
       <c r="S22" s="44"/>
       <c r="V22" s="53"/>
       <c r="W22" s="53"/>
       <c r="X22" s="53"/>
-      <c r="Y22" s="58"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="42"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="58"/>
+      <c r="AD22" s="44"/>
       <c r="AE22" s="42"/>
       <c r="AF22" s="42"/>
-      <c r="AG22" s="53"/>
+      <c r="AG22" s="42"/>
       <c r="AH22" s="53"/>
       <c r="AI22" s="53"/>
       <c r="AJ22" s="53"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK22" s="53"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="41"/>
@@ -3629,24 +3676,25 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
       <c r="T23" s="16"/>
       <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
+      <c r="V23" s="40"/>
       <c r="W23" s="42"/>
-      <c r="X23" s="44"/>
-      <c r="AB23" s="44"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="44"/>
       <c r="AE23" s="44"/>
       <c r="AF23" s="44"/>
-      <c r="AG23" s="4"/>
+      <c r="AG23" s="44"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="4"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="41"/>
@@ -3663,19 +3711,20 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
       <c r="S24" s="42"/>
       <c r="T24" s="16"/>
       <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
+      <c r="V24" s="40"/>
       <c r="W24" s="42"/>
-      <c r="X24" s="59"/>
-      <c r="AG24" s="4"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="59"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="4"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
@@ -3692,17 +3741,17 @@
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="42"/>
       <c r="S25" s="42"/>
       <c r="T25" s="16"/>
       <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
+      <c r="V25" s="40"/>
       <c r="W25" s="42"/>
       <c r="X25" s="42"/>
       <c r="Y25" s="42"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="60"/>
       <c r="AB25" s="42"/>
       <c r="AC25" s="42"/>
       <c r="AD25" s="42"/>
@@ -3711,8 +3760,9 @@
       <c r="AG25" s="42"/>
       <c r="AH25" s="42"/>
       <c r="AI25" s="42"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="42"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -3730,9 +3780,10 @@
       <c r="T26" s="43"/>
       <c r="U26"/>
       <c r="V26"/>
-      <c r="X26" s="59"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W26"/>
+      <c r="Y26" s="59"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -3750,45 +3801,43 @@
       <c r="T27" s="43"/>
       <c r="U27" s="42"/>
       <c r="V27"/>
-      <c r="X27" s="59"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X28" s="59"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W27"/>
+      <c r="Y27" s="59"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="Y28" s="59"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="U30" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:AL14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="36">
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="AF9:AF10"/>
+  <autoFilter ref="A11:AM14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="38">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="W19:Y19"/>
     <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="AG20:AJ20"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AD9:AD10"/>
     <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="AH9:AH10"/>
     <mergeCell ref="AI9:AI10"/>
     <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -3797,6 +3846,11 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="U9:U10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3805,7 +3859,7 @@
     <brk id="20" max="33" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="35" max="66" man="1"/>
+    <brk id="36" max="66" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
@@ -3815,13 +3869,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,65 +3883,63 @@
     <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15" style="3" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
-    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15" style="3" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="3"/>
-    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="3"/>
+    <col min="22" max="22" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="19.85546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="3" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="G4" s="4"/>
@@ -3906,8 +3958,9 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -3921,20 +3974,20 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="9"/>
+      <c r="P5" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="10"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
@@ -3944,8 +3997,9 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK5" s="9"/>
+    </row>
+    <row r="6" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3959,20 +4013,20 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="12"/>
+      <c r="P6" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
@@ -3982,8 +4036,9 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK6" s="12"/>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -3991,8 +4046,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4009,17 +4064,18 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="17"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -4134,170 +4190,177 @@
       <c r="AL8" s="19">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="97" t="s">
+      <c r="AM8" s="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z9" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="96" t="s">
+      <c r="AH9" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI9" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ9" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK9" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL9" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM9" s="118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="T9" s="123" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="V9" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" s="113"/>
-      <c r="X9" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD9" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE9" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF9" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG9" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH9" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI9" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ9" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK9" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL9" s="117" t="s">
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="21" t="s">
+      <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="23" t="s">
+      <c r="AA10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="22" t="s">
+      <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AA10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB10" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="110"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="117"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="111"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="118"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4338,9 +4401,6 @@
         <v>16</v>
       </c>
       <c r="Q11" s="3">
-        <v>8</v>
-      </c>
-      <c r="R11" s="3">
         <v>17</v>
       </c>
       <c r="S11" s="3">
@@ -4350,57 +4410,60 @@
         <v>20</v>
       </c>
       <c r="V11" s="3">
+        <v>8</v>
+      </c>
+      <c r="W11" s="3">
         <v>21</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>22</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>23</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Z11" s="3">
         <v>24</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AA11" s="5">
         <v>25</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>26</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>27</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>29</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="3">
         <v>30</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>31</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>32</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>33</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AK11" s="3">
         <v>34</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AL11" s="3">
         <v>35</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AM11" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
@@ -4409,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" ref="H12:AK12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
+        <f t="shared" ref="H12:AL12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
         <v>0</v>
       </c>
       <c r="I12" s="38">
@@ -4442,13 +4505,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="38">
-        <f t="shared" ref="Q12" si="1">SUMIF($E13:$E14,$A12,Q13:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38">
-        <f>SUMIF($E13:$E14,$A12,R13:R14)</f>
-        <v>0</v>
-      </c>
+        <f ca="1">SUMIF($E13:$E14,$A12,Q14:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38"/>
       <c r="S12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4490,11 +4550,11 @@
         <v>0</v>
       </c>
       <c r="AC12" s="38">
-        <f>SUMIF($E13:$E14,$A12,AC13:AC14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD12" s="38">
-        <f t="shared" si="0"/>
+        <f>SUMIF($E13:$E14,$A12,AD13:AD14)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="38">
@@ -4525,9 +4585,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="35"/>
-    </row>
-    <row r="13" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="35"/>
+    </row>
+    <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -4543,78 +4607,81 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="92">
+      <c r="P13" s="91">
         <f>SUM(H13:O13)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="29">
-        <f>+G13+N13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="29"/>
+      <c r="R13" s="29">
+        <f>G13+P13+Q13</f>
+        <v>0</v>
+      </c>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f>ROUND(((G13+P13+R13)/F13*S13)+T13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="62">
+        <f>ROUND((R13/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="29">
+        <f>+G13+N13</f>
         <v>0</v>
       </c>
       <c r="W13" s="62">
         <v>0</v>
       </c>
-      <c r="X13" s="90" t="e">
-        <f>+U13-V13-W13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="31">
-        <v>0</v>
+      <c r="X13" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="90" t="e">
+        <f>+U13-W13-X13</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
-      <c r="AA13" s="29">
-        <f>4400000*Z13</f>
+      <c r="AA13" s="31">
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f>ROUND(Q13*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="32" t="e">
-        <f>+IF(X13-Y13-AA13-AB13&gt;0,X13-Y13-AA13-AB13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="33" t="e">
-        <f>ROUND(IF(AC13&gt;80000000,AC13*35%-9850000,IF(AC13&gt;52000000,AC13*30%-5850000,IF(AC13&gt;32000000,AC13*25%-3250000,IF(AC13&gt;18000000,AC13*20%-1650000,IF(AC13&gt;10000000,AC13*15%-750000,IF(AC13&gt;5000000,AC13*10%-250000,IF(AC13&gt;0,AC13*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="33">
-        <f>ROUND(Q13*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="29" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>4400000*AA13</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="29">
+        <f>ROUND(V13*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="32" t="e">
+        <f>+IF(Y13-Z13-AB13-AC13&gt;0,Y13-Z13-AB13-AC13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="33" t="e">
+        <f>ROUND(IF(AD13&gt;80000000,AD13*35%-9850000,IF(AD13&gt;52000000,AD13*30%-5850000,IF(AD13&gt;32000000,AD13*25%-3250000,IF(AD13&gt;18000000,AD13*20%-1650000,IF(AD13&gt;10000000,AD13*15%-750000,IF(AD13&gt;5000000,AD13*10%-250000,IF(AD13&gt;0,AD13*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF13" s="33">
+        <f>ROUND(V13*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="33"/>
       <c r="AH13" s="29" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="34" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="34" t="e">
-        <f t="shared" ref="AK13:AK14" si="2">+IF(AD13&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="61"/>
-    </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+        <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="29" t="e">
+        <f>AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="34" t="e">
+        <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="34" t="e">
+        <f t="shared" ref="AL13:AL14" si="1">+IF(AE13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" s="61"/>
+    </row>
+    <row r="14" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -4630,78 +4697,82 @@
       <c r="M14" s="69"/>
       <c r="N14" s="69"/>
       <c r="O14" s="69"/>
-      <c r="P14" s="92">
+      <c r="P14" s="91">
         <f>SUM(H14:O14)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="29">
-        <f>+G14+N14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="78"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29">
+        <f>G14+P14+Q14</f>
+        <v>0</v>
+      </c>
       <c r="S14" s="68"/>
       <c r="T14" s="70"/>
       <c r="U14" s="31" t="e">
-        <f>ROUND(((G14+P14+R14)/F14*S14)+T14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="72">
+        <f>ROUND((R14/F14*S14)+T14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="29">
+        <f>+G14+N14</f>
         <v>0</v>
       </c>
       <c r="W14" s="72">
         <v>0</v>
       </c>
-      <c r="X14" s="69" t="e">
-        <f>+U14-V14-W14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="71">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="69">
-        <f>4400000*Z14</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="29">
-        <f>ROUND(Q14*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="32" t="e">
-        <f>+IF(X14-Y14-AA14-AB14&gt;0,X14-Y14-AA14-AB14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="73" t="e">
-        <f>ROUND(IF(AC14&gt;80000000,AC14*35%-9850000,IF(AC14&gt;52000000,AC14*30%-5850000,IF(AC14&gt;32000000,AC14*25%-3250000,IF(AC14&gt;18000000,AC14*20%-1650000,IF(AC14&gt;10000000,AC14*15%-750000,IF(AC14&gt;5000000,AC14*10%-250000,IF(AC14&gt;0,AC14*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="33">
-        <f>ROUND(Q14*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="69" t="e">
-        <f>ROUND(U14-AB14-AD14-AE14 - AF14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="69" t="e">
-        <f>AG14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="74" t="e">
-        <f>IF(AND(AG14&gt;AH14,AH14&gt;0),AG14-AH14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="75"/>
-    </row>
-    <row r="15" spans="1:38" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="69" t="e">
+        <f>+U14-W14-X14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="69">
+        <f>4400000*AA14</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="29">
+        <f>ROUND(V14*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="32" t="e">
+        <f>+IF(Y14-Z14-AB14-AC14&gt;0,Y14-Z14-AB14-AC14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="73" t="e">
+        <f>ROUND(IF(AD14&gt;80000000,AD14*35%-9850000,IF(AD14&gt;52000000,AD14*30%-5850000,IF(AD14&gt;32000000,AD14*25%-3250000,IF(AD14&gt;18000000,AD14*20%-1650000,IF(AD14&gt;10000000,AD14*15%-750000,IF(AD14&gt;5000000,AD14*10%-250000,IF(AD14&gt;0,AD14*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" s="33">
+        <f>ROUND(V14*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="29" t="e">
+        <f>ROUND(U14-AC14-AE14-AF14 - AG14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="69" t="e">
+        <f>AH14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="74" t="e">
+        <f>IF(AND(AH14&gt;AI14,AI14&gt;0),AH14-AI14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="74" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" s="75"/>
+    </row>
+    <row r="15" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
@@ -4718,27 +4789,27 @@
       <c r="N15" s="78"/>
       <c r="O15" s="78"/>
       <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
       <c r="S15" s="78"/>
       <c r="T15" s="79"/>
       <c r="U15" s="78"/>
       <c r="V15" s="78"/>
       <c r="W15" s="78"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="81"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="82"/>
       <c r="AB15" s="81"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="83"/>
       <c r="AE15" s="81"/>
       <c r="AF15" s="81"/>
-      <c r="AG15" s="84"/>
+      <c r="AG15" s="81"/>
       <c r="AH15" s="84"/>
       <c r="AI15" s="84"/>
-      <c r="AL15" s="28"/>
-    </row>
-    <row r="16" spans="1:38" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="84"/>
+      <c r="AM15" s="28"/>
+    </row>
+    <row r="16" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="86"/>
       <c r="C16" s="87"/>
@@ -4750,125 +4821,126 @@
         <v>0</v>
       </c>
       <c r="H16" s="39">
-        <f t="shared" ref="H16:AK16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
+        <f t="shared" ref="H16:AL16" si="2">SUMIF($E12:$E15,"",H12:H15)</f>
         <v>0</v>
       </c>
       <c r="I16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39">
-        <f t="shared" ref="P16:Q16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
+        <f t="shared" ref="P16" si="3">SUMIF($E12:$E15,"",P12:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="39">
-        <f ca="1">SUMIF($E12:$E15,"",R12:R14)</f>
-        <v>0</v>
-      </c>
+        <f ca="1">SUMIF($E12:$E15,"",Q12:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="39"/>
       <c r="S16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="39" t="e">
-        <f>SUMIF($E12:$E15,"",AC12:AC15)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUMIF($E12:$E15,"",AD12:AD15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AH16" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL16" s="88"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM16" s="88"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
@@ -4906,8 +4978,9 @@
       <c r="AI17" s="63"/>
       <c r="AJ17" s="63"/>
       <c r="AK17" s="63"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL17" s="63"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
@@ -4925,10 +4998,6 @@
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
@@ -4939,67 +5008,80 @@
       <c r="AC18" s="63"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="AF18" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="AG18" s="63"/>
       <c r="AH18" s="63"/>
       <c r="AI18" s="63"/>
       <c r="AJ18" s="63"/>
       <c r="AK18" s="63"/>
-    </row>
-    <row r="19" spans="1:38" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL18" s="63"/>
+    </row>
+    <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46"/>
-      <c r="F19" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="118"/>
+      <c r="F19" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="119"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="K19" s="48"/>
-      <c r="T19" s="47"/>
-      <c r="V19" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="50"/>
-      <c r="AD19" s="51"/>
+      <c r="R19" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="W19" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="50"/>
       <c r="AE19" s="51"/>
       <c r="AF19" s="51"/>
-      <c r="AG19" s="120" t="s">
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AM19" s="52"/>
+    </row>
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AL19" s="52"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="K20" s="54"/>
-      <c r="S20" s="44"/>
-      <c r="V20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="AB20" s="44"/>
-      <c r="AD20" s="42"/>
+      <c r="R20" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="W20" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="AC20" s="44"/>
       <c r="AE20" s="42"/>
       <c r="AF20" s="42"/>
-      <c r="AG20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH20" s="105"/>
-      <c r="AI20" s="105"/>
-      <c r="AJ20" s="105"/>
-    </row>
-    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+    </row>
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
@@ -5020,42 +5102,43 @@
       <c r="W21" s="53"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="55"/>
       <c r="AB21" s="53"/>
       <c r="AC21" s="53"/>
-      <c r="AD21" s="56"/>
+      <c r="AD21" s="53"/>
       <c r="AE21" s="56"/>
       <c r="AF21" s="56"/>
-      <c r="AG21" s="53"/>
+      <c r="AG21" s="56"/>
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="53"/>
-      <c r="AL21" s="57"/>
-    </row>
-    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="57"/>
+    </row>
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="K22" s="54"/>
-      <c r="Q22" s="53"/>
       <c r="S22" s="44"/>
       <c r="V22" s="53"/>
       <c r="W22" s="53"/>
       <c r="X22" s="53"/>
-      <c r="Y22" s="58"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="42"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="58"/>
+      <c r="AD22" s="44"/>
       <c r="AE22" s="42"/>
       <c r="AF22" s="42"/>
-      <c r="AG22" s="53"/>
+      <c r="AG22" s="42"/>
       <c r="AH22" s="53"/>
       <c r="AI22" s="53"/>
       <c r="AJ22" s="53"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK22" s="53"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="41"/>
@@ -5072,24 +5155,25 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
       <c r="T23" s="16"/>
       <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
+      <c r="V23" s="40"/>
       <c r="W23" s="42"/>
-      <c r="X23" s="44"/>
-      <c r="AB23" s="44"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="44"/>
       <c r="AE23" s="44"/>
       <c r="AF23" s="44"/>
-      <c r="AG23" s="4"/>
+      <c r="AG23" s="44"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="4"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="41"/>
@@ -5106,19 +5190,20 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
       <c r="S24" s="42"/>
       <c r="T24" s="16"/>
       <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
+      <c r="V24" s="40"/>
       <c r="W24" s="42"/>
-      <c r="X24" s="59"/>
-      <c r="AG24" s="4"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="59"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="4"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
@@ -5135,17 +5220,17 @@
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="42"/>
       <c r="S25" s="42"/>
       <c r="T25" s="16"/>
       <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
+      <c r="V25" s="40"/>
       <c r="W25" s="42"/>
       <c r="X25" s="42"/>
       <c r="Y25" s="42"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="60"/>
       <c r="AB25" s="42"/>
       <c r="AC25" s="42"/>
       <c r="AD25" s="42"/>
@@ -5154,8 +5239,9 @@
       <c r="AG25" s="42"/>
       <c r="AH25" s="42"/>
       <c r="AI25" s="42"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="42"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -5173,9 +5259,10 @@
       <c r="T26" s="43"/>
       <c r="U26"/>
       <c r="V26"/>
-      <c r="X26" s="59"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W26"/>
+      <c r="Y26" s="59"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -5193,22 +5280,24 @@
       <c r="T27" s="43"/>
       <c r="U27" s="42"/>
       <c r="V27"/>
-      <c r="X27" s="59"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X28" s="59"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W27"/>
+      <c r="Y27" s="59"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="Y28" s="59"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="U30" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="W20:Y20"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="AG20:AJ20"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="AL9:AL10"/>
@@ -5219,13 +5308,14 @@
     <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="AG9:AG10"/>
     <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:W9"/>
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H9:P9"/>
     <mergeCell ref="B9:B10"/>
@@ -5233,8 +5323,8 @@
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
@@ -5255,13 +5345,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5269,65 +5359,63 @@
     <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15" style="3" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
-    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15" style="3" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="3"/>
-    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="3"/>
+    <col min="22" max="22" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="19.85546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="3" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="G4" s="4"/>
@@ -5346,8 +5434,9 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5361,20 +5450,20 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="9"/>
+      <c r="P5" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="10"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
@@ -5384,8 +5473,9 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK5" s="9"/>
+    </row>
+    <row r="6" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -5399,20 +5489,20 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="12"/>
+      <c r="P6" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
@@ -5422,8 +5512,9 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK6" s="12"/>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -5431,8 +5522,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5449,17 +5540,18 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="17"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -5574,170 +5666,177 @@
       <c r="AL8" s="19">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="97" t="s">
+      <c r="AM8" s="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z9" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="96" t="s">
+      <c r="AH9" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI9" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ9" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK9" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL9" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM9" s="118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="T9" s="123" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="V9" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" s="113"/>
-      <c r="X9" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD9" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE9" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF9" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG9" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH9" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI9" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ9" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK9" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL9" s="117" t="s">
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="21" t="s">
+      <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="23" t="s">
+      <c r="AA10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="22" t="s">
+      <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AA10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB10" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="110"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="117"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="111"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="118"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -5778,9 +5877,6 @@
         <v>16</v>
       </c>
       <c r="Q11" s="3">
-        <v>8</v>
-      </c>
-      <c r="R11" s="3">
         <v>17</v>
       </c>
       <c r="S11" s="3">
@@ -5790,57 +5886,60 @@
         <v>20</v>
       </c>
       <c r="V11" s="3">
+        <v>8</v>
+      </c>
+      <c r="W11" s="3">
         <v>21</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>22</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>23</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Z11" s="3">
         <v>24</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AA11" s="5">
         <v>25</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>26</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>27</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>29</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="3">
         <v>30</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>31</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>32</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>33</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AK11" s="3">
         <v>34</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AL11" s="3">
         <v>35</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AM11" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
@@ -5849,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" ref="H12:AK12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
+        <f t="shared" ref="H12:AL12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
         <v>0</v>
       </c>
       <c r="I12" s="38">
@@ -5882,13 +5981,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="38">
-        <f t="shared" ref="Q12" si="1">SUMIF($E13:$E14,$A12,Q13:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38">
-        <f>SUMIF($E13:$E14,$A12,R13:R14)</f>
-        <v>0</v>
-      </c>
+        <f ca="1">SUMIF($E13:$E14,$A12,Q14:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38"/>
       <c r="S12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5930,11 +6026,11 @@
         <v>0</v>
       </c>
       <c r="AC12" s="38">
-        <f>SUMIF($E13:$E14,$A12,AC13:AC14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD12" s="38">
-        <f t="shared" si="0"/>
+        <f>SUMIF($E13:$E14,$A12,AD13:AD14)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="38">
@@ -5965,9 +6061,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="35"/>
-    </row>
-    <row r="13" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="35"/>
+    </row>
+    <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -5983,78 +6083,81 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="92">
+      <c r="P13" s="91">
         <f>SUM(H13:O13)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="29">
-        <f>+G13+N13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="29"/>
+      <c r="R13" s="29">
+        <f>G13+P13+Q13</f>
+        <v>0</v>
+      </c>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f>ROUND(((G13+P13+R13)/F13*S13)+T13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="62">
+        <f>ROUND((R13/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="29">
+        <f>+G13+N13</f>
         <v>0</v>
       </c>
       <c r="W13" s="62">
         <v>0</v>
       </c>
-      <c r="X13" s="90" t="e">
-        <f>+U13-V13-W13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="31">
-        <v>0</v>
+      <c r="X13" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="90" t="e">
+        <f>+U13-W13-X13</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
-      <c r="AA13" s="29">
-        <f>4400000*Z13</f>
+      <c r="AA13" s="31">
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f>ROUND(Q13*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="32" t="e">
-        <f>+IF(X13-Y13-AA13-AB13&gt;0,X13-Y13-AA13-AB13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="33" t="e">
-        <f>ROUND(IF(AC13&gt;80000000,AC13*35%-9850000,IF(AC13&gt;52000000,AC13*30%-5850000,IF(AC13&gt;32000000,AC13*25%-3250000,IF(AC13&gt;18000000,AC13*20%-1650000,IF(AC13&gt;10000000,AC13*15%-750000,IF(AC13&gt;5000000,AC13*10%-250000,IF(AC13&gt;0,AC13*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="33">
-        <f>ROUND(Q13*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="29" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>4400000*AA13</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="29">
+        <f>ROUND(V13*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="32" t="e">
+        <f>+IF(Y13-Z13-AB13-AC13&gt;0,Y13-Z13-AB13-AC13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="33" t="e">
+        <f>ROUND(IF(AD13&gt;80000000,AD13*35%-9850000,IF(AD13&gt;52000000,AD13*30%-5850000,IF(AD13&gt;32000000,AD13*25%-3250000,IF(AD13&gt;18000000,AD13*20%-1650000,IF(AD13&gt;10000000,AD13*15%-750000,IF(AD13&gt;5000000,AD13*10%-250000,IF(AD13&gt;0,AD13*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF13" s="33">
+        <f>ROUND(V13*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="33"/>
       <c r="AH13" s="29" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="34" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="34" t="e">
-        <f t="shared" ref="AK13:AK14" si="2">+IF(AD13&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="61"/>
-    </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+        <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="29" t="e">
+        <f>AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="34" t="e">
+        <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="34" t="e">
+        <f t="shared" ref="AL13:AL14" si="1">+IF(AE13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" s="61"/>
+    </row>
+    <row r="14" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -6070,78 +6173,82 @@
       <c r="M14" s="69"/>
       <c r="N14" s="69"/>
       <c r="O14" s="69"/>
-      <c r="P14" s="92">
+      <c r="P14" s="91">
         <f>SUM(H14:O14)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="29">
-        <f>+G14+N14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="78"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29">
+        <f>G14+P14+Q14</f>
+        <v>0</v>
+      </c>
       <c r="S14" s="68"/>
       <c r="T14" s="70"/>
       <c r="U14" s="31" t="e">
-        <f>ROUND(((G14+P14+R14)/F14*S14)+T14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="72">
+        <f>ROUND((R14/F14*S14)+T14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="29">
+        <f>+G14+N14</f>
         <v>0</v>
       </c>
       <c r="W14" s="72">
         <v>0</v>
       </c>
-      <c r="X14" s="69" t="e">
-        <f>+U14-V14-W14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="71">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="69">
-        <f>4400000*Z14</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="29">
-        <f>ROUND(Q14*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="32" t="e">
-        <f>+IF(X14-Y14-AA14-AB14&gt;0,X14-Y14-AA14-AB14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="73" t="e">
-        <f>ROUND(IF(AC14&gt;80000000,AC14*35%-9850000,IF(AC14&gt;52000000,AC14*30%-5850000,IF(AC14&gt;32000000,AC14*25%-3250000,IF(AC14&gt;18000000,AC14*20%-1650000,IF(AC14&gt;10000000,AC14*15%-750000,IF(AC14&gt;5000000,AC14*10%-250000,IF(AC14&gt;0,AC14*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="33">
-        <f>ROUND(Q14*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="69" t="e">
-        <f>ROUND(U14-AB14-AD14-AE14 - AF14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="69" t="e">
-        <f>AG14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="74" t="e">
-        <f>IF(AND(AG14&gt;AH14,AH14&gt;0),AG14-AH14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="75"/>
-    </row>
-    <row r="15" spans="1:38" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="69" t="e">
+        <f>+U14-W14-X14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="69">
+        <f>4400000*AA14</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="29">
+        <f>ROUND(V14*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="32" t="e">
+        <f>+IF(Y14-Z14-AB14-AC14&gt;0,Y14-Z14-AB14-AC14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="73" t="e">
+        <f>ROUND(IF(AD14&gt;80000000,AD14*35%-9850000,IF(AD14&gt;52000000,AD14*30%-5850000,IF(AD14&gt;32000000,AD14*25%-3250000,IF(AD14&gt;18000000,AD14*20%-1650000,IF(AD14&gt;10000000,AD14*15%-750000,IF(AD14&gt;5000000,AD14*10%-250000,IF(AD14&gt;0,AD14*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" s="33">
+        <f>ROUND(V14*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="29" t="e">
+        <f>ROUND(U14-AC14-AE14-AF14 - AG14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="69" t="e">
+        <f>AH14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="74" t="e">
+        <f>IF(AND(AH14&gt;AI14,AI14&gt;0),AH14-AI14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="74" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" s="75"/>
+    </row>
+    <row r="15" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
@@ -6158,27 +6265,27 @@
       <c r="N15" s="78"/>
       <c r="O15" s="78"/>
       <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
       <c r="S15" s="78"/>
       <c r="T15" s="79"/>
       <c r="U15" s="78"/>
       <c r="V15" s="78"/>
       <c r="W15" s="78"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="81"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="82"/>
       <c r="AB15" s="81"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="83"/>
       <c r="AE15" s="81"/>
       <c r="AF15" s="81"/>
-      <c r="AG15" s="84"/>
+      <c r="AG15" s="81"/>
       <c r="AH15" s="84"/>
       <c r="AI15" s="84"/>
-      <c r="AL15" s="28"/>
-    </row>
-    <row r="16" spans="1:38" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="84"/>
+      <c r="AM15" s="28"/>
+    </row>
+    <row r="16" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="86"/>
       <c r="C16" s="87"/>
@@ -6190,125 +6297,126 @@
         <v>0</v>
       </c>
       <c r="H16" s="39">
-        <f t="shared" ref="H16:AK16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
+        <f t="shared" ref="H16:AL16" si="2">SUMIF($E12:$E15,"",H12:H15)</f>
         <v>0</v>
       </c>
       <c r="I16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39">
-        <f t="shared" ref="P16:Q16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
+        <f t="shared" ref="P16" si="3">SUMIF($E12:$E15,"",P12:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="39">
-        <f ca="1">SUMIF($E12:$E15,"",R12:R14)</f>
-        <v>0</v>
-      </c>
+        <f ca="1">SUMIF($E12:$E15,"",Q12:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="39"/>
       <c r="S16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="39" t="e">
-        <f>SUMIF($E12:$E15,"",AC12:AC15)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUMIF($E12:$E15,"",AD12:AD15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AH16" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL16" s="88"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM16" s="88"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
@@ -6346,8 +6454,9 @@
       <c r="AI17" s="63"/>
       <c r="AJ17" s="63"/>
       <c r="AK17" s="63"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL17" s="63"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
@@ -6365,10 +6474,6 @@
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
@@ -6379,67 +6484,80 @@
       <c r="AC18" s="63"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="AF18" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="AG18" s="63"/>
       <c r="AH18" s="63"/>
       <c r="AI18" s="63"/>
       <c r="AJ18" s="63"/>
       <c r="AK18" s="63"/>
-    </row>
-    <row r="19" spans="1:38" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL18" s="63"/>
+    </row>
+    <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46"/>
-      <c r="F19" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="118"/>
+      <c r="F19" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="119"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="K19" s="48"/>
-      <c r="T19" s="47"/>
-      <c r="V19" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="50"/>
-      <c r="AD19" s="51"/>
+      <c r="R19" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="W19" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="50"/>
       <c r="AE19" s="51"/>
       <c r="AF19" s="51"/>
-      <c r="AG19" s="120" t="s">
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AM19" s="52"/>
+    </row>
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AL19" s="52"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="K20" s="54"/>
-      <c r="S20" s="44"/>
-      <c r="V20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="AB20" s="44"/>
-      <c r="AD20" s="42"/>
+      <c r="R20" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="W20" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="AC20" s="44"/>
       <c r="AE20" s="42"/>
       <c r="AF20" s="42"/>
-      <c r="AG20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH20" s="105"/>
-      <c r="AI20" s="105"/>
-      <c r="AJ20" s="105"/>
-    </row>
-    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+    </row>
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
@@ -6460,42 +6578,43 @@
       <c r="W21" s="53"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="55"/>
       <c r="AB21" s="53"/>
       <c r="AC21" s="53"/>
-      <c r="AD21" s="56"/>
+      <c r="AD21" s="53"/>
       <c r="AE21" s="56"/>
       <c r="AF21" s="56"/>
-      <c r="AG21" s="53"/>
+      <c r="AG21" s="56"/>
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="53"/>
-      <c r="AL21" s="57"/>
-    </row>
-    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="57"/>
+    </row>
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="K22" s="54"/>
-      <c r="Q22" s="53"/>
       <c r="S22" s="44"/>
       <c r="V22" s="53"/>
       <c r="W22" s="53"/>
       <c r="X22" s="53"/>
-      <c r="Y22" s="58"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="42"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="58"/>
+      <c r="AD22" s="44"/>
       <c r="AE22" s="42"/>
       <c r="AF22" s="42"/>
-      <c r="AG22" s="53"/>
+      <c r="AG22" s="42"/>
       <c r="AH22" s="53"/>
       <c r="AI22" s="53"/>
       <c r="AJ22" s="53"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK22" s="53"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="41"/>
@@ -6512,24 +6631,25 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
       <c r="T23" s="16"/>
       <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
+      <c r="V23" s="40"/>
       <c r="W23" s="42"/>
-      <c r="X23" s="44"/>
-      <c r="AB23" s="44"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="44"/>
       <c r="AE23" s="44"/>
       <c r="AF23" s="44"/>
-      <c r="AG23" s="4"/>
+      <c r="AG23" s="44"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="4"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="41"/>
@@ -6546,19 +6666,20 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
       <c r="S24" s="42"/>
       <c r="T24" s="16"/>
       <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
+      <c r="V24" s="40"/>
       <c r="W24" s="42"/>
-      <c r="X24" s="59"/>
-      <c r="AG24" s="4"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="59"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="4"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
@@ -6575,17 +6696,17 @@
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="42"/>
       <c r="S25" s="42"/>
       <c r="T25" s="16"/>
       <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
+      <c r="V25" s="40"/>
       <c r="W25" s="42"/>
       <c r="X25" s="42"/>
       <c r="Y25" s="42"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="60"/>
       <c r="AB25" s="42"/>
       <c r="AC25" s="42"/>
       <c r="AD25" s="42"/>
@@ -6594,8 +6715,9 @@
       <c r="AG25" s="42"/>
       <c r="AH25" s="42"/>
       <c r="AI25" s="42"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="42"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -6613,9 +6735,10 @@
       <c r="T26" s="43"/>
       <c r="U26"/>
       <c r="V26"/>
-      <c r="X26" s="59"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W26"/>
+      <c r="Y26" s="59"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -6633,24 +6756,31 @@
       <c r="T27" s="43"/>
       <c r="U27" s="42"/>
       <c r="V27"/>
-      <c r="X27" s="59"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X28" s="59"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W27"/>
+      <c r="Y27" s="59"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="Y28" s="59"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="U30" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:AL11" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}"/>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="AG20:AJ20"/>
-    <mergeCell ref="V19:X19"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="AJ9:AJ10"/>
@@ -6661,11 +6791,7 @@
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -6687,13 +6813,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="T12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="X32" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6701,65 +6827,63 @@
     <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="16.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15" style="3" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" style="5" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
-    <col min="30" max="32" width="12.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="15" style="3" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="7.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="3"/>
-    <col min="38" max="38" width="40.7109375" style="6" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="3"/>
+    <col min="22" max="22" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="19.85546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="15" style="3" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="G4" s="4"/>
@@ -6778,8 +6902,9 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -6793,20 +6918,20 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="9"/>
+      <c r="P5" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="10"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
@@ -6816,8 +6941,9 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="1:38" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AK5" s="9"/>
+    </row>
+    <row r="6" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -6831,20 +6957,20 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="12"/>
+      <c r="P6" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
@@ -6854,8 +6980,9 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
-    </row>
-    <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AK6" s="12"/>
+    </row>
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -6863,8 +6990,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6881,17 +7008,18 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="17"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -7006,170 +7134,177 @@
       <c r="AL8" s="19">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="97" t="s">
+      <c r="AM8" s="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="123" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z9" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE9" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG9" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="96" t="s">
+      <c r="AH9" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI9" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ9" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK9" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL9" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM9" s="118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="T9" s="123" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="V9" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" s="113"/>
-      <c r="X9" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD9" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE9" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF9" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG9" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH9" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI9" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ9" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK9" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL9" s="117" t="s">
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="21" t="s">
+      <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="23" t="s">
+      <c r="AA10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="22" t="s">
+      <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AA10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB10" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="110"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="117"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="111"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="118"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -7210,9 +7345,6 @@
         <v>16</v>
       </c>
       <c r="Q11" s="3">
-        <v>8</v>
-      </c>
-      <c r="R11" s="3">
         <v>17</v>
       </c>
       <c r="S11" s="3">
@@ -7222,57 +7354,60 @@
         <v>20</v>
       </c>
       <c r="V11" s="3">
+        <v>8</v>
+      </c>
+      <c r="W11" s="3">
         <v>21</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>22</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>23</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Z11" s="3">
         <v>24</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AA11" s="5">
         <v>25</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>26</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>27</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>29</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="3">
         <v>30</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>31</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>32</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AJ11" s="3">
         <v>33</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AK11" s="3">
         <v>34</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AL11" s="3">
         <v>35</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AM11" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
@@ -7281,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" ref="H12:AK12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
+        <f t="shared" ref="H12:AL12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
         <v>0</v>
       </c>
       <c r="I12" s="38">
@@ -7314,13 +7449,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="38">
-        <f t="shared" ref="Q12" si="1">SUMIF($E13:$E14,$A12,Q13:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38">
-        <f>SUMIF($E13:$E14,$A12,R13:R14)</f>
-        <v>0</v>
-      </c>
+        <f ca="1">SUMIF($E13:$E14,$A12,Q14:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38"/>
       <c r="S12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7362,11 +7494,11 @@
         <v>0</v>
       </c>
       <c r="AC12" s="38">
-        <f>SUMIF($E13:$E14,$A12,AC13:AC14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD12" s="38">
-        <f t="shared" si="0"/>
+        <f>SUMIF($E13:$E14,$A12,AD13:AD14)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="38">
@@ -7397,9 +7529,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="35"/>
-    </row>
-    <row r="13" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="35"/>
+    </row>
+    <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
@@ -7415,78 +7551,81 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-      <c r="P13" s="92">
+      <c r="P13" s="91">
         <f>SUM(H13:O13)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="29">
-        <f>+G13+N13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="29"/>
+      <c r="R13" s="29">
+        <f>G13+P13+Q13</f>
+        <v>0</v>
+      </c>
       <c r="S13" s="28"/>
       <c r="T13" s="30"/>
       <c r="U13" s="31" t="e">
-        <f>ROUND(((G13+P13+R13)/F13*S13)+T13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="62">
+        <f>ROUND((R13/F13*S13)+T13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="29">
+        <f>+G13+N13</f>
         <v>0</v>
       </c>
       <c r="W13" s="62">
         <v>0</v>
       </c>
-      <c r="X13" s="90" t="e">
-        <f>+U13-V13-W13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="31">
-        <v>0</v>
+      <c r="X13" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="90" t="e">
+        <f>+U13-W13-X13</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
-      <c r="AA13" s="29">
-        <f>4400000*Z13</f>
+      <c r="AA13" s="31">
         <v>0</v>
       </c>
       <c r="AB13" s="29">
-        <f>ROUND(Q13*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="32" t="e">
-        <f>+IF(X13-Y13-AA13-AB13&gt;0,X13-Y13-AA13-AB13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD13" s="33" t="e">
-        <f>ROUND(IF(AC13&gt;80000000,AC13*35%-9850000,IF(AC13&gt;52000000,AC13*30%-5850000,IF(AC13&gt;32000000,AC13*25%-3250000,IF(AC13&gt;18000000,AC13*20%-1650000,IF(AC13&gt;10000000,AC13*15%-750000,IF(AC13&gt;5000000,AC13*10%-250000,IF(AC13&gt;0,AC13*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE13" s="33">
-        <f>ROUND(Q13*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="29" t="e">
-        <f>ROUND(U13-AB13-AD13-AE13 - AF13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>4400000*AA13</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="29">
+        <f>ROUND(V13*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="32" t="e">
+        <f>+IF(Y13-Z13-AB13-AC13&gt;0,Y13-Z13-AB13-AC13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE13" s="33" t="e">
+        <f>ROUND(IF(AD13&gt;80000000,AD13*35%-9850000,IF(AD13&gt;52000000,AD13*30%-5850000,IF(AD13&gt;32000000,AD13*25%-3250000,IF(AD13&gt;18000000,AD13*20%-1650000,IF(AD13&gt;10000000,AD13*15%-750000,IF(AD13&gt;5000000,AD13*10%-250000,IF(AD13&gt;0,AD13*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF13" s="33">
+        <f>ROUND(V13*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="33"/>
       <c r="AH13" s="29" t="e">
-        <f>AG13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="34" t="e">
-        <f>IF(AND(AG13&gt;AH13,AH13&gt;0),AG13-AH13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="34" t="e">
-        <f t="shared" ref="AK13:AK14" si="2">+IF(AD13&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL13" s="61"/>
-    </row>
-    <row r="14" spans="1:38" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+        <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI13" s="29" t="e">
+        <f>AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="34" t="e">
+        <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="34" t="e">
+        <f t="shared" ref="AL13:AL14" si="1">+IF(AE13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" s="61"/>
+    </row>
+    <row r="14" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="65"/>
@@ -7502,78 +7641,82 @@
       <c r="M14" s="69"/>
       <c r="N14" s="69"/>
       <c r="O14" s="69"/>
-      <c r="P14" s="92">
+      <c r="P14" s="91">
         <f>SUM(H14:O14)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="29">
-        <f>+G14+N14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="78"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29">
+        <f>G14+P14+Q14</f>
+        <v>0</v>
+      </c>
       <c r="S14" s="68"/>
       <c r="T14" s="70"/>
       <c r="U14" s="31" t="e">
-        <f>ROUND(((G14+P14+R14)/F14*S14)+T14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="72">
+        <f>ROUND((R14/F14*S14)+T14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" s="29">
+        <f>+G14+N14</f>
         <v>0</v>
       </c>
       <c r="W14" s="72">
         <v>0</v>
       </c>
-      <c r="X14" s="69" t="e">
-        <f>+U14-V14-W14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="71">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="69">
-        <f>4400000*Z14</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="29">
-        <f>ROUND(Q14*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="32" t="e">
-        <f>+IF(X14-Y14-AA14-AB14&gt;0,X14-Y14-AA14-AB14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD14" s="73" t="e">
-        <f>ROUND(IF(AC14&gt;80000000,AC14*35%-9850000,IF(AC14&gt;52000000,AC14*30%-5850000,IF(AC14&gt;32000000,AC14*25%-3250000,IF(AC14&gt;18000000,AC14*20%-1650000,IF(AC14&gt;10000000,AC14*15%-750000,IF(AC14&gt;5000000,AC14*10%-250000,IF(AC14&gt;0,AC14*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="33">
-        <f>ROUND(Q14*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="69" t="e">
-        <f>ROUND(U14-AB14-AD14-AE14 - AF14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH14" s="69" t="e">
-        <f>AG14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="74" t="e">
-        <f>IF(AND(AG14&gt;AH14,AH14&gt;0),AG14-AH14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL14" s="75"/>
-    </row>
-    <row r="15" spans="1:38" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="69" t="e">
+        <f>+U14-W14-X14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z14" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="69">
+        <f>4400000*AA14</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="29">
+        <f>ROUND(V14*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="32" t="e">
+        <f>+IF(Y14-Z14-AB14-AC14&gt;0,Y14-Z14-AB14-AC14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE14" s="73" t="e">
+        <f>ROUND(IF(AD14&gt;80000000,AD14*35%-9850000,IF(AD14&gt;52000000,AD14*30%-5850000,IF(AD14&gt;32000000,AD14*25%-3250000,IF(AD14&gt;18000000,AD14*20%-1650000,IF(AD14&gt;10000000,AD14*15%-750000,IF(AD14&gt;5000000,AD14*10%-250000,IF(AD14&gt;0,AD14*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF14" s="33">
+        <f>ROUND(V14*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="29" t="e">
+        <f>ROUND(U14-AC14-AE14-AF14 - AG14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI14" s="69" t="e">
+        <f>AH14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ14" s="74" t="e">
+        <f>IF(AND(AH14&gt;AI14,AI14&gt;0),AH14-AI14,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="74" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM14" s="75"/>
+    </row>
+    <row r="15" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
@@ -7590,27 +7733,27 @@
       <c r="N15" s="78"/>
       <c r="O15" s="78"/>
       <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
       <c r="S15" s="78"/>
       <c r="T15" s="79"/>
       <c r="U15" s="78"/>
       <c r="V15" s="78"/>
       <c r="W15" s="78"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="81"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="82"/>
       <c r="AB15" s="81"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="81"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="83"/>
       <c r="AE15" s="81"/>
       <c r="AF15" s="81"/>
-      <c r="AG15" s="84"/>
+      <c r="AG15" s="81"/>
       <c r="AH15" s="84"/>
       <c r="AI15" s="84"/>
-      <c r="AL15" s="28"/>
-    </row>
-    <row r="16" spans="1:38" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="84"/>
+      <c r="AM15" s="28"/>
+    </row>
+    <row r="16" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="86"/>
       <c r="C16" s="87"/>
@@ -7622,125 +7765,126 @@
         <v>0</v>
       </c>
       <c r="H16" s="39">
-        <f t="shared" ref="H16:AK16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
+        <f t="shared" ref="H16:AL16" si="2">SUMIF($E12:$E15,"",H12:H15)</f>
         <v>0</v>
       </c>
       <c r="I16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39">
-        <f t="shared" ref="P16:Q16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
+        <f t="shared" ref="P16" si="3">SUMIF($E12:$E15,"",P12:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="39">
-        <f ca="1">SUMIF($E12:$E15,"",R12:R14)</f>
-        <v>0</v>
-      </c>
+        <f ca="1">SUMIF($E12:$E15,"",Q12:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="39"/>
       <c r="S16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U16" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA16" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="39" t="e">
-        <f>SUMIF($E12:$E15,"",AC12:AC15)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AD16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUMIF($E12:$E15,"",AD12:AD15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="AH16" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL16" s="88"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK16" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM16" s="88"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
@@ -7778,8 +7922,9 @@
       <c r="AI17" s="63"/>
       <c r="AJ17" s="63"/>
       <c r="AK17" s="63"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL17" s="63"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
       <c r="C18" s="41"/>
@@ -7797,10 +7942,6 @@
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
       <c r="X18" s="63"/>
@@ -7811,67 +7952,80 @@
       <c r="AC18" s="63"/>
       <c r="AD18" s="63"/>
       <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
+      <c r="AF18" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="AG18" s="63"/>
       <c r="AH18" s="63"/>
       <c r="AI18" s="63"/>
       <c r="AJ18" s="63"/>
       <c r="AK18" s="63"/>
-    </row>
-    <row r="19" spans="1:38" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL18" s="63"/>
+    </row>
+    <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46"/>
-      <c r="F19" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="118"/>
+      <c r="F19" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="119"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="K19" s="48"/>
-      <c r="T19" s="47"/>
-      <c r="V19" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="50"/>
-      <c r="AD19" s="51"/>
+      <c r="R19" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="W19" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="50"/>
       <c r="AE19" s="51"/>
       <c r="AF19" s="51"/>
-      <c r="AG19" s="120" t="s">
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AM19" s="52"/>
+    </row>
+    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AL19" s="52"/>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="105"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="K20" s="54"/>
-      <c r="S20" s="44"/>
-      <c r="V20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="AB20" s="44"/>
-      <c r="AD20" s="42"/>
+      <c r="R20" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="W20" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="AC20" s="44"/>
       <c r="AE20" s="42"/>
       <c r="AF20" s="42"/>
-      <c r="AG20" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH20" s="105"/>
-      <c r="AI20" s="105"/>
-      <c r="AJ20" s="105"/>
-    </row>
-    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+    </row>
+    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
@@ -7892,42 +8046,43 @@
       <c r="W21" s="53"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="55"/>
       <c r="AB21" s="53"/>
       <c r="AC21" s="53"/>
-      <c r="AD21" s="56"/>
+      <c r="AD21" s="53"/>
       <c r="AE21" s="56"/>
       <c r="AF21" s="56"/>
-      <c r="AG21" s="53"/>
+      <c r="AG21" s="56"/>
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="53"/>
-      <c r="AL21" s="57"/>
-    </row>
-    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL21" s="53"/>
+      <c r="AM21" s="57"/>
+    </row>
+    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="K22" s="54"/>
-      <c r="Q22" s="53"/>
       <c r="S22" s="44"/>
       <c r="V22" s="53"/>
       <c r="W22" s="53"/>
       <c r="X22" s="53"/>
-      <c r="Y22" s="58"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="42"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="58"/>
+      <c r="AD22" s="44"/>
       <c r="AE22" s="42"/>
       <c r="AF22" s="42"/>
-      <c r="AG22" s="53"/>
+      <c r="AG22" s="42"/>
       <c r="AH22" s="53"/>
       <c r="AI22" s="53"/>
       <c r="AJ22" s="53"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK22" s="53"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="41"/>
@@ -7944,24 +8099,25 @@
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
       <c r="S23" s="42"/>
       <c r="T23" s="16"/>
       <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
+      <c r="V23" s="40"/>
       <c r="W23" s="42"/>
-      <c r="X23" s="44"/>
-      <c r="AB23" s="44"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="44"/>
       <c r="AC23" s="44"/>
       <c r="AD23" s="44"/>
       <c r="AE23" s="44"/>
       <c r="AF23" s="44"/>
-      <c r="AG23" s="4"/>
+      <c r="AG23" s="44"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="4"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="41"/>
@@ -7978,19 +8134,20 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
       <c r="S24" s="42"/>
       <c r="T24" s="16"/>
       <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
+      <c r="V24" s="40"/>
       <c r="W24" s="42"/>
-      <c r="X24" s="59"/>
-      <c r="AG24" s="4"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="59"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="4"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
@@ -8007,17 +8164,17 @@
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="42"/>
       <c r="S25" s="42"/>
       <c r="T25" s="16"/>
       <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
+      <c r="V25" s="40"/>
       <c r="W25" s="42"/>
       <c r="X25" s="42"/>
       <c r="Y25" s="42"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="60"/>
       <c r="AB25" s="42"/>
       <c r="AC25" s="42"/>
       <c r="AD25" s="42"/>
@@ -8026,8 +8183,9 @@
       <c r="AG25" s="42"/>
       <c r="AH25" s="42"/>
       <c r="AI25" s="42"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="42"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -8045,9 +8203,10 @@
       <c r="T26" s="43"/>
       <c r="U26"/>
       <c r="V26"/>
-      <c r="X26" s="59"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W26"/>
+      <c r="Y26" s="59"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
@@ -8065,24 +8224,31 @@
       <c r="T27" s="43"/>
       <c r="U27" s="42"/>
       <c r="V27"/>
-      <c r="X27" s="59"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="X28" s="59"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="W27"/>
+      <c r="Y27" s="59"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="Y28" s="59"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="U30" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:AL11" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}"/>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="AG20:AJ20"/>
-    <mergeCell ref="V19:X19"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="AJ9:AJ10"/>
@@ -8093,11 +8259,7 @@
     <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="P5:W5"/>
-    <mergeCell ref="P6:W6"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180779ED-3062-42FF-92B1-D962EDA0F8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251EFFA3-D09F-4D01-92CE-4CB23B803AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Đông Hòa, ngày 30 tháng 11 năm 2024</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -858,10 +861,28 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,27 +894,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,6 +910,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2396,7 +2399,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,7 +2760,7 @@
       <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="123" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
       <c r="U9" s="106" t="s">
@@ -2778,37 +2781,37 @@
       </c>
       <c r="AA9" s="97"/>
       <c r="AB9" s="97"/>
-      <c r="AC9" s="115" t="s">
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
       <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="107" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="107" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="107" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
       <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="109" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
       <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="111" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="121" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="118" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2850,7 +2853,7 @@
       <c r="Q10" s="103"/>
       <c r="R10" s="106"/>
       <c r="S10" s="104"/>
-      <c r="T10" s="124"/>
+      <c r="T10" s="123"/>
       <c r="U10" s="106"/>
       <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
@@ -2869,17 +2872,17 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="115"/>
+      <c r="AC10" s="124"/>
       <c r="AD10" s="104"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="114"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
       <c r="AH10" s="104"/>
-      <c r="AI10" s="110"/>
+      <c r="AI10" s="116"/>
       <c r="AJ10" s="103"/>
-      <c r="AK10" s="111"/>
-      <c r="AL10" s="122"/>
-      <c r="AM10" s="118"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2980,11 +2983,11 @@
       </c>
     </row>
     <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
@@ -2993,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" ref="H12:AL12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
+        <f t="shared" ref="H12:AJ12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
         <v>0</v>
       </c>
       <c r="I12" s="38">
@@ -3020,16 +3023,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="38"/>
+      <c r="O12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P12" s="38">
-        <f>SUMIF($E13:$E14,$A12,P13:P14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12" s="38">
-        <f ca="1">SUMIF($E13:$E14,$A12,Q14:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3071,11 +3080,11 @@
         <v>0</v>
       </c>
       <c r="AC12" s="38">
-        <f t="shared" ref="AC12" si="1">SUMIF($E13:$E14,$A12,AC13:AC14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD12" s="38">
-        <f>SUMIF($E13:$E14,$A12,AD13:AD14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE12" s="38">
@@ -3103,11 +3112,11 @@
         <v>0</v>
       </c>
       <c r="AK12" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H12:AL12" si="1">SUMIF($E13:$E14,$A12,AK13:AK14)</f>
         <v>0</v>
       </c>
       <c r="AL12" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM12" s="35"/>
@@ -3541,24 +3550,24 @@
     </row>
     <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46"/>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="119"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="K19" s="48"/>
-      <c r="R19" s="120" t="s">
+      <c r="R19" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="W19" s="120" t="s">
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="W19" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
       <c r="AA19" s="49"/>
       <c r="AB19" s="50"/>
       <c r="AE19" s="51"/>
@@ -3711,7 +3720,9 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
-      <c r="Q24" s="42"/>
+      <c r="Q24" s="42" t="s">
+        <v>53</v>
+      </c>
       <c r="R24" s="42"/>
       <c r="S24" s="42"/>
       <c r="T24" s="16"/>
@@ -3764,7 +3775,9 @@
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F26"/>
-      <c r="G26"/>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -3871,11 +3884,11 @@
   </sheetPr>
   <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4236,7 +4249,7 @@
       <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="123" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
       <c r="U9" s="106" t="s">
@@ -4257,37 +4270,37 @@
       </c>
       <c r="AA9" s="97"/>
       <c r="AB9" s="97"/>
-      <c r="AC9" s="115" t="s">
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
       <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="107" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="107" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="107" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
       <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="109" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
       <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="111" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="121" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="118" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4329,7 +4342,7 @@
       <c r="Q10" s="103"/>
       <c r="R10" s="106"/>
       <c r="S10" s="104"/>
-      <c r="T10" s="124"/>
+      <c r="T10" s="123"/>
       <c r="U10" s="106"/>
       <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
@@ -4348,17 +4361,17 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="115"/>
+      <c r="AC10" s="124"/>
       <c r="AD10" s="104"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="114"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
       <c r="AH10" s="104"/>
-      <c r="AI10" s="110"/>
+      <c r="AI10" s="116"/>
       <c r="AJ10" s="103"/>
-      <c r="AK10" s="111"/>
-      <c r="AL10" s="122"/>
-      <c r="AM10" s="118"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -4459,11 +4472,11 @@
       </c>
     </row>
     <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
@@ -4505,10 +4518,13 @@
         <v>0</v>
       </c>
       <c r="Q12" s="38">
-        <f ca="1">SUMIF($E13:$E14,$A12,Q14:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38"/>
+        <f t="shared" ref="Q12:R12" si="1">SUMIF($E13:$E14,$A12,Q13:Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="S12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4676,7 +4692,7 @@
       </c>
       <c r="AK13" s="29"/>
       <c r="AL13" s="34" t="e">
-        <f t="shared" ref="AL13:AL14" si="1">+IF(AE13&gt;0,1,0)</f>
+        <f t="shared" ref="AL13:AL14" si="2">+IF(AE13&gt;0,1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM13" s="61"/>
@@ -4767,7 +4783,7 @@
       </c>
       <c r="AK14" s="69"/>
       <c r="AL14" s="74" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM14" s="75"/>
@@ -4821,36 +4837,36 @@
         <v>0</v>
       </c>
       <c r="H16" s="39">
-        <f t="shared" ref="H16:AL16" si="2">SUMIF($E12:$E15,"",H12:H15)</f>
+        <f t="shared" ref="H16:AL16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
         <v>0</v>
       </c>
       <c r="I16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39">
-        <f t="shared" ref="P16" si="3">SUMIF($E12:$E15,"",P12:P15)</f>
+        <f t="shared" ref="P16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="39">
@@ -4859,47 +4875,47 @@
       </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD16" s="39" t="e">
@@ -4907,35 +4923,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AE16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM16" s="88"/>
@@ -5020,24 +5036,24 @@
     </row>
     <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46"/>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="119"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="K19" s="48"/>
-      <c r="R19" s="120" t="s">
+      <c r="R19" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="W19" s="120" t="s">
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="W19" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
       <c r="AA19" s="49"/>
       <c r="AB19" s="50"/>
       <c r="AE19" s="51"/>
@@ -5297,6 +5313,8 @@
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="R20:U20"/>
     <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
@@ -5312,15 +5330,13 @@
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="P5:X5"/>
     <mergeCell ref="P6:X6"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H9:P9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="Y9:Y10"/>
@@ -5348,10 +5364,10 @@
   <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5712,7 +5728,7 @@
       <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="123" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
       <c r="U9" s="106" t="s">
@@ -5733,37 +5749,37 @@
       </c>
       <c r="AA9" s="97"/>
       <c r="AB9" s="97"/>
-      <c r="AC9" s="115" t="s">
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
       <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="107" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="107" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="107" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
       <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="109" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
       <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="111" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="121" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="118" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5805,7 +5821,7 @@
       <c r="Q10" s="103"/>
       <c r="R10" s="106"/>
       <c r="S10" s="104"/>
-      <c r="T10" s="124"/>
+      <c r="T10" s="123"/>
       <c r="U10" s="106"/>
       <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
@@ -5824,17 +5840,17 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="115"/>
+      <c r="AC10" s="124"/>
       <c r="AD10" s="104"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="114"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
       <c r="AH10" s="104"/>
-      <c r="AI10" s="110"/>
+      <c r="AI10" s="116"/>
       <c r="AJ10" s="103"/>
-      <c r="AK10" s="111"/>
-      <c r="AL10" s="122"/>
-      <c r="AM10" s="118"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -5935,11 +5951,11 @@
       </c>
     </row>
     <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
@@ -5975,16 +5991,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="38"/>
+      <c r="O12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P12" s="38">
-        <f>SUMIF($E13:$E14,$A12,P13:P14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12" s="38">
-        <f ca="1">SUMIF($E13:$E14,$A12,Q14:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6030,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="38">
-        <f>SUMIF($E13:$E14,$A12,AD13:AD14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE12" s="38">
@@ -6496,24 +6518,24 @@
     </row>
     <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46"/>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="119"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="K19" s="48"/>
-      <c r="R19" s="120" t="s">
+      <c r="R19" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="W19" s="120" t="s">
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="W19" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
       <c r="AA19" s="49"/>
       <c r="AB19" s="50"/>
       <c r="AE19" s="51"/>
@@ -6778,6 +6800,11 @@
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A12:C12"/>
@@ -6794,18 +6821,13 @@
     <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6815,11 +6837,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
   <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="T12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="W29" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7180,7 +7202,7 @@
       <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="123" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
       <c r="U9" s="106" t="s">
@@ -7201,37 +7223,37 @@
       </c>
       <c r="AA9" s="97"/>
       <c r="AB9" s="97"/>
-      <c r="AC9" s="115" t="s">
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
       <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="107" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="107" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="107" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
       <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="109" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
       <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="111" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="121" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="118" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7273,7 +7295,7 @@
       <c r="Q10" s="103"/>
       <c r="R10" s="106"/>
       <c r="S10" s="104"/>
-      <c r="T10" s="124"/>
+      <c r="T10" s="123"/>
       <c r="U10" s="106"/>
       <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
@@ -7292,17 +7314,17 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="115"/>
+      <c r="AC10" s="124"/>
       <c r="AD10" s="104"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="114"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
       <c r="AH10" s="104"/>
-      <c r="AI10" s="110"/>
+      <c r="AI10" s="116"/>
       <c r="AJ10" s="103"/>
-      <c r="AK10" s="111"/>
-      <c r="AL10" s="122"/>
-      <c r="AM10" s="118"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -7403,11 +7425,11 @@
       </c>
     </row>
     <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
       <c r="F12" s="37"/>
@@ -7416,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" ref="H12:AL12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
+        <f t="shared" ref="H12:AJ12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
         <v>0</v>
       </c>
       <c r="I12" s="38">
@@ -7443,16 +7465,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="38"/>
+      <c r="O12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P12" s="38">
-        <f>SUMIF($E13:$E14,$A12,P13:P14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12" s="38">
-        <f ca="1">SUMIF($E13:$E14,$A12,Q14:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7498,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="38">
-        <f>SUMIF($E13:$E14,$A12,AD13:AD14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE12" s="38">
@@ -7526,11 +7554,11 @@
         <v>0</v>
       </c>
       <c r="AK12" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AK12:AL12" si="1">SUMIF($E13:$E14,$A12,AK13:AK14)</f>
         <v>0</v>
       </c>
       <c r="AL12" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AM12" s="35"/>
@@ -7620,7 +7648,7 @@
       </c>
       <c r="AK13" s="29"/>
       <c r="AL13" s="34" t="e">
-        <f t="shared" ref="AL13:AL14" si="1">+IF(AE13&gt;0,1,0)</f>
+        <f t="shared" ref="AL13:AL14" si="2">+IF(AE13&gt;0,1,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM13" s="61"/>
@@ -7711,7 +7739,7 @@
       </c>
       <c r="AK14" s="69"/>
       <c r="AL14" s="74" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM14" s="75"/>
@@ -7765,36 +7793,36 @@
         <v>0</v>
       </c>
       <c r="H16" s="39">
-        <f t="shared" ref="H16:AL16" si="2">SUMIF($E12:$E15,"",H12:H15)</f>
+        <f t="shared" ref="H16:AL16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
         <v>0</v>
       </c>
       <c r="I16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39">
-        <f t="shared" ref="P16" si="3">SUMIF($E12:$E15,"",P12:P15)</f>
+        <f t="shared" ref="P16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="39">
@@ -7803,47 +7831,47 @@
       </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD16" s="39" t="e">
@@ -7851,35 +7879,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AE16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AK16" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL16" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM16" s="88"/>
@@ -7964,24 +7992,24 @@
     </row>
     <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="46"/>
-      <c r="F19" s="119" t="s">
+      <c r="F19" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="119"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="K19" s="48"/>
-      <c r="R19" s="120" t="s">
+      <c r="R19" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="W19" s="120" t="s">
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="W19" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
       <c r="AA19" s="49"/>
       <c r="AB19" s="50"/>
       <c r="AE19" s="51"/>
@@ -8246,6 +8274,11 @@
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A12:C12"/>
@@ -8262,18 +8295,13 @@
     <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251EFFA3-D09F-4D01-92CE-4CB23B803AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE355D52-792D-4864-B594-A7FCAB35E185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dịch vụ'!$A$11:$AL$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Học việc,thử việc'!$A$11:$AL$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Nhân viên'!$A$11:$AJ$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tất cả'!$A$11:$AM$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tất cả'!$A$11:$AM$13</definedName>
     <definedName name="bangluong" localSheetId="1">'Nhân viên'!$A$9:$AE$14</definedName>
-    <definedName name="bangluong" localSheetId="0">'Tất cả'!$A$9:$AH$14</definedName>
+    <definedName name="bangluong" localSheetId="0">'Tất cả'!$A$9:$AH$13</definedName>
     <definedName name="bangluong">'[1]BẢNG LƯƠNG T10.2022'!$A$10:$AA$20</definedName>
     <definedName name="BANGLUONGNB" localSheetId="1">#REF!</definedName>
     <definedName name="BANGLUONGNB" localSheetId="0">#REF!</definedName>
@@ -38,7 +38,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Nhân viên'!$A$1:$AG$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tất cả'!$A$1:$AJ$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tất cả'!$A$1:$AJ$19</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Nhân viên'!$9:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tất cả'!$9:$10</definedName>
   </definedNames>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>Đông Hòa, ngày 30 tháng 11 năm 2024</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -819,6 +816,75 @@
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,12 +897,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,73 +906,10 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2393,13 +2390,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,17 +2495,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -2537,17 +2534,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -2570,8 +2567,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2599,230 +2596,112 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>1</v>
-      </c>
-      <c r="B8" s="19">
-        <v>2</v>
-      </c>
-      <c r="C8" s="19">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19">
-        <v>6</v>
-      </c>
-      <c r="G8" s="19">
+    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="19">
+      <c r="D9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="19">
+      <c r="E9" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="19">
+      <c r="G9" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="19">
+      <c r="H9" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="19">
-        <v>12</v>
-      </c>
-      <c r="M8" s="19">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="19">
+      <c r="R9" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="19">
-        <v>15</v>
-      </c>
-      <c r="P8" s="19">
+      <c r="T9" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="X9" s="110"/>
+      <c r="Y9" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="19">
+      <c r="Z9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="19">
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="19">
+      <c r="AE9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="19">
+      <c r="AF9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="19">
+      <c r="AG9" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="19">
+      <c r="AI9" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="X8" s="19">
+      <c r="AJ9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="AK9" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AL9" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AM9" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="19">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>29</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="19">
-        <v>31</v>
-      </c>
-      <c r="AF8" s="19">
-        <v>32</v>
-      </c>
-      <c r="AG8" s="19">
-        <v>33</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>34</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>36</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>37</v>
-      </c>
-      <c r="AL8" s="19">
-        <v>38</v>
-      </c>
-      <c r="AM8" s="19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="102" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="122" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD9" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE9" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG9" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH9" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI9" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ9" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK9" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL9" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM9" s="111" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -2850,19 +2729,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="99"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -2872,281 +2751,274 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>9</v>
-      </c>
-      <c r="I11" s="3">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3">
-        <v>12</v>
-      </c>
-      <c r="L11" s="3">
-        <v>13</v>
-      </c>
-      <c r="M11" s="3">
-        <v>14</v>
-      </c>
-      <c r="P11" s="3">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>17</v>
-      </c>
-      <c r="S11" s="3">
-        <v>18</v>
-      </c>
-      <c r="U11" s="3">
-        <v>20</v>
-      </c>
-      <c r="V11" s="3">
-        <v>8</v>
-      </c>
-      <c r="W11" s="3">
-        <v>21</v>
-      </c>
-      <c r="X11" s="3">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>23</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>24</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>26</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>27</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>29</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>30</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>31</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>32</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>33</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>34</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>35</v>
-      </c>
-      <c r="AM11" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="108"/>
+    </row>
+    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38">
-        <f>SUMIF($E13:$E14,$A12,G13:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="38">
-        <f t="shared" ref="H12:AJ12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="38">
-        <f t="shared" ref="H12:AL12" si="1">SUMIF($E13:$E14,$A12,AK13:AK14)</f>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="38">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
+        <f>SUMIF($E12:$E13,$A11,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" ref="H11:AJ11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="38">
+        <f t="shared" ref="AK11:AL11" si="1">SUMIF($E12:$E13,$A11,AK12:AK13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM12" s="35"/>
+      <c r="AM11" s="35"/>
+    </row>
+    <row r="12" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="91">
+        <f>SUM(H12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <f>G12+P12+Q12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="28"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31" t="e">
+        <f>ROUND((R12/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="29">
+        <f>+G12+N12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="62">
+        <v>0</v>
+      </c>
+      <c r="X12" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="90" t="e">
+        <f>+U12-W12-X12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="29">
+        <f>4400000*AA12</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="29">
+        <f>ROUND(V12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="32" t="e">
+        <f>+IF(Y12-Z12-AB12-AC12&gt;0,Y12-Z12-AB12-AC12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="33" t="e">
+        <f>ROUND(IF(AD12&gt;80000000,AD12*35%-9850000,IF(AD12&gt;52000000,AD12*30%-5850000,IF(AD12&gt;32000000,AD12*25%-3250000,IF(AD12&gt;18000000,AD12*20%-1650000,IF(AD12&gt;10000000,AD12*15%-750000,IF(AD12&gt;5000000,AD12*10%-250000,IF(AD12&gt;0,AD12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" s="33">
+        <f>ROUND(V12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="29" t="e">
+        <f>ROUND(U12-AC12-AE12-AF12 - AG12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="29" t="e">
+        <f>AH12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="34" t="e">
+        <f>IF(AND(AH12&gt;AI12,AI12&gt;0),AH12-AI12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="34" t="e">
+        <f t="shared" ref="AL12:AL13" si="2">+IF(AE12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM12" s="61"/>
     </row>
     <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
       <c r="P13" s="91">
         <f>SUM(H13:O13)</f>
         <v>0</v>
       </c>
+      <c r="Q13" s="29"/>
       <c r="R13" s="29">
         <f>G13+P13+Q13</f>
         <v>0</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="30"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="70"/>
       <c r="U13" s="31" t="e">
         <f>ROUND((R13/F13*S13)+T13,0)</f>
         <v>#DIV/0!</v>
@@ -3155,23 +3027,23 @@
         <f>+G13+N13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="62">
-        <v>0</v>
-      </c>
-      <c r="X13" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="90" t="e">
+      <c r="W13" s="72">
+        <v>0</v>
+      </c>
+      <c r="X13" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="69" t="e">
         <f>+U13-W13-X13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
-      <c r="AA13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="29">
+      <c r="AA13" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="69">
         <f>4400000*AA13</f>
         <v>0</v>
       </c>
@@ -3183,7 +3055,7 @@
         <f>+IF(Y13-Z13-AB13-AC13&gt;0,Y13-Z13-AB13-AC13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE13" s="33" t="e">
+      <c r="AE13" s="73" t="e">
         <f>ROUND(IF(AD13&gt;80000000,AD13*35%-9850000,IF(AD13&gt;52000000,AD13*30%-5850000,IF(AD13&gt;32000000,AD13*25%-3250000,IF(AD13&gt;18000000,AD13*20%-1650000,IF(AD13&gt;10000000,AD13*15%-750000,IF(AD13&gt;5000000,AD13*10%-250000,IF(AD13&gt;0,AD13*5%,0))))))),0)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3191,284 +3063,233 @@
         <f>ROUND(V13*1%,0)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="33"/>
+      <c r="AG13" s="73"/>
       <c r="AH13" s="29" t="e">
         <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI13" s="29" t="e">
+      <c r="AI13" s="69" t="e">
         <f>AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="34" t="e">
+      <c r="AJ13" s="74" t="e">
         <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="34" t="e">
-        <f t="shared" ref="AL13:AL14" si="2">+IF(AE13&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM13" s="61"/>
-    </row>
-    <row r="14" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="91">
-        <f>SUM(H14:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29">
-        <f>G14+P14+Q14</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="68"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="31" t="e">
-        <f>ROUND((R14/F14*S14)+T14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="29">
-        <f>+G14+N14</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="72">
-        <v>0</v>
-      </c>
-      <c r="X14" s="72">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="69" t="e">
-        <f>+U14-W14-X14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z14" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="71">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="69">
-        <f>4400000*AA14</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="29">
-        <f>ROUND(V14*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="32" t="e">
-        <f>+IF(Y14-Z14-AB14-AC14&gt;0,Y14-Z14-AB14-AC14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="73" t="e">
-        <f>ROUND(IF(AD14&gt;80000000,AD14*35%-9850000,IF(AD14&gt;52000000,AD14*30%-5850000,IF(AD14&gt;32000000,AD14*25%-3250000,IF(AD14&gt;18000000,AD14*20%-1650000,IF(AD14&gt;10000000,AD14*15%-750000,IF(AD14&gt;5000000,AD14*10%-250000,IF(AD14&gt;0,AD14*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF14" s="33">
-        <f>ROUND(V14*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="29" t="e">
-        <f>ROUND(U14-AC14-AE14-AF14 - AG14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="69" t="e">
-        <f>AH14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="74" t="e">
-        <f>IF(AND(AH14&gt;AI14,AI14&gt;0),AH14-AI14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM14" s="75"/>
-    </row>
-    <row r="15" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AM15" s="28"/>
-    </row>
-    <row r="16" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="39">
-        <f>SUMIF($E12:$E15,"",G12:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="39">
-        <f t="shared" ref="H16:AL16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="39">
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" s="75"/>
+    </row>
+    <row r="14" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AM14" s="28"/>
+    </row>
+    <row r="15" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="39">
+        <f>SUMIF($E11:$E14,"",G11:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="39">
+        <f t="shared" ref="H15:AL15" si="3">SUMIF($E11:$E14,"",H11:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39">
-        <f t="shared" ref="P16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="39">
-        <f ca="1">SUMIF($E12:$E15,"",Q12:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39">
+      <c r="O15" s="39"/>
+      <c r="P15" s="39">
+        <f t="shared" ref="P15" si="4">SUMIF($E11:$E14,"",P11:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="39">
+        <f ca="1">SUMIF($E11:$E14,"",Q11:Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T16" s="39">
+      <c r="T15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U16" s="39" t="e">
+      <c r="U15" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V16" s="39">
+      <c r="V15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W16" s="39">
+      <c r="W15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X16" s="39">
+      <c r="X15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="39" t="e">
+      <c r="Y15" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z16" s="39">
+      <c r="Z15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="39">
+      <c r="AA15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="39">
+      <c r="AB15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="39">
-        <f t="shared" ref="AC16" si="5">SUMIF($E12:$E15,"",AC12:AC15)</f>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="39" t="e">
-        <f>SUMIF($E12:$E15,"",AD12:AD15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="39" t="e">
+      <c r="AC15" s="39">
+        <f t="shared" ref="AC15" si="5">SUMIF($E11:$E14,"",AC11:AC14)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="39" t="e">
+        <f>SUMIF($E11:$E14,"",AD11:AD14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE15" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF16" s="39">
+      <c r="AF15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="39">
+      <c r="AG15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="39" t="e">
+      <c r="AH15" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI16" s="39" t="e">
+      <c r="AI15" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ16" s="39" t="e">
+      <c r="AJ15" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK16" s="39">
+      <c r="AK15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="39" t="e">
+      <c r="AL15" s="39" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM16" s="88"/>
+      <c r="AM15" s="88"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -3488,10 +3309,6 @@
       <c r="O17" s="63"/>
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
       <c r="V17" s="63"/>
       <c r="W17" s="63"/>
       <c r="X17" s="63"/>
@@ -3502,7 +3319,9 @@
       <c r="AC17" s="63"/>
       <c r="AD17" s="63"/>
       <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="AF17" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="AG17" s="63"/>
       <c r="AH17" s="63"/>
       <c r="AI17" s="63"/>
@@ -3510,163 +3329,160 @@
       <c r="AK17" s="63"/>
       <c r="AL17" s="63"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-    </row>
-    <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="46"/>
-      <c r="F19" s="118" t="s">
+    <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="46"/>
+      <c r="F18" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="R19" s="119" t="s">
+      <c r="G18" s="93"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="R18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="W19" s="119" t="s">
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="W18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="50"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="92" t="s">
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="50"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="92"/>
-      <c r="AM19" s="52"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AM18" s="52"/>
+    </row>
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="116"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="54"/>
+      <c r="R19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="W19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="AC19" s="44"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
     </row>
     <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="K20" s="54"/>
-      <c r="R20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="W20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="AC20" s="44"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="57"/>
     </row>
     <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="K21" s="54"/>
+      <c r="S21" s="44"/>
       <c r="V21" s="53"/>
       <c r="W21" s="53"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
+      <c r="Z21" s="58"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="57"/>
-    </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="K22" s="54"/>
-      <c r="S22" s="44"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="58"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="44"/>
+      <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -3693,12 +3509,7 @@
       <c r="V23" s="40"/>
       <c r="W23" s="42"/>
       <c r="X23" s="42"/>
-      <c r="Y23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
+      <c r="Y23" s="59"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
@@ -3720,9 +3531,7 @@
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
-      <c r="Q24" s="42" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
       <c r="S24" s="42"/>
       <c r="T24" s="16"/>
@@ -3730,54 +3539,43 @@
       <c r="V24" s="40"/>
       <c r="W24" s="42"/>
       <c r="X24" s="42"/>
-      <c r="Y24" s="59"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25" s="43"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="Y25" s="59"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F26"/>
-      <c r="G26" t="s">
-        <v>53</v>
-      </c>
+      <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -3791,51 +3589,36 @@
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26" s="43"/>
-      <c r="U26"/>
+      <c r="U26" s="42"/>
       <c r="V26"/>
       <c r="W26"/>
       <c r="Y26" s="59"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="42"/>
-      <c r="V27"/>
-      <c r="W27"/>
       <c r="Y27" s="59"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="Y28" s="59"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="U30" s="44"/>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:AM14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="38">
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="V9:V10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="AG9:AG10"/>
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="W9:X9"/>
@@ -3848,28 +3631,21 @@
     <mergeCell ref="AI9:AI10"/>
     <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="AC9:AC10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="20" max="33" man="1"/>
+    <brk id="19" max="33" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="36" max="66" man="1"/>
@@ -3882,13 +3658,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3987,17 +3763,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -4026,17 +3802,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -4059,8 +3835,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4088,230 +3864,112 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>1</v>
-      </c>
-      <c r="B8" s="19">
-        <v>2</v>
-      </c>
-      <c r="C8" s="19">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19">
-        <v>6</v>
-      </c>
-      <c r="G8" s="19">
+    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="19">
+      <c r="D9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="19">
+      <c r="E9" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="19">
+      <c r="G9" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="19">
+      <c r="H9" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="19">
-        <v>12</v>
-      </c>
-      <c r="M8" s="19">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="19">
+      <c r="R9" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="19">
-        <v>15</v>
-      </c>
-      <c r="P8" s="19">
+      <c r="T9" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="X9" s="110"/>
+      <c r="Y9" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="19">
+      <c r="Z9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="19">
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="19">
+      <c r="AE9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="19">
+      <c r="AF9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="19">
+      <c r="AG9" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="19">
+      <c r="AI9" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="X8" s="19">
+      <c r="AJ9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="AK9" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AL9" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AM9" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="19">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>29</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="19">
-        <v>31</v>
-      </c>
-      <c r="AF8" s="19">
-        <v>32</v>
-      </c>
-      <c r="AG8" s="19">
-        <v>33</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>34</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>36</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>37</v>
-      </c>
-      <c r="AL8" s="19">
-        <v>38</v>
-      </c>
-      <c r="AM8" s="19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="102" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="122" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD9" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE9" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG9" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH9" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI9" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ9" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK9" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL9" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM9" s="111" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -4339,19 +3997,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="99"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -4361,278 +4019,274 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>9</v>
-      </c>
-      <c r="I11" s="3">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3">
-        <v>12</v>
-      </c>
-      <c r="L11" s="3">
-        <v>13</v>
-      </c>
-      <c r="M11" s="3">
-        <v>14</v>
-      </c>
-      <c r="P11" s="3">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>17</v>
-      </c>
-      <c r="S11" s="3">
-        <v>18</v>
-      </c>
-      <c r="U11" s="3">
-        <v>20</v>
-      </c>
-      <c r="V11" s="3">
-        <v>8</v>
-      </c>
-      <c r="W11" s="3">
-        <v>21</v>
-      </c>
-      <c r="X11" s="3">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>23</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>24</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>26</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>27</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>29</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>30</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>31</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>32</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>33</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>34</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>35</v>
-      </c>
-      <c r="AM11" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="108"/>
+    </row>
+    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38">
-        <f>SUMIF($E13:$E14,$A12,G13:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="38">
-        <f t="shared" ref="H12:AL12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38">
-        <f>SUMIF($E13:$E14,$A12,P13:P14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="38">
-        <f t="shared" ref="Q12:R12" si="1">SUMIF($E13:$E14,$A12,Q13:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="38">
-        <f>SUMIF($E13:$E14,$A12,AD13:AD14)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="35"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
+        <f>SUMIF($E12:$E13,$A11,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" ref="H11:AL11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="35"/>
+    </row>
+    <row r="12" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="91">
+        <f>SUM(H12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <f>G12+P12+Q12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="28"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31" t="e">
+        <f>ROUND((R12/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="29">
+        <f>+G12+N12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="62">
+        <v>0</v>
+      </c>
+      <c r="X12" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="90" t="e">
+        <f>+U12-W12-X12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="29">
+        <f>4400000*AA12</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="29">
+        <f>ROUND(V12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="32" t="e">
+        <f>+IF(Y12-Z12-AB12-AC12&gt;0,Y12-Z12-AB12-AC12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="33" t="e">
+        <f>ROUND(IF(AD12&gt;80000000,AD12*35%-9850000,IF(AD12&gt;52000000,AD12*30%-5850000,IF(AD12&gt;32000000,AD12*25%-3250000,IF(AD12&gt;18000000,AD12*20%-1650000,IF(AD12&gt;10000000,AD12*15%-750000,IF(AD12&gt;5000000,AD12*10%-250000,IF(AD12&gt;0,AD12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" s="33">
+        <f>ROUND(V12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="29" t="e">
+        <f>ROUND(U12-AC12-AE12-AF12 - AG12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="29" t="e">
+        <f>AH12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="34" t="e">
+        <f>IF(AND(AH12&gt;AI12,AI12&gt;0),AH12-AI12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="34" t="e">
+        <f t="shared" ref="AL12:AL13" si="1">+IF(AE12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM12" s="61"/>
     </row>
     <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
       <c r="P13" s="91">
         <f>SUM(H13:O13)</f>
         <v>0</v>
       </c>
+      <c r="Q13" s="29"/>
       <c r="R13" s="29">
         <f>G13+P13+Q13</f>
         <v>0</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="30"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="70"/>
       <c r="U13" s="31" t="e">
         <f>ROUND((R13/F13*S13)+T13,0)</f>
         <v>#DIV/0!</v>
@@ -4641,23 +4295,23 @@
         <f>+G13+N13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="62">
-        <v>0</v>
-      </c>
-      <c r="X13" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="90" t="e">
+      <c r="W13" s="72">
+        <v>0</v>
+      </c>
+      <c r="X13" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="69" t="e">
         <f>+U13-W13-X13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
-      <c r="AA13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="29">
+      <c r="AA13" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="69">
         <f>4400000*AA13</f>
         <v>0</v>
       </c>
@@ -4669,7 +4323,7 @@
         <f>+IF(Y13-Z13-AB13-AC13&gt;0,Y13-Z13-AB13-AC13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE13" s="33" t="e">
+      <c r="AE13" s="73" t="e">
         <f>ROUND(IF(AD13&gt;80000000,AD13*35%-9850000,IF(AD13&gt;52000000,AD13*30%-5850000,IF(AD13&gt;32000000,AD13*25%-3250000,IF(AD13&gt;18000000,AD13*20%-1650000,IF(AD13&gt;10000000,AD13*15%-750000,IF(AD13&gt;5000000,AD13*10%-250000,IF(AD13&gt;0,AD13*5%,0))))))),0)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4677,284 +4331,233 @@
         <f>ROUND(V13*1%,0)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="33"/>
+      <c r="AG13" s="73"/>
       <c r="AH13" s="29" t="e">
         <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI13" s="29" t="e">
+      <c r="AI13" s="69" t="e">
         <f>AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="34" t="e">
+      <c r="AJ13" s="74" t="e">
         <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="34" t="e">
-        <f t="shared" ref="AL13:AL14" si="2">+IF(AE13&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM13" s="61"/>
-    </row>
-    <row r="14" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="91">
-        <f>SUM(H14:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29">
-        <f>G14+P14+Q14</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="68"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="31" t="e">
-        <f>ROUND((R14/F14*S14)+T14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="29">
-        <f>+G14+N14</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="72">
-        <v>0</v>
-      </c>
-      <c r="X14" s="72">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="69" t="e">
-        <f>+U14-W14-X14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z14" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="71">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="69">
-        <f>4400000*AA14</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="29">
-        <f>ROUND(V14*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="32" t="e">
-        <f>+IF(Y14-Z14-AB14-AC14&gt;0,Y14-Z14-AB14-AC14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="73" t="e">
-        <f>ROUND(IF(AD14&gt;80000000,AD14*35%-9850000,IF(AD14&gt;52000000,AD14*30%-5850000,IF(AD14&gt;32000000,AD14*25%-3250000,IF(AD14&gt;18000000,AD14*20%-1650000,IF(AD14&gt;10000000,AD14*15%-750000,IF(AD14&gt;5000000,AD14*10%-250000,IF(AD14&gt;0,AD14*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF14" s="33">
-        <f>ROUND(V14*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="29" t="e">
-        <f>ROUND(U14-AC14-AE14-AF14 - AG14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="69" t="e">
-        <f>AH14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="74" t="e">
-        <f>IF(AND(AH14&gt;AI14,AI14&gt;0),AH14-AI14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM14" s="75"/>
-    </row>
-    <row r="15" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AM15" s="28"/>
-    </row>
-    <row r="16" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="39">
-        <f>SUMIF($E12:$E15,"",G12:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="39">
-        <f t="shared" ref="H16:AL16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39">
-        <f t="shared" ref="P16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="39">
-        <f ca="1">SUMIF($E12:$E15,"",Q12:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="39" t="e">
-        <f>SUMIF($E12:$E15,"",AD12:AD15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM16" s="88"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="74" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" s="75"/>
+    </row>
+    <row r="14" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AM14" s="28"/>
+    </row>
+    <row r="15" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="39">
+        <f>SUMIF($E11:$E14,"",G11:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="39">
+        <f t="shared" ref="H15:AL15" si="2">SUMIF($E11:$E14,"",H11:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39">
+        <f t="shared" ref="P15" si="3">SUMIF($E11:$E14,"",P11:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="39">
+        <f ca="1">SUMIF($E11:$E14,"",Q11:Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="39" t="e">
+        <f>SUMIF($E11:$E14,"",AD11:AD14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM15" s="88"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -4974,10 +4577,6 @@
       <c r="O17" s="63"/>
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
       <c r="V17" s="63"/>
       <c r="W17" s="63"/>
       <c r="X17" s="63"/>
@@ -4988,7 +4587,9 @@
       <c r="AC17" s="63"/>
       <c r="AD17" s="63"/>
       <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="AF17" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="AG17" s="63"/>
       <c r="AH17" s="63"/>
       <c r="AI17" s="63"/>
@@ -4996,163 +4597,160 @@
       <c r="AK17" s="63"/>
       <c r="AL17" s="63"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-    </row>
-    <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="46"/>
-      <c r="F19" s="118" t="s">
+    <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="46"/>
+      <c r="F18" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="R19" s="119" t="s">
+      <c r="G18" s="93"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="R18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="W19" s="119" t="s">
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="W18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="50"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="92" t="s">
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="50"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="92"/>
-      <c r="AM19" s="52"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AM18" s="52"/>
+    </row>
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="116"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="54"/>
+      <c r="R19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="W19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="AC19" s="44"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
     </row>
     <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="K20" s="54"/>
-      <c r="R20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="W20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="AC20" s="44"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="57"/>
     </row>
     <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="K21" s="54"/>
+      <c r="S21" s="44"/>
       <c r="V21" s="53"/>
       <c r="W21" s="53"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
+      <c r="Z21" s="58"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="57"/>
-    </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="K22" s="54"/>
-      <c r="S22" s="44"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="58"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="44"/>
+      <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -5179,12 +4777,7 @@
       <c r="V23" s="40"/>
       <c r="W23" s="42"/>
       <c r="X23" s="42"/>
-      <c r="Y23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
+      <c r="Y23" s="59"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
@@ -5214,48 +4807,39 @@
       <c r="V24" s="40"/>
       <c r="W24" s="42"/>
       <c r="X24" s="42"/>
-      <c r="Y24" s="59"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25" s="43"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="Y25" s="59"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F26"/>
@@ -5273,51 +4857,39 @@
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26" s="43"/>
-      <c r="U26"/>
+      <c r="U26" s="42"/>
       <c r="V26"/>
       <c r="W26"/>
       <c r="Y26" s="59"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="42"/>
-      <c r="V27"/>
-      <c r="W27"/>
       <c r="Y27" s="59"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="Y28" s="59"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="U30" s="44"/>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:AJ14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="38">
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="AI9:AI10"/>
@@ -5331,21 +4903,11 @@
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -5361,13 +4923,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,17 +5028,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -5505,17 +5067,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -5538,8 +5100,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5567,230 +5129,112 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>1</v>
-      </c>
-      <c r="B8" s="19">
-        <v>2</v>
-      </c>
-      <c r="C8" s="19">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19">
-        <v>6</v>
-      </c>
-      <c r="G8" s="19">
+    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="19">
+      <c r="D9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="19">
+      <c r="E9" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="19">
+      <c r="G9" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="19">
+      <c r="H9" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="19">
-        <v>12</v>
-      </c>
-      <c r="M8" s="19">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="19">
+      <c r="R9" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="19">
-        <v>15</v>
-      </c>
-      <c r="P8" s="19">
+      <c r="T9" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="X9" s="110"/>
+      <c r="Y9" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="19">
+      <c r="Z9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="19">
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="19">
+      <c r="AE9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="19">
+      <c r="AF9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="19">
+      <c r="AG9" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="19">
+      <c r="AI9" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="X8" s="19">
+      <c r="AJ9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="AK9" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AL9" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AM9" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="19">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>29</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="19">
-        <v>31</v>
-      </c>
-      <c r="AF8" s="19">
-        <v>32</v>
-      </c>
-      <c r="AG8" s="19">
-        <v>33</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>34</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>36</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>37</v>
-      </c>
-      <c r="AL8" s="19">
-        <v>38</v>
-      </c>
-      <c r="AM8" s="19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="102" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="122" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD9" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE9" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG9" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH9" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI9" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ9" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK9" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL9" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM9" s="111" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -5818,19 +5262,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="99"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -5840,281 +5284,274 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>9</v>
-      </c>
-      <c r="I11" s="3">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3">
-        <v>12</v>
-      </c>
-      <c r="L11" s="3">
-        <v>13</v>
-      </c>
-      <c r="M11" s="3">
-        <v>14</v>
-      </c>
-      <c r="P11" s="3">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>17</v>
-      </c>
-      <c r="S11" s="3">
-        <v>18</v>
-      </c>
-      <c r="U11" s="3">
-        <v>20</v>
-      </c>
-      <c r="V11" s="3">
-        <v>8</v>
-      </c>
-      <c r="W11" s="3">
-        <v>21</v>
-      </c>
-      <c r="X11" s="3">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>23</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>24</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>26</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>27</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>29</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>30</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>31</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>32</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>33</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>34</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>35</v>
-      </c>
-      <c r="AM11" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="108"/>
+    </row>
+    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38">
-        <f>SUMIF($E13:$E14,$A12,G13:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="38">
-        <f t="shared" ref="H12:AL12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="35"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
+        <f>SUMIF($E12:$E13,$A11,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" ref="H11:AL11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="35"/>
+    </row>
+    <row r="12" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="91">
+        <f>SUM(H12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <f>G12+P12+Q12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="28"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31" t="e">
+        <f>ROUND((R12/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="29">
+        <f>+G12+N12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="62">
+        <v>0</v>
+      </c>
+      <c r="X12" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="90" t="e">
+        <f>+U12-W12-X12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="29">
+        <f>4400000*AA12</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="29">
+        <f>ROUND(V12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="32" t="e">
+        <f>+IF(Y12-Z12-AB12-AC12&gt;0,Y12-Z12-AB12-AC12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="33" t="e">
+        <f>ROUND(IF(AD12&gt;80000000,AD12*35%-9850000,IF(AD12&gt;52000000,AD12*30%-5850000,IF(AD12&gt;32000000,AD12*25%-3250000,IF(AD12&gt;18000000,AD12*20%-1650000,IF(AD12&gt;10000000,AD12*15%-750000,IF(AD12&gt;5000000,AD12*10%-250000,IF(AD12&gt;0,AD12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" s="33">
+        <f>ROUND(V12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="29" t="e">
+        <f>ROUND(U12-AC12-AE12-AF12 - AG12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="29" t="e">
+        <f>AH12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="34" t="e">
+        <f>IF(AND(AH12&gt;AI12,AI12&gt;0),AH12-AI12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="34" t="e">
+        <f t="shared" ref="AL12:AL13" si="1">+IF(AE12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM12" s="61"/>
     </row>
     <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
       <c r="P13" s="91">
         <f>SUM(H13:O13)</f>
         <v>0</v>
       </c>
+      <c r="Q13" s="29"/>
       <c r="R13" s="29">
         <f>G13+P13+Q13</f>
         <v>0</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="30"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="70"/>
       <c r="U13" s="31" t="e">
         <f>ROUND((R13/F13*S13)+T13,0)</f>
         <v>#DIV/0!</v>
@@ -6123,23 +5560,23 @@
         <f>+G13+N13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="62">
-        <v>0</v>
-      </c>
-      <c r="X13" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="90" t="e">
+      <c r="W13" s="72">
+        <v>0</v>
+      </c>
+      <c r="X13" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="69" t="e">
         <f>+U13-W13-X13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
-      <c r="AA13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="29">
+      <c r="AA13" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="69">
         <f>4400000*AA13</f>
         <v>0</v>
       </c>
@@ -6151,7 +5588,7 @@
         <f>+IF(Y13-Z13-AB13-AC13&gt;0,Y13-Z13-AB13-AC13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE13" s="33" t="e">
+      <c r="AE13" s="73" t="e">
         <f>ROUND(IF(AD13&gt;80000000,AD13*35%-9850000,IF(AD13&gt;52000000,AD13*30%-5850000,IF(AD13&gt;32000000,AD13*25%-3250000,IF(AD13&gt;18000000,AD13*20%-1650000,IF(AD13&gt;10000000,AD13*15%-750000,IF(AD13&gt;5000000,AD13*10%-250000,IF(AD13&gt;0,AD13*5%,0))))))),0)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6159,284 +5596,233 @@
         <f>ROUND(V13*1%,0)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="33"/>
+      <c r="AG13" s="73"/>
       <c r="AH13" s="29" t="e">
         <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI13" s="29" t="e">
+      <c r="AI13" s="69" t="e">
         <f>AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="34" t="e">
+      <c r="AJ13" s="74" t="e">
         <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="34" t="e">
-        <f t="shared" ref="AL13:AL14" si="1">+IF(AE13&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM13" s="61"/>
-    </row>
-    <row r="14" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="91">
-        <f>SUM(H14:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29">
-        <f>G14+P14+Q14</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="68"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="31" t="e">
-        <f>ROUND((R14/F14*S14)+T14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="29">
-        <f>+G14+N14</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="72">
-        <v>0</v>
-      </c>
-      <c r="X14" s="72">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="69" t="e">
-        <f>+U14-W14-X14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z14" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="71">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="69">
-        <f>4400000*AA14</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="29">
-        <f>ROUND(V14*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="32" t="e">
-        <f>+IF(Y14-Z14-AB14-AC14&gt;0,Y14-Z14-AB14-AC14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="73" t="e">
-        <f>ROUND(IF(AD14&gt;80000000,AD14*35%-9850000,IF(AD14&gt;52000000,AD14*30%-5850000,IF(AD14&gt;32000000,AD14*25%-3250000,IF(AD14&gt;18000000,AD14*20%-1650000,IF(AD14&gt;10000000,AD14*15%-750000,IF(AD14&gt;5000000,AD14*10%-250000,IF(AD14&gt;0,AD14*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF14" s="33">
-        <f>ROUND(V14*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="29" t="e">
-        <f>ROUND(U14-AC14-AE14-AF14 - AG14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="69" t="e">
-        <f>AH14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="74" t="e">
-        <f>IF(AND(AH14&gt;AI14,AI14&gt;0),AH14-AI14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="74" t="e">
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="74" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM14" s="75"/>
-    </row>
-    <row r="15" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AM15" s="28"/>
-    </row>
-    <row r="16" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="39">
-        <f>SUMIF($E12:$E15,"",G12:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="39">
-        <f t="shared" ref="H16:AL16" si="2">SUMIF($E12:$E15,"",H12:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39">
-        <f t="shared" ref="P16" si="3">SUMIF($E12:$E15,"",P12:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="39">
-        <f ca="1">SUMIF($E12:$E15,"",Q12:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="39" t="e">
-        <f>SUMIF($E12:$E15,"",AD12:AD15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI16" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ16" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK16" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM16" s="88"/>
+      <c r="AM13" s="75"/>
+    </row>
+    <row r="14" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AM14" s="28"/>
+    </row>
+    <row r="15" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="39">
+        <f>SUMIF($E11:$E14,"",G11:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="39">
+        <f t="shared" ref="H15:AL15" si="2">SUMIF($E11:$E14,"",H11:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39">
+        <f t="shared" ref="P15" si="3">SUMIF($E11:$E14,"",P11:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="39">
+        <f ca="1">SUMIF($E11:$E14,"",Q11:Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="39" t="e">
+        <f>SUMIF($E11:$E14,"",AD11:AD14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM15" s="88"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -6456,10 +5842,6 @@
       <c r="O17" s="63"/>
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
       <c r="V17" s="63"/>
       <c r="W17" s="63"/>
       <c r="X17" s="63"/>
@@ -6470,7 +5852,9 @@
       <c r="AC17" s="63"/>
       <c r="AD17" s="63"/>
       <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="AF17" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="AG17" s="63"/>
       <c r="AH17" s="63"/>
       <c r="AI17" s="63"/>
@@ -6478,163 +5862,160 @@
       <c r="AK17" s="63"/>
       <c r="AL17" s="63"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-    </row>
-    <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="46"/>
-      <c r="F19" s="118" t="s">
+    <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="46"/>
+      <c r="F18" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="R19" s="119" t="s">
+      <c r="G18" s="93"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="R18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="W19" s="119" t="s">
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="W18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="50"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="92" t="s">
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="50"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="92"/>
-      <c r="AM19" s="52"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AM18" s="52"/>
+    </row>
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="116"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="54"/>
+      <c r="R19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="W19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="AC19" s="44"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
     </row>
     <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="K20" s="54"/>
-      <c r="R20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="W20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="AC20" s="44"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="57"/>
     </row>
     <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="K21" s="54"/>
+      <c r="S21" s="44"/>
       <c r="V21" s="53"/>
       <c r="W21" s="53"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
+      <c r="Z21" s="58"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="57"/>
-    </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="K22" s="54"/>
-      <c r="S22" s="44"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="58"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="44"/>
+      <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -6661,12 +6042,7 @@
       <c r="V23" s="40"/>
       <c r="W23" s="42"/>
       <c r="X23" s="42"/>
-      <c r="Y23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
+      <c r="Y23" s="59"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
@@ -6696,48 +6072,39 @@
       <c r="V24" s="40"/>
       <c r="W24" s="42"/>
       <c r="X24" s="42"/>
-      <c r="Y24" s="59"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25" s="43"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="Y25" s="59"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F26"/>
@@ -6755,59 +6122,31 @@
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26" s="43"/>
-      <c r="U26"/>
+      <c r="U26" s="42"/>
       <c r="V26"/>
       <c r="W26"/>
       <c r="Y26" s="59"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="42"/>
-      <c r="V27"/>
-      <c r="W27"/>
       <c r="Y27" s="59"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="Y28" s="59"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="U30" s="44"/>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:AL11" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}"/>
   <mergeCells count="38">
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A12:C12"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="AJ9:AJ10"/>
@@ -6821,13 +6160,19 @@
     <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6835,13 +6180,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6940,17 +6285,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -6979,17 +6324,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -7012,8 +6357,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -7041,230 +6386,112 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>1</v>
-      </c>
-      <c r="B8" s="19">
-        <v>2</v>
-      </c>
-      <c r="C8" s="19">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19">
-        <v>6</v>
-      </c>
-      <c r="G8" s="19">
+    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="19">
+      <c r="D9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="19">
+      <c r="E9" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="19">
+      <c r="G9" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="19">
+      <c r="H9" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="19">
-        <v>12</v>
-      </c>
-      <c r="M8" s="19">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="19">
+      <c r="R9" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="19">
-        <v>15</v>
-      </c>
-      <c r="P8" s="19">
+      <c r="T9" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="X9" s="110"/>
+      <c r="Y9" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="19">
+      <c r="Z9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="19">
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="19">
+      <c r="AE9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="19">
+      <c r="AF9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="19">
+      <c r="AG9" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="19">
+      <c r="AI9" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="X8" s="19">
+      <c r="AJ9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="AK9" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="AL9" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="19">
+      <c r="AM9" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="19">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="19">
-        <v>29</v>
-      </c>
-      <c r="AD8" s="19">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="19">
-        <v>31</v>
-      </c>
-      <c r="AF8" s="19">
-        <v>32</v>
-      </c>
-      <c r="AG8" s="19">
-        <v>33</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>34</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>36</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>37</v>
-      </c>
-      <c r="AL8" s="19">
-        <v>38</v>
-      </c>
-      <c r="AM8" s="19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="102" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="122" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="V9" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD9" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE9" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG9" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH9" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI9" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ9" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK9" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL9" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM9" s="111" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -7292,19 +6519,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="99"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -7314,281 +6541,274 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>9</v>
-      </c>
-      <c r="I11" s="3">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3">
-        <v>12</v>
-      </c>
-      <c r="L11" s="3">
-        <v>13</v>
-      </c>
-      <c r="M11" s="3">
-        <v>14</v>
-      </c>
-      <c r="P11" s="3">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>17</v>
-      </c>
-      <c r="S11" s="3">
-        <v>18</v>
-      </c>
-      <c r="U11" s="3">
-        <v>20</v>
-      </c>
-      <c r="V11" s="3">
-        <v>8</v>
-      </c>
-      <c r="W11" s="3">
-        <v>21</v>
-      </c>
-      <c r="X11" s="3">
-        <v>22</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>23</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>24</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>26</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>27</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>29</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>30</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>31</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>32</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>33</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>34</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>35</v>
-      </c>
-      <c r="AM11" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="108"/>
+    </row>
+    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38">
-        <f>SUMIF($E13:$E14,$A12,G13:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="38">
-        <f t="shared" ref="H12:AJ12" si="0">SUMIF($E13:$E14,$A12,H13:H14)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="38">
-        <f t="shared" ref="AK12:AL12" si="1">SUMIF($E13:$E14,$A12,AK13:AK14)</f>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="35"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
+        <f>SUMIF($E12:$E13,$A11,G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" ref="H11:AL11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="35"/>
+    </row>
+    <row r="12" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="91">
+        <f>SUM(H12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <f>G12+P12+Q12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="28"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31" t="e">
+        <f>ROUND((R12/F12*S12)+T12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="29">
+        <f>+G12+N12</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="62">
+        <v>0</v>
+      </c>
+      <c r="X12" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="90" t="e">
+        <f>+U12-W12-X12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="29">
+        <f>4400000*AA12</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="29">
+        <f>ROUND(V12*10.5%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="32" t="e">
+        <f>+IF(Y12-Z12-AB12-AC12&gt;0,Y12-Z12-AB12-AC12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE12" s="33" t="e">
+        <f>ROUND(IF(AD12&gt;80000000,AD12*35%-9850000,IF(AD12&gt;52000000,AD12*30%-5850000,IF(AD12&gt;32000000,AD12*25%-3250000,IF(AD12&gt;18000000,AD12*20%-1650000,IF(AD12&gt;10000000,AD12*15%-750000,IF(AD12&gt;5000000,AD12*10%-250000,IF(AD12&gt;0,AD12*5%,0))))))),0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF12" s="33">
+        <f>ROUND(V12*1%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="29" t="e">
+        <f>ROUND(U12-AC12-AE12-AF12 - AG12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI12" s="29" t="e">
+        <f>AH12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="34" t="e">
+        <f>IF(AND(AH12&gt;AI12,AI12&gt;0),AH12-AI12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="34" t="e">
+        <f t="shared" ref="AL12:AL13" si="1">+IF(AE12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM12" s="61"/>
     </row>
     <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
       <c r="P13" s="91">
         <f>SUM(H13:O13)</f>
         <v>0</v>
       </c>
+      <c r="Q13" s="29"/>
       <c r="R13" s="29">
         <f>G13+P13+Q13</f>
         <v>0</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="30"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="70"/>
       <c r="U13" s="31" t="e">
         <f>ROUND((R13/F13*S13)+T13,0)</f>
         <v>#DIV/0!</v>
@@ -7597,23 +6817,23 @@
         <f>+G13+N13</f>
         <v>0</v>
       </c>
-      <c r="W13" s="62">
-        <v>0</v>
-      </c>
-      <c r="X13" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="90" t="e">
+      <c r="W13" s="72">
+        <v>0</v>
+      </c>
+      <c r="X13" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="69" t="e">
         <f>+U13-W13-X13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z13" s="31">
         <v>0</v>
       </c>
-      <c r="AA13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="29">
+      <c r="AA13" s="71">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="69">
         <f>4400000*AA13</f>
         <v>0</v>
       </c>
@@ -7625,7 +6845,7 @@
         <f>+IF(Y13-Z13-AB13-AC13&gt;0,Y13-Z13-AB13-AC13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE13" s="33" t="e">
+      <c r="AE13" s="73" t="e">
         <f>ROUND(IF(AD13&gt;80000000,AD13*35%-9850000,IF(AD13&gt;52000000,AD13*30%-5850000,IF(AD13&gt;32000000,AD13*25%-3250000,IF(AD13&gt;18000000,AD13*20%-1650000,IF(AD13&gt;10000000,AD13*15%-750000,IF(AD13&gt;5000000,AD13*10%-250000,IF(AD13&gt;0,AD13*5%,0))))))),0)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7633,284 +6853,233 @@
         <f>ROUND(V13*1%,0)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="33"/>
+      <c r="AG13" s="73"/>
       <c r="AH13" s="29" t="e">
         <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI13" s="29" t="e">
+      <c r="AI13" s="69" t="e">
         <f>AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="34" t="e">
+      <c r="AJ13" s="74" t="e">
         <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="34" t="e">
-        <f t="shared" ref="AL13:AL14" si="2">+IF(AE13&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM13" s="61"/>
-    </row>
-    <row r="14" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="91">
-        <f>SUM(H14:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29">
-        <f>G14+P14+Q14</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="68"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="31" t="e">
-        <f>ROUND((R14/F14*S14)+T14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V14" s="29">
-        <f>+G14+N14</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="72">
-        <v>0</v>
-      </c>
-      <c r="X14" s="72">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="69" t="e">
-        <f>+U14-W14-X14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z14" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="71">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="69">
-        <f>4400000*AA14</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="29">
-        <f>ROUND(V14*10.5%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="32" t="e">
-        <f>+IF(Y14-Z14-AB14-AC14&gt;0,Y14-Z14-AB14-AC14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE14" s="73" t="e">
-        <f>ROUND(IF(AD14&gt;80000000,AD14*35%-9850000,IF(AD14&gt;52000000,AD14*30%-5850000,IF(AD14&gt;32000000,AD14*25%-3250000,IF(AD14&gt;18000000,AD14*20%-1650000,IF(AD14&gt;10000000,AD14*15%-750000,IF(AD14&gt;5000000,AD14*10%-250000,IF(AD14&gt;0,AD14*5%,0))))))),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF14" s="33">
-        <f>ROUND(V14*1%,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="29" t="e">
-        <f>ROUND(U14-AC14-AE14-AF14 - AG14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI14" s="69" t="e">
-        <f>AH14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ14" s="74" t="e">
-        <f>IF(AND(AH14&gt;AI14,AI14&gt;0),AH14-AI14,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM14" s="75"/>
-    </row>
-    <row r="15" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="81"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AM15" s="28"/>
-    </row>
-    <row r="16" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="39">
-        <f>SUMIF($E12:$E15,"",G12:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="39">
-        <f t="shared" ref="H16:AL16" si="3">SUMIF($E12:$E15,"",H12:H15)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39">
-        <f t="shared" ref="P16" si="4">SUMIF($E12:$E15,"",P12:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="39">
-        <f ca="1">SUMIF($E12:$E15,"",Q12:Q14)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="39" t="e">
-        <f>SUMIF($E12:$E15,"",AD12:AD15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK16" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM16" s="88"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="74" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" s="75"/>
+    </row>
+    <row r="14" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AM14" s="28"/>
+    </row>
+    <row r="15" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="39">
+        <f>SUMIF($E11:$E14,"",G11:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="39">
+        <f t="shared" ref="H15:AL15" si="2">SUMIF($E11:$E14,"",H11:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39">
+        <f t="shared" ref="P15" si="3">SUMIF($E11:$E14,"",P11:P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="39">
+        <f ca="1">SUMIF($E11:$E14,"",Q11:Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="39" t="e">
+        <f>SUMIF($E11:$E14,"",AD11:AD14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM15" s="88"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -7930,10 +7099,6 @@
       <c r="O17" s="63"/>
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
       <c r="V17" s="63"/>
       <c r="W17" s="63"/>
       <c r="X17" s="63"/>
@@ -7944,7 +7109,9 @@
       <c r="AC17" s="63"/>
       <c r="AD17" s="63"/>
       <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
+      <c r="AF17" s="63" t="s">
+        <v>52</v>
+      </c>
       <c r="AG17" s="63"/>
       <c r="AH17" s="63"/>
       <c r="AI17" s="63"/>
@@ -7952,163 +7119,160 @@
       <c r="AK17" s="63"/>
       <c r="AL17" s="63"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-    </row>
-    <row r="19" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="46"/>
-      <c r="F19" s="118" t="s">
+    <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="46"/>
+      <c r="F18" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="K19" s="48"/>
-      <c r="R19" s="119" t="s">
+      <c r="G18" s="93"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="R18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="W19" s="119" t="s">
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="W18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="50"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="92" t="s">
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="50"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="92"/>
-      <c r="AM19" s="52"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AM18" s="52"/>
+    </row>
+    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="116"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="54"/>
+      <c r="R19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="W19" s="116" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="AC19" s="44"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
     </row>
     <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="K20" s="54"/>
-      <c r="R20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="W20" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="AC20" s="44"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="53"/>
+      <c r="AJ20" s="53"/>
+      <c r="AK20" s="53"/>
+      <c r="AL20" s="53"/>
+      <c r="AM20" s="57"/>
     </row>
     <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="K21" s="54"/>
+      <c r="S21" s="44"/>
       <c r="V21" s="53"/>
       <c r="W21" s="53"/>
       <c r="X21" s="53"/>
       <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
+      <c r="Z21" s="58"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="53"/>
-      <c r="AL21" s="53"/>
-      <c r="AM21" s="57"/>
-    </row>
-    <row r="22" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="K22" s="54"/>
-      <c r="S22" s="44"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="58"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="44"/>
+      <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -8135,12 +7299,7 @@
       <c r="V23" s="40"/>
       <c r="W23" s="42"/>
       <c r="X23" s="42"/>
-      <c r="Y23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
+      <c r="Y23" s="59"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
@@ -8170,48 +7329,39 @@
       <c r="V24" s="40"/>
       <c r="W24" s="42"/>
       <c r="X24" s="42"/>
-      <c r="Y24" s="59"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25" s="43"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="Y25" s="59"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="F26"/>
@@ -8229,59 +7379,31 @@
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26" s="43"/>
-      <c r="U26"/>
+      <c r="U26" s="42"/>
       <c r="V26"/>
       <c r="W26"/>
       <c r="Y26" s="59"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="42"/>
-      <c r="V27"/>
-      <c r="W27"/>
       <c r="Y27" s="59"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="Y28" s="59"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="U30" s="44"/>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:AL11" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}"/>
   <mergeCells count="38">
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A12:C12"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="AJ9:AJ10"/>
@@ -8295,13 +7417,19 @@
     <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE355D52-792D-4864-B594-A7FCAB35E185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396BF92-A5B5-4CF8-876B-BC268282CD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
@@ -816,6 +816,81 @@
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,88 +903,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2392,11 +2392,11 @@
   </sheetPr>
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,11 +2417,12 @@
     <col min="14" max="14" width="16.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="3" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="14.140625" style="3" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10.140625" style="3" hidden="1" customWidth="1"/>
@@ -2432,8 +2433,8 @@
     <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="3" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="17.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="16.85546875" style="3" customWidth="1"/>
     <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
     <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
@@ -2495,17 +2496,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -2534,17 +2535,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -2567,8 +2568,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2598,110 +2599,110 @@
     </row>
     <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="112" t="s">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="97" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="124" t="s">
+      <c r="R9" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="97" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="100" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="123" t="s">
+      <c r="V9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="109" t="s">
+      <c r="W9" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="97" t="s">
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="102" t="s">
+      <c r="Z9" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103" t="s">
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="97" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="106" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="106" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="106" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="112" t="s">
+      <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="113" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="97" t="s">
+      <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="115" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="95" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="108" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="97"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -2729,19 +2730,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="97"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="99"/>
+      <c r="Y10" s="104"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -2751,24 +2752,24 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="108"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -3159,16 +3160,22 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="39"/>
+      <c r="O15" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P15" s="39">
-        <f t="shared" ref="P15" si="4">SUMIF($E11:$E14,"",P11:P14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15" s="39">
-        <f ca="1">SUMIF($E11:$E14,"",Q11:Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="39"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3210,11 +3217,11 @@
         <v>0</v>
       </c>
       <c r="AC15" s="39">
-        <f t="shared" ref="AC15" si="5">SUMIF($E11:$E14,"",AC11:AC14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD15" s="39" t="e">
-        <f>SUMIF($E11:$E14,"",AD11:AD14)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="39" t="e">
@@ -3331,24 +3338,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="94" t="s">
+      <c r="R18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="W18" s="94" t="s">
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="W18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -3363,24 +3370,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="116"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="116" t="s">
+      <c r="R19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="W19" s="116" t="s">
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="W19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -3602,6 +3609,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="P5:X5"/>
     <mergeCell ref="P6:X6"/>
@@ -3618,28 +3647,6 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="AC9:AC10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3664,7 +3671,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,11 +3692,12 @@
     <col min="14" max="14" width="16.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="3" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="14.140625" style="3" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10.140625" style="3" hidden="1" customWidth="1"/>
@@ -3700,8 +3708,8 @@
     <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="3" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="17.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="16.85546875" style="3" customWidth="1"/>
     <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
     <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
@@ -3763,17 +3771,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -3802,17 +3810,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -3835,8 +3843,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3866,110 +3874,110 @@
     </row>
     <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="112" t="s">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="97" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="124" t="s">
+      <c r="R9" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="97" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="100" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="123" t="s">
+      <c r="V9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="109" t="s">
+      <c r="W9" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="97" t="s">
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="102" t="s">
+      <c r="Z9" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103" t="s">
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="97" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="106" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="106" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="106" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="112" t="s">
+      <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="113" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="97" t="s">
+      <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="115" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="95" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="108" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="97"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -3997,19 +4005,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="97"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="99"/>
+      <c r="Y10" s="104"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -4019,24 +4027,24 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="108"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -4427,16 +4435,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="39"/>
+      <c r="O15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P15" s="39">
-        <f t="shared" ref="P15" si="3">SUMIF($E11:$E14,"",P11:P14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15" s="39">
-        <f ca="1">SUMIF($E11:$E14,"",Q11:Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="39"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="S15" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4482,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="39" t="e">
-        <f>SUMIF($E11:$E14,"",AD11:AD14)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="39" t="e">
@@ -4599,24 +4613,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="94" t="s">
+      <c r="R18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="W18" s="94" t="s">
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="W18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -4631,24 +4645,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="116"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="116" t="s">
+      <c r="R19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="W19" s="116" t="s">
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="W19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -4870,25 +4884,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
@@ -4902,12 +4902,26 @@
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -4929,7 +4943,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4950,11 +4964,12 @@
     <col min="14" max="14" width="16.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="3" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="14.140625" style="3" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10.140625" style="3" hidden="1" customWidth="1"/>
@@ -4965,8 +4980,8 @@
     <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="3" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="17.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="16.85546875" style="3" customWidth="1"/>
     <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
     <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
@@ -5028,17 +5043,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -5067,17 +5082,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -5100,8 +5115,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5131,110 +5146,110 @@
     </row>
     <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="112" t="s">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="97" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="124" t="s">
+      <c r="R9" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="97" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="100" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="123" t="s">
+      <c r="V9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="109" t="s">
+      <c r="W9" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="97" t="s">
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="102" t="s">
+      <c r="Z9" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103" t="s">
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="97" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="106" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="106" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="106" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="112" t="s">
+      <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="113" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="97" t="s">
+      <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="115" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="95" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="108" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="97"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -5262,19 +5277,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="97"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="99"/>
+      <c r="Y10" s="104"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -5284,24 +5299,24 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="108"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -5692,16 +5707,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="39"/>
+      <c r="O15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P15" s="39">
-        <f t="shared" ref="P15" si="3">SUMIF($E11:$E14,"",P11:P14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15" s="39">
-        <f ca="1">SUMIF($E11:$E14,"",Q11:Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="39"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="S15" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5747,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="39" t="e">
-        <f>SUMIF($E11:$E14,"",AD11:AD14)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="39" t="e">
@@ -5864,24 +5885,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="94" t="s">
+      <c r="R18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="W18" s="94" t="s">
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="W18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -5896,24 +5917,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="116"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="116" t="s">
+      <c r="R19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="W19" s="116" t="s">
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="W19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -6135,17 +6156,19 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
@@ -6158,21 +6181,19 @@
     <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="AC9:AC10"/>
     <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6182,11 +6203,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6207,11 +6228,12 @@
     <col min="14" max="14" width="16.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="3" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="3" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16" style="3" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="8.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.140625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="3" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="14.140625" style="3" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10.140625" style="3" hidden="1" customWidth="1"/>
@@ -6222,8 +6244,8 @@
     <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
     <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="15" style="3" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="17.7109375" style="3" customWidth="1"/>
+    <col min="35" max="35" width="16.85546875" style="3" customWidth="1"/>
     <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
     <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
@@ -6285,17 +6307,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -6324,17 +6346,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -6357,8 +6379,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6388,110 +6410,110 @@
     </row>
     <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="112" t="s">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="97" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="124" t="s">
+      <c r="R9" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="97" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="100" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="123" t="s">
+      <c r="V9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="109" t="s">
+      <c r="W9" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="97" t="s">
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="102" t="s">
+      <c r="Z9" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103" t="s">
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="97" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="106" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="106" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="106" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="112" t="s">
+      <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="113" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="97" t="s">
+      <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="115" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="95" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="108" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="97"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -6519,19 +6541,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="97"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="99"/>
+      <c r="Y10" s="104"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -6541,24 +6563,24 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="108"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -6949,16 +6971,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O15" s="39"/>
+      <c r="O15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P15" s="39">
-        <f t="shared" ref="P15" si="3">SUMIF($E11:$E14,"",P11:P14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q15" s="39">
-        <f ca="1">SUMIF($E11:$E14,"",Q11:Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="39"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="S15" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -7004,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="39" t="e">
-        <f>SUMIF($E11:$E14,"",AD11:AD14)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="39" t="e">
@@ -7121,24 +7149,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="94" t="s">
+      <c r="R18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="W18" s="94" t="s">
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="W18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -7153,24 +7181,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="116"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="116" t="s">
+      <c r="R19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="W19" s="116" t="s">
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="W19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -7392,17 +7420,19 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
@@ -7415,21 +7445,19 @@
     <mergeCell ref="AF9:AF10"/>
     <mergeCell ref="AC9:AC10"/>
     <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396BF92-A5B5-4CF8-876B-BC268282CD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE60C1-3B9A-4B66-8498-4B7478E04B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
@@ -816,6 +816,75 @@
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,12 +897,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,73 +906,10 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2392,11 +2392,11 @@
   </sheetPr>
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,17 +2496,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -2535,17 +2535,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -2568,8 +2568,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2599,110 +2599,110 @@
     </row>
     <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="122" t="s">
+      <c r="T9" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="106" t="s">
+      <c r="U9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="105" t="s">
+      <c r="V9" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
+      <c r="X9" s="110"/>
+      <c r="Y9" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="102" t="s">
+      <c r="AD9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="109" t="s">
+      <c r="AE9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="109" t="s">
+      <c r="AF9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="109" t="s">
+      <c r="AG9" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="98" t="s">
+      <c r="AH9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="115" t="s">
+      <c r="AI9" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="102" t="s">
+      <c r="AJ9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="117" t="s">
+      <c r="AK9" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="120" t="s">
+      <c r="AL9" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="111" t="s">
+      <c r="AM9" s="108" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -2730,19 +2730,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="99"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -2752,24 +2752,24 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="108"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -2983,7 +2983,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ12" s="34" t="e">
-        <f>IF(AND(AH12&gt;AI12,AI12&gt;0),AH12-AI12,0)</f>
+        <f>IF(AH12&gt;AI12,AH12-AI12,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK12" s="29"/>
@@ -3073,8 +3073,8 @@
         <f>AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="74" t="e">
-        <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
+      <c r="AJ13" s="34" t="e">
+        <f>IF(AH13&gt;AI13,AH13-AI13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK13" s="69"/>
@@ -3338,24 +3338,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="118"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="W18" s="119" t="s">
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="W18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -3370,24 +3370,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="93" t="s">
+      <c r="R19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="W19" s="93" t="s">
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="W19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -3609,28 +3609,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="P5:X5"/>
     <mergeCell ref="P6:X6"/>
@@ -3647,6 +3625,28 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="AC9:AC10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3668,10 +3668,10 @@
   <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3771,17 +3771,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -3810,17 +3810,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -3843,8 +3843,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3874,110 +3874,110 @@
     </row>
     <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="122" t="s">
+      <c r="T9" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="106" t="s">
+      <c r="U9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="105" t="s">
+      <c r="V9" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
+      <c r="X9" s="110"/>
+      <c r="Y9" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="102" t="s">
+      <c r="AD9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="109" t="s">
+      <c r="AE9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="109" t="s">
+      <c r="AF9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="109" t="s">
+      <c r="AG9" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="98" t="s">
+      <c r="AH9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="115" t="s">
+      <c r="AI9" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="102" t="s">
+      <c r="AJ9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="117" t="s">
+      <c r="AK9" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="120" t="s">
+      <c r="AL9" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="111" t="s">
+      <c r="AM9" s="108" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -4005,19 +4005,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="99"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -4027,24 +4027,24 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="108"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -4258,7 +4258,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ12" s="34" t="e">
-        <f>IF(AND(AH12&gt;AI12,AI12&gt;0),AH12-AI12,0)</f>
+        <f>IF(AH12&gt;AI12,AH12-AI12,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK12" s="29"/>
@@ -4348,8 +4348,8 @@
         <f>AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="74" t="e">
-        <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
+      <c r="AJ13" s="34" t="e">
+        <f>IF(AH13&gt;AI13,AH13-AI13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK13" s="69"/>
@@ -4613,24 +4613,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="118"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="W18" s="119" t="s">
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="W18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -4645,24 +4645,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="93" t="s">
+      <c r="R19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="W19" s="93" t="s">
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="W19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -4884,11 +4884,25 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
@@ -4902,26 +4916,12 @@
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="T9:T10"/>
     <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -4943,7 +4943,7 @@
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5043,17 +5043,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -5082,17 +5082,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -5115,8 +5115,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5146,110 +5146,110 @@
     </row>
     <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="122" t="s">
+      <c r="T9" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="106" t="s">
+      <c r="U9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="105" t="s">
+      <c r="V9" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
+      <c r="X9" s="110"/>
+      <c r="Y9" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="102" t="s">
+      <c r="AD9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="109" t="s">
+      <c r="AE9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="109" t="s">
+      <c r="AF9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="109" t="s">
+      <c r="AG9" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="98" t="s">
+      <c r="AH9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="115" t="s">
+      <c r="AI9" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="102" t="s">
+      <c r="AJ9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="117" t="s">
+      <c r="AK9" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="120" t="s">
+      <c r="AL9" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="111" t="s">
+      <c r="AM9" s="108" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -5277,19 +5277,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="99"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -5299,24 +5299,24 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="108"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -5530,7 +5530,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ12" s="34" t="e">
-        <f>IF(AND(AH12&gt;AI12,AI12&gt;0),AH12-AI12,0)</f>
+        <f>IF(AH12&gt;AI12,AH12-AI12,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK12" s="29"/>
@@ -5620,8 +5620,8 @@
         <f>AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="74" t="e">
-        <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
+      <c r="AJ13" s="34" t="e">
+        <f>IF(AH13&gt;AI13,AH13-AI13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK13" s="69"/>
@@ -5885,24 +5885,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="118"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="W18" s="119" t="s">
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="W18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -5917,24 +5917,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="93" t="s">
+      <c r="R19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="W19" s="93" t="s">
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="W19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -6156,6 +6156,31 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="W19:Y19"/>
@@ -6169,31 +6194,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6203,11 +6203,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6307,17 +6307,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -6346,17 +6346,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -6379,8 +6379,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6410,110 +6410,110 @@
     </row>
     <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="122" t="s">
+      <c r="T9" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="106" t="s">
+      <c r="U9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="105" t="s">
+      <c r="V9" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
+      <c r="X9" s="110"/>
+      <c r="Y9" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="102" t="s">
+      <c r="AD9" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="109" t="s">
+      <c r="AE9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="109" t="s">
+      <c r="AF9" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="109" t="s">
+      <c r="AG9" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="98" t="s">
+      <c r="AH9" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="115" t="s">
+      <c r="AI9" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="102" t="s">
+      <c r="AJ9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="117" t="s">
+      <c r="AK9" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="120" t="s">
+      <c r="AL9" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="111" t="s">
+      <c r="AM9" s="108" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -6541,19 +6541,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="99"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -6563,24 +6563,24 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="99"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="108"/>
     </row>
     <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -6794,7 +6794,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AJ12" s="34" t="e">
-        <f>IF(AND(AH12&gt;AI12,AI12&gt;0),AH12-AI12,0)</f>
+        <f>IF(AH12&gt;AI12,AH12-AI12,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK12" s="29"/>
@@ -6884,8 +6884,8 @@
         <f>AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ13" s="74" t="e">
-        <f>IF(AND(AH13&gt;AI13,AI13&gt;0),AH13-AI13,0)</f>
+      <c r="AJ13" s="34" t="e">
+        <f>IF(AH13&gt;AI13,AH13-AI13,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK13" s="69"/>
@@ -7149,24 +7149,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="118"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="W18" s="119" t="s">
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="W18" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -7181,24 +7181,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="93" t="s">
+      <c r="R19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="W19" s="93" t="s">
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="W19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -7420,6 +7420,31 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="W19:Y19"/>
@@ -7433,31 +7458,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FE60C1-3B9A-4B66-8498-4B7478E04B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9275443F-B801-4E14-A1E9-41B69706DC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Đông Hòa, ngày 30 tháng 11 năm 2024</t>
+  </si>
+  <si>
+    <t>Địa điểm làm việc</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -816,6 +819,81 @@
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,88 +906,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2390,13 +2396,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,27 +2445,28 @@
     <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="3"/>
+    <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2482,7 +2489,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2496,17 +2503,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -2521,7 +2528,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2535,17 +2542,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -2560,7 +2567,7 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
     </row>
-    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -2568,8 +2575,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2597,112 +2604,115 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="112" t="s">
+    <row r="8" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="97" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="124" t="s">
+      <c r="R9" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="97" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="100" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="123" t="s">
+      <c r="V9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="109" t="s">
+      <c r="W9" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="97" t="s">
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="102" t="s">
+      <c r="Z9" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103" t="s">
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="97" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="106" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="106" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="106" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="112" t="s">
+      <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="113" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="97" t="s">
+      <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="115" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="95" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="108" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="97"/>
+      <c r="AN9" s="125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -2730,19 +2740,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="97"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="99"/>
+      <c r="Y10" s="104"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -2752,24 +2762,25 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="108"/>
-    </row>
-    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="125"/>
+    </row>
+    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -2902,8 +2913,9 @@
         <v>0</v>
       </c>
       <c r="AM11" s="35"/>
-    </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN11" s="28"/>
+    </row>
+    <row r="12" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -2992,8 +3004,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM12" s="61"/>
-    </row>
-    <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN12" s="28"/>
+    </row>
+    <row r="13" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -3082,9 +3095,10 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM13" s="75"/>
-    </row>
-    <row r="14" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="28"/>
+    </row>
+    <row r="14" spans="1:40" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -3121,7 +3135,7 @@
       <c r="AJ14" s="84"/>
       <c r="AM14" s="28"/>
     </row>
-    <row r="15" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -3258,7 +3272,7 @@
       </c>
       <c r="AM15" s="88"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -3338,24 +3352,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="94" t="s">
+      <c r="R18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="W18" s="94" t="s">
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="W18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -3370,24 +3384,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="116"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="116" t="s">
+      <c r="R19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="W19" s="116" t="s">
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="W19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -3608,7 +3622,30 @@
       <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="P5:X5"/>
     <mergeCell ref="P6:X6"/>
@@ -3625,28 +3662,6 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="AC9:AC10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3665,13 +3680,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AJ13" sqref="AJ13"/>
+      <selection pane="bottomRight" activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3714,27 +3729,28 @@
     <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="3"/>
+    <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3757,7 +3773,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -3771,17 +3787,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -3796,7 +3812,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3810,17 +3826,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -3835,7 +3851,7 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
     </row>
-    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -3843,8 +3859,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3872,112 +3888,115 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="112" t="s">
+    <row r="8" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="97" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="124" t="s">
+      <c r="R9" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="97" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="100" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="123" t="s">
+      <c r="V9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="109" t="s">
+      <c r="W9" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="97" t="s">
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="102" t="s">
+      <c r="Z9" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103" t="s">
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="97" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="106" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="106" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="106" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="112" t="s">
+      <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="113" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="97" t="s">
+      <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="115" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="95" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="108" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="97"/>
+      <c r="AN9" s="125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -4005,19 +4024,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="97"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="99"/>
+      <c r="Y10" s="104"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -4027,24 +4046,25 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="108"/>
-    </row>
-    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="125"/>
+    </row>
+    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -4177,8 +4197,9 @@
         <v>0</v>
       </c>
       <c r="AM11" s="35"/>
-    </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN11" s="28"/>
+    </row>
+    <row r="12" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -4267,8 +4288,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM12" s="61"/>
-    </row>
-    <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN12" s="28"/>
+    </row>
+    <row r="13" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -4358,8 +4380,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM13" s="75"/>
-    </row>
-    <row r="14" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN13" s="28"/>
+    </row>
+    <row r="14" spans="1:40" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -4396,7 +4419,7 @@
       <c r="AJ14" s="84"/>
       <c r="AM14" s="28"/>
     </row>
-    <row r="15" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -4533,7 +4556,7 @@
       </c>
       <c r="AM15" s="88"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -4613,24 +4636,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="94" t="s">
+      <c r="R18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="W18" s="94" t="s">
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="W18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -4645,24 +4668,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="116"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="116" t="s">
+      <c r="R19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="W19" s="116" t="s">
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="W19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -4883,26 +4906,13 @@
       <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="T9:T10"/>
+  <mergeCells count="39">
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
@@ -4917,11 +4927,25 @@
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -4937,13 +4961,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AJ13" sqref="AJ13"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4986,27 +5010,28 @@
     <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="3"/>
+    <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5029,7 +5054,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5043,17 +5068,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -5068,7 +5093,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -5082,17 +5107,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -5107,7 +5132,7 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
     </row>
-    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -5115,8 +5140,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5144,112 +5169,115 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="112" t="s">
+    <row r="8" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="97" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="124" t="s">
+      <c r="R9" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="97" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="100" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="123" t="s">
+      <c r="V9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="109" t="s">
+      <c r="W9" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="97" t="s">
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="102" t="s">
+      <c r="Z9" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103" t="s">
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="97" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="106" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="106" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="106" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="112" t="s">
+      <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="113" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="97" t="s">
+      <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="115" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="95" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="108" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="97"/>
+      <c r="AN9" s="125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -5277,19 +5305,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="97"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="99"/>
+      <c r="Y10" s="104"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -5299,24 +5327,25 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="108"/>
-    </row>
-    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="125"/>
+    </row>
+    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -5449,8 +5478,9 @@
         <v>0</v>
       </c>
       <c r="AM11" s="35"/>
-    </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN11" s="28"/>
+    </row>
+    <row r="12" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -5539,8 +5569,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM12" s="61"/>
-    </row>
-    <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN12" s="28"/>
+    </row>
+    <row r="13" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -5630,8 +5661,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM13" s="75"/>
-    </row>
-    <row r="14" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN13" s="28"/>
+    </row>
+    <row r="14" spans="1:40" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -5668,7 +5700,7 @@
       <c r="AJ14" s="84"/>
       <c r="AM14" s="28"/>
     </row>
-    <row r="15" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -5805,7 +5837,7 @@
       </c>
       <c r="AM15" s="88"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -5885,24 +5917,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="94" t="s">
+      <c r="R18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="W18" s="94" t="s">
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="W18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -5917,24 +5949,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="116"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="116" t="s">
+      <c r="R19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="W19" s="116" t="s">
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="W19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -6155,7 +6187,33 @@
       <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="R18:U18"/>
@@ -6169,31 +6227,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6201,13 +6234,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AJ13" sqref="AJ13"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6250,27 +6283,28 @@
     <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="3"/>
+    <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6293,7 +6327,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:39" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -6307,17 +6341,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="117" t="s">
+      <c r="P5" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -6332,7 +6366,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -6346,17 +6380,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="118" t="s">
+      <c r="P6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -6371,7 +6405,7 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
     </row>
-    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -6379,8 +6413,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6408,112 +6442,115 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:39" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:39" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="112" t="s">
+    <row r="8" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="97" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="124" t="s">
+      <c r="R9" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="97" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="100" t="s">
+      <c r="T9" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="123" t="s">
+      <c r="V9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="109" t="s">
+      <c r="W9" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="97" t="s">
+      <c r="X9" s="113"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="102" t="s">
+      <c r="Z9" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103" t="s">
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="97" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="106" t="s">
+      <c r="AE9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="106" t="s">
+      <c r="AF9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="106" t="s">
+      <c r="AG9" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="112" t="s">
+      <c r="AH9" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="113" t="s">
+      <c r="AI9" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="97" t="s">
+      <c r="AJ9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="115" t="s">
+      <c r="AK9" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="95" t="s">
+      <c r="AL9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="108" t="s">
+      <c r="AM9" s="111" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="97"/>
+      <c r="AN9" s="125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -6541,19 +6578,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="97"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="99"/>
+      <c r="Y10" s="104"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -6563,24 +6600,25 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="108"/>
-    </row>
-    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="125"/>
+    </row>
+    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -6713,8 +6751,9 @@
         <v>0</v>
       </c>
       <c r="AM11" s="35"/>
-    </row>
-    <row r="12" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN11" s="28"/>
+    </row>
+    <row r="12" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -6803,8 +6842,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM12" s="61"/>
-    </row>
-    <row r="13" spans="1:39" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN12" s="28"/>
+    </row>
+    <row r="13" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -6894,8 +6934,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM13" s="75"/>
-    </row>
-    <row r="14" spans="1:39" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AN13" s="28"/>
+    </row>
+    <row r="14" spans="1:40" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -6932,7 +6973,7 @@
       <c r="AJ14" s="84"/>
       <c r="AM14" s="28"/>
     </row>
-    <row r="15" spans="1:39" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -7069,7 +7110,7 @@
       </c>
       <c r="AM15" s="88"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -7149,24 +7190,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="93"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="94" t="s">
+      <c r="R18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="W18" s="94" t="s">
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="W18" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -7181,24 +7222,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="116"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="116" t="s">
+      <c r="R19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="W19" s="116" t="s">
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="W19" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -7419,7 +7460,33 @@
       <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="R18:U18"/>
@@ -7433,31 +7500,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9275443F-B801-4E14-A1E9-41B69706DC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4581FBF7-AF3C-43F7-B525-1C8DD44106E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
   <si>
     <t>STT</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Địa điểm làm việc</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
   </si>
 </sst>
 </file>
@@ -819,6 +822,78 @@
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,12 +906,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,76 +915,10 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2396,13 +2399,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="10" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AC21" sqref="AC21"/>
+      <selection pane="bottomRight" activeCell="AO1" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,27 +2449,28 @@
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
     <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="3"/>
+    <col min="41" max="41" width="18.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2489,7 +2493,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2503,17 +2507,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -2528,7 +2532,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2542,17 +2546,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -2567,7 +2571,7 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
     </row>
-    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -2575,8 +2579,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2604,115 +2608,118 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
+    <row r="8" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="122" t="s">
+      <c r="T9" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="106" t="s">
+      <c r="U9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="105" t="s">
+      <c r="V9" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
+      <c r="X9" s="111"/>
+      <c r="Y9" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="102" t="s">
+      <c r="AD9" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="109" t="s">
+      <c r="AE9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="109" t="s">
+      <c r="AF9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="109" t="s">
+      <c r="AG9" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="98" t="s">
+      <c r="AH9" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="115" t="s">
+      <c r="AI9" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="102" t="s">
+      <c r="AJ9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="117" t="s">
+      <c r="AK9" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="120" t="s">
+      <c r="AL9" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="111" t="s">
+      <c r="AM9" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="125" t="s">
+      <c r="AN9" s="93" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="AO9" s="93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="113"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -2740,19 +2747,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="100"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -2762,25 +2769,26 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="125"/>
-    </row>
-    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="109"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+    </row>
+    <row r="11" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -2914,8 +2922,9 @@
       </c>
       <c r="AM11" s="35"/>
       <c r="AN11" s="28"/>
-    </row>
-    <row r="12" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO11" s="28"/>
+    </row>
+    <row r="12" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -3005,8 +3014,9 @@
       </c>
       <c r="AM12" s="61"/>
       <c r="AN12" s="28"/>
-    </row>
-    <row r="13" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO12" s="28"/>
+    </row>
+    <row r="13" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -3097,8 +3107,9 @@
       </c>
       <c r="AM13" s="61"/>
       <c r="AN13" s="28"/>
-    </row>
-    <row r="14" spans="1:40" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO13" s="28"/>
+    </row>
+    <row r="14" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -3135,7 +3146,7 @@
       <c r="AJ14" s="84"/>
       <c r="AM14" s="28"/>
     </row>
-    <row r="15" spans="1:40" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -3272,7 +3283,7 @@
       </c>
       <c r="AM15" s="88"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -3352,24 +3363,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="118"/>
+      <c r="G18" s="94"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="W18" s="119" t="s">
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="W18" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -3384,24 +3395,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="117"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="93" t="s">
+      <c r="R19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="W19" s="93" t="s">
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="W19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -3622,30 +3633,8 @@
       <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AK9:AK10"/>
+  <mergeCells count="40">
+    <mergeCell ref="AO9:AO10"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="P5:X5"/>
     <mergeCell ref="P6:X6"/>
@@ -3662,6 +3651,29 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="W19:Y19"/>
     <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="AC9:AC10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3680,13 +3692,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AM29" sqref="AM29"/>
+      <selection pane="bottomRight" activeCell="AO1" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3730,27 +3742,28 @@
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
     <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="3"/>
+    <col min="41" max="41" width="18.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3773,7 +3786,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -3787,17 +3800,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -3812,7 +3825,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3826,17 +3839,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -3851,7 +3864,7 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
     </row>
-    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -3859,8 +3872,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3888,115 +3901,118 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
+    <row r="8" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="122" t="s">
+      <c r="T9" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="106" t="s">
+      <c r="U9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="105" t="s">
+      <c r="V9" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
+      <c r="X9" s="111"/>
+      <c r="Y9" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="102" t="s">
+      <c r="AD9" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="109" t="s">
+      <c r="AE9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="109" t="s">
+      <c r="AF9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="109" t="s">
+      <c r="AG9" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="98" t="s">
+      <c r="AH9" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="115" t="s">
+      <c r="AI9" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="102" t="s">
+      <c r="AJ9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="117" t="s">
+      <c r="AK9" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="120" t="s">
+      <c r="AL9" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="111" t="s">
+      <c r="AM9" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="125" t="s">
+      <c r="AN9" s="93" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="AO9" s="93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="113"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -4024,19 +4040,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="100"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -4046,25 +4062,26 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="125"/>
-    </row>
-    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="109"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+    </row>
+    <row r="11" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -4198,8 +4215,9 @@
       </c>
       <c r="AM11" s="35"/>
       <c r="AN11" s="28"/>
-    </row>
-    <row r="12" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO11" s="28"/>
+    </row>
+    <row r="12" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -4289,8 +4307,9 @@
       </c>
       <c r="AM12" s="61"/>
       <c r="AN12" s="28"/>
-    </row>
-    <row r="13" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO12" s="28"/>
+    </row>
+    <row r="13" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -4381,8 +4400,9 @@
       </c>
       <c r="AM13" s="75"/>
       <c r="AN13" s="28"/>
-    </row>
-    <row r="14" spans="1:40" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO13" s="28"/>
+    </row>
+    <row r="14" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -4419,7 +4439,7 @@
       <c r="AJ14" s="84"/>
       <c r="AM14" s="28"/>
     </row>
-    <row r="15" spans="1:40" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -4556,7 +4576,7 @@
       </c>
       <c r="AM15" s="88"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -4636,24 +4656,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="118"/>
+      <c r="G18" s="94"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="W18" s="119" t="s">
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="W18" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -4668,24 +4688,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="117"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="93" t="s">
+      <c r="R19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="W19" s="93" t="s">
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="W19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -4906,13 +4926,27 @@
       <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
+  <mergeCells count="40">
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="P5:X5"/>
+    <mergeCell ref="P6:X6"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
@@ -4927,25 +4961,12 @@
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="P5:X5"/>
-    <mergeCell ref="P6:X6"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -4961,13 +4982,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="AO1" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5011,27 +5032,28 @@
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
     <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="3"/>
+    <col min="41" max="41" width="18.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5054,7 +5076,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5068,17 +5090,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -5093,7 +5115,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -5107,17 +5129,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -5132,7 +5154,7 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
     </row>
-    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -5140,8 +5162,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5169,115 +5191,118 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
+    <row r="8" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="122" t="s">
+      <c r="T9" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="106" t="s">
+      <c r="U9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="105" t="s">
+      <c r="V9" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
+      <c r="X9" s="111"/>
+      <c r="Y9" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="102" t="s">
+      <c r="AD9" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="109" t="s">
+      <c r="AE9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="109" t="s">
+      <c r="AF9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="109" t="s">
+      <c r="AG9" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="98" t="s">
+      <c r="AH9" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="115" t="s">
+      <c r="AI9" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="102" t="s">
+      <c r="AJ9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="117" t="s">
+      <c r="AK9" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="120" t="s">
+      <c r="AL9" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="111" t="s">
+      <c r="AM9" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="125" t="s">
+      <c r="AN9" s="93" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="AO9" s="93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="113"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -5305,19 +5330,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="100"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -5327,25 +5352,26 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="125"/>
-    </row>
-    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="109"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+    </row>
+    <row r="11" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -5479,8 +5505,9 @@
       </c>
       <c r="AM11" s="35"/>
       <c r="AN11" s="28"/>
-    </row>
-    <row r="12" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO11" s="28"/>
+    </row>
+    <row r="12" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -5570,8 +5597,9 @@
       </c>
       <c r="AM12" s="61"/>
       <c r="AN12" s="28"/>
-    </row>
-    <row r="13" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO12" s="28"/>
+    </row>
+    <row r="13" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -5662,8 +5690,9 @@
       </c>
       <c r="AM13" s="75"/>
       <c r="AN13" s="28"/>
-    </row>
-    <row r="14" spans="1:40" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO13" s="28"/>
+    </row>
+    <row r="14" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -5700,7 +5729,7 @@
       <c r="AJ14" s="84"/>
       <c r="AM14" s="28"/>
     </row>
-    <row r="15" spans="1:40" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -5837,7 +5866,7 @@
       </c>
       <c r="AM15" s="88"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -5917,24 +5946,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="118"/>
+      <c r="G18" s="94"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="W18" s="119" t="s">
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="W18" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -5949,24 +5978,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="117"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="93" t="s">
+      <c r="R19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="W19" s="93" t="s">
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="W19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -6187,7 +6216,33 @@
       <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="R19:U19"/>
@@ -6202,31 +6257,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6234,13 +6264,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97666D5E-E27B-4C7D-8F3C-37539DDADFBC}">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="AM24" sqref="AM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6284,27 +6314,28 @@
     <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
     <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="3"/>
+    <col min="41" max="41" width="18.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6327,7 +6358,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:40" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -6341,17 +6372,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -6366,7 +6397,7 @@
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:40" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -6380,17 +6411,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -6405,7 +6436,7 @@
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
     </row>
-    <row r="7" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -6413,8 +6444,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6442,115 +6473,118 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:40" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="98" t="s">
+    <row r="8" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H9" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="102" t="s">
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="122" t="s">
+      <c r="T9" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="106" t="s">
+      <c r="U9" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="105" t="s">
+      <c r="V9" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="102" t="s">
+      <c r="X9" s="111"/>
+      <c r="Y9" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="97" t="s">
+      <c r="Z9" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="124" t="s">
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="102" t="s">
+      <c r="AD9" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="109" t="s">
+      <c r="AE9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="109" t="s">
+      <c r="AF9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="109" t="s">
+      <c r="AG9" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="98" t="s">
+      <c r="AH9" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="115" t="s">
+      <c r="AI9" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="102" t="s">
+      <c r="AJ9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="117" t="s">
+      <c r="AK9" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="120" t="s">
+      <c r="AL9" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="111" t="s">
+      <c r="AM9" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="125" t="s">
+      <c r="AN9" s="93" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="102"/>
+      <c r="AO9" s="93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="113"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -6578,19 +6612,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="102"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="104"/>
+      <c r="Y10" s="100"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -6600,25 +6634,26 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="125"/>
-    </row>
-    <row r="11" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="100"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="109"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+    </row>
+    <row r="11" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -6752,8 +6787,9 @@
       </c>
       <c r="AM11" s="35"/>
       <c r="AN11" s="28"/>
-    </row>
-    <row r="12" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO11" s="28"/>
+    </row>
+    <row r="12" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -6843,8 +6879,9 @@
       </c>
       <c r="AM12" s="61"/>
       <c r="AN12" s="28"/>
-    </row>
-    <row r="13" spans="1:40" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AO12" s="28"/>
+    </row>
+    <row r="13" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -6935,8 +6972,9 @@
       </c>
       <c r="AM13" s="75"/>
       <c r="AN13" s="28"/>
-    </row>
-    <row r="14" spans="1:40" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AO13" s="28"/>
+    </row>
+    <row r="14" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -6973,7 +7011,7 @@
       <c r="AJ14" s="84"/>
       <c r="AM14" s="28"/>
     </row>
-    <row r="15" spans="1:40" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -7110,7 +7148,7 @@
       </c>
       <c r="AM15" s="88"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -7190,24 +7228,24 @@
     </row>
     <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="118"/>
+      <c r="G18" s="94"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="119" t="s">
+      <c r="R18" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="W18" s="119" t="s">
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="W18" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
@@ -7222,24 +7260,24 @@
       <c r="AM18" s="52"/>
     </row>
     <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="93"/>
+      <c r="G19" s="117"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="93" t="s">
+      <c r="R19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="W19" s="93" t="s">
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="W19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
@@ -7460,7 +7498,33 @@
       <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="R19:U19"/>
@@ -7475,31 +7539,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/it_api/wwwroot/report/excel/Bảng lương.xlsx
+++ b/it_api/wwwroot/report/excel/Bảng lương.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\netcore\it_api\it_api\wwwroot\report\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4581FBF7-AF3C-43F7-B525-1C8DD44106E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B721C2-6061-4C90-910E-FCC91B8B81B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tất cả" sheetId="18" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Dịch vụ'!$A$11:$AL$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Học việc,thử việc'!$A$11:$AL$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Học việc,thử việc'!$A$11:$AM$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Nhân viên'!$A$11:$AJ$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tất cả'!$A$11:$AM$13</definedName>
     <definedName name="bangluong" localSheetId="1">'Nhân viên'!$A$9:$AE$14</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="56">
   <si>
     <t>STT</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Khoản cộng sau thuế</t>
   </si>
 </sst>
 </file>
@@ -825,100 +828,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2399,13 +2402,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="10" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AO1" sqref="AO1:AO1048576"/>
+      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,37 +2443,38 @@
     <col min="28" max="28" width="14.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="19.85546875" style="3" customWidth="1"/>
     <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7109375" style="3" customWidth="1"/>
-    <col min="35" max="35" width="16.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
-    <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="18.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="3"/>
+    <col min="31" max="31" width="12.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="17.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="16.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" style="3" customWidth="1"/>
+    <col min="38" max="38" width="7.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="40.7109375" style="6" customWidth="1"/>
+    <col min="41" max="41" width="18.28515625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="18.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2493,7 +2497,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:41" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2507,17 +2511,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="118" t="s">
+      <c r="P5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="118"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -2531,8 +2535,9 @@
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-    </row>
-    <row r="6" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="1:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2546,17 +2551,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="119" t="s">
+      <c r="P6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -2570,8 +2575,9 @@
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
-    </row>
-    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL6" s="12"/>
+    </row>
+    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -2579,8 +2585,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2608,118 +2614,121 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="113" t="s">
+    <row r="8" spans="1:42" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="98" t="s">
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="125" t="s">
+      <c r="R9" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="98" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="101" t="s">
+      <c r="T9" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="125" t="s">
+      <c r="U9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="110" t="s">
+      <c r="W9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="98" t="s">
+      <c r="X9" s="101"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="104" t="s">
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="98" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="107" t="s">
+      <c r="AE9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="107" t="s">
+      <c r="AF9" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="107" t="s">
+      <c r="AG9" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="113" t="s">
+      <c r="AH9" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI9" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="114" t="s">
+      <c r="AJ9" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="98" t="s">
+      <c r="AK9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="116" t="s">
+      <c r="AL9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="96" t="s">
+      <c r="AM9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="109" t="s">
+      <c r="AN9" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="93" t="s">
+      <c r="AO9" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="AO9" s="93" t="s">
+      <c r="AP9" s="93" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="98"/>
+    <row r="10" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="107"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -2747,19 +2756,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="98"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="100"/>
+      <c r="Y10" s="103"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -2769,26 +2778,27 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="115"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="109"/>
-      <c r="AN10" s="93"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="109"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="124"/>
       <c r="AO10" s="93"/>
-    </row>
-    <row r="11" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+      <c r="AP10" s="93"/>
+    </row>
+    <row r="11" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -2797,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="38">
-        <f t="shared" ref="H11:AJ11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
+        <f t="shared" ref="H11:AM11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
         <v>0</v>
       </c>
       <c r="I11" s="38">
@@ -2901,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="38">
-        <f t="shared" si="0"/>
+        <f>SUMIF($E12:$E13,$A11,AH12:AH13)</f>
         <v>0</v>
       </c>
       <c r="AI11" s="38">
@@ -2913,18 +2923,22 @@
         <v>0</v>
       </c>
       <c r="AK11" s="38">
-        <f t="shared" ref="AK11:AL11" si="1">SUMIF($E12:$E13,$A11,AK12:AK13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AL11" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="28"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="35"/>
       <c r="AO11" s="28"/>
-    </row>
-    <row r="12" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP11" s="28"/>
+    </row>
+    <row r="12" spans="1:42" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -2995,28 +3009,29 @@
         <v>0</v>
       </c>
       <c r="AG12" s="33"/>
-      <c r="AH12" s="29" t="e">
-        <f>ROUND(U12-AC12-AE12-AF12 - AG12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AH12" s="29"/>
       <c r="AI12" s="29" t="e">
-        <f>AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="34" t="e">
-        <f>IF(AH12&gt;AI12,AH12-AI12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="34" t="e">
-        <f t="shared" ref="AL12:AL13" si="2">+IF(AE12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="28"/>
+        <f>ROUND(U12-AC12-AE12-AF12 - AG12 +AH12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="29" t="e">
+        <f>AI12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="34" t="e">
+        <f>IF(AI12&gt;AJ12,AI12-AJ12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="34" t="e">
+        <f>+IF(AE12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN12" s="61"/>
       <c r="AO12" s="28"/>
-    </row>
-    <row r="13" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP12" s="28"/>
+    </row>
+    <row r="13" spans="1:42" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -3088,28 +3103,29 @@
         <v>0</v>
       </c>
       <c r="AG13" s="73"/>
-      <c r="AH13" s="29" t="e">
-        <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="69" t="e">
-        <f>AH13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="34" t="e">
-        <f>IF(AH13&gt;AI13,AH13-AI13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM13" s="61"/>
-      <c r="AN13" s="28"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="29" t="e">
+        <f>ROUND(U13-AC13-AE13-AF13 - AG13 +AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="29" t="e">
+        <f>AI13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="34" t="e">
+        <f>IF(AI13&gt;AJ13,AI13-AJ13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="74" t="e">
+        <f>+IF(AE13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN13" s="75"/>
       <c r="AO13" s="28"/>
-    </row>
-    <row r="14" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP13" s="28"/>
+    </row>
+    <row r="14" spans="1:42" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -3144,9 +3160,10 @@
       <c r="AH14" s="84"/>
       <c r="AI14" s="84"/>
       <c r="AJ14" s="84"/>
-      <c r="AM14" s="28"/>
-    </row>
-    <row r="15" spans="1:41" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK14" s="84"/>
+      <c r="AN14" s="28"/>
+    </row>
+    <row r="15" spans="1:42" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -3158,132 +3175,136 @@
         <v>0</v>
       </c>
       <c r="H15" s="39">
-        <f t="shared" ref="H15:AL15" si="3">SUMIF($E11:$E14,"",H11:H14)</f>
+        <f t="shared" ref="H15:AM15" si="1">SUMIF($E11:$E14,"",H11:H14)</f>
         <v>0</v>
       </c>
       <c r="I15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG15" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="39">
+        <f>SUMIF($E11:$E14,"",AH11:AH14)</f>
+        <v>0</v>
       </c>
       <c r="AI15" s="39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ15" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK15" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM15" s="88"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL15" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN15" s="88"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -3322,8 +3343,9 @@
       <c r="AJ16" s="63"/>
       <c r="AK16" s="63"/>
       <c r="AL16" s="63"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM16" s="63"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
@@ -3360,71 +3382,74 @@
       <c r="AJ17" s="63"/>
       <c r="AK17" s="63"/>
       <c r="AL17" s="63"/>
-    </row>
-    <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM17" s="63"/>
+    </row>
+    <row r="18" spans="1:40" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="94"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="95" t="s">
+      <c r="R18" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="W18" s="95" t="s">
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="W18" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
       <c r="AF18" s="51"/>
       <c r="AG18" s="51"/>
-      <c r="AH18" s="92" t="s">
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AI18" s="92"/>
       <c r="AJ18" s="92"/>
       <c r="AK18" s="92"/>
-      <c r="AM18" s="52"/>
-    </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="117" t="s">
+      <c r="AL18" s="92"/>
+      <c r="AN18" s="52"/>
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="117"/>
+      <c r="G19" s="111"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="117" t="s">
+      <c r="R19" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="W19" s="117" t="s">
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="W19" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
       <c r="AG19" s="42"/>
-      <c r="AH19" s="54" t="s">
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AI19" s="54"/>
       <c r="AJ19" s="54"/>
       <c r="AK19" s="54"/>
-    </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL19" s="54"/>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
@@ -3458,9 +3483,10 @@
       <c r="AJ20" s="53"/>
       <c r="AK20" s="53"/>
       <c r="AL20" s="53"/>
-      <c r="AM20" s="57"/>
-    </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="57"/>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="4"/>
@@ -3480,8 +3506,9 @@
       <c r="AI21" s="53"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="53"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL21" s="53"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
@@ -3515,8 +3542,9 @@
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AK22" s="4"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="41"/>
@@ -3545,8 +3573,9 @@
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AK23" s="4"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="41"/>
@@ -3583,8 +3612,9 @@
       <c r="AH24" s="42"/>
       <c r="AI24" s="42"/>
       <c r="AJ24" s="42"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AK24" s="42"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -3605,7 +3635,7 @@
       <c r="W25"/>
       <c r="Y25" s="59"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -3626,31 +3656,40 @@
       <c r="W26"/>
       <c r="Y26" s="59"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Y27" s="59"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
     <mergeCell ref="AO9:AO10"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="P5:X5"/>
     <mergeCell ref="P6:X6"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="V9:V10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="R9:R10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="AP9:AP10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="AG9:AG10"/>
     <mergeCell ref="AM9:AM10"/>
@@ -3664,16 +3703,8 @@
     <mergeCell ref="AI9:AI10"/>
     <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="W18:Y18"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="AC9:AC10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -3692,13 +3723,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="11" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AO1" sqref="AO1:AO1048576"/>
+      <selection pane="bottomRight" activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,37 +3764,38 @@
     <col min="28" max="28" width="14.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="19.85546875" style="3" customWidth="1"/>
     <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7109375" style="3" customWidth="1"/>
-    <col min="35" max="35" width="16.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
-    <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="18.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="3"/>
+    <col min="31" max="31" width="12.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="17.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="16.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" style="3" customWidth="1"/>
+    <col min="38" max="38" width="7.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="40.7109375" style="6" customWidth="1"/>
+    <col min="41" max="41" width="18.28515625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="18.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3786,7 +3818,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:41" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -3800,17 +3832,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="118" t="s">
+      <c r="P5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="118"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -3824,8 +3856,9 @@
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-    </row>
-    <row r="6" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="1:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3839,17 +3872,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="119" t="s">
+      <c r="P6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -3863,8 +3896,9 @@
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
-    </row>
-    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL6" s="12"/>
+    </row>
+    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -3872,8 +3906,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3901,118 +3935,121 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="113" t="s">
+    <row r="8" spans="1:42" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="98" t="s">
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="125" t="s">
+      <c r="R9" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="98" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="101" t="s">
+      <c r="T9" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="125" t="s">
+      <c r="U9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="110" t="s">
+      <c r="W9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="98" t="s">
+      <c r="X9" s="101"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="104" t="s">
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="98" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="107" t="s">
+      <c r="AE9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="107" t="s">
+      <c r="AF9" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="107" t="s">
+      <c r="AG9" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="113" t="s">
+      <c r="AH9" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI9" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="114" t="s">
+      <c r="AJ9" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="98" t="s">
+      <c r="AK9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="116" t="s">
+      <c r="AL9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="96" t="s">
+      <c r="AM9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="109" t="s">
+      <c r="AN9" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="93" t="s">
+      <c r="AO9" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="AO9" s="93" t="s">
+      <c r="AP9" s="93" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="98"/>
+    <row r="10" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="107"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -4040,19 +4077,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="98"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="100"/>
+      <c r="Y10" s="103"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -4062,26 +4099,27 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="115"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="109"/>
-      <c r="AN10" s="93"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="109"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="124"/>
       <c r="AO10" s="93"/>
-    </row>
-    <row r="11" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+      <c r="AP10" s="93"/>
+    </row>
+    <row r="11" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -4090,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="38">
-        <f t="shared" ref="H11:AL11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
+        <f t="shared" ref="H11:AM11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
         <v>0</v>
       </c>
       <c r="I11" s="38">
@@ -4194,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="38">
-        <f t="shared" si="0"/>
+        <f>SUMIF($E12:$E13,$A11,AH12:AH13)</f>
         <v>0</v>
       </c>
       <c r="AI11" s="38">
@@ -4213,11 +4251,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="28"/>
+      <c r="AM11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="35"/>
       <c r="AO11" s="28"/>
-    </row>
-    <row r="12" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP11" s="28"/>
+    </row>
+    <row r="12" spans="1:42" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -4288,28 +4330,29 @@
         <v>0</v>
       </c>
       <c r="AG12" s="33"/>
-      <c r="AH12" s="29" t="e">
-        <f>ROUND(U12-AC12-AE12-AF12 - AG12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AH12" s="29"/>
       <c r="AI12" s="29" t="e">
-        <f>AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="34" t="e">
-        <f>IF(AH12&gt;AI12,AH12-AI12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="34" t="e">
-        <f t="shared" ref="AL12:AL13" si="1">+IF(AE12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="28"/>
+        <f>ROUND(U12-AC12-AE12-AF12 - AG12 +AH12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="29" t="e">
+        <f>AI12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="34" t="e">
+        <f>IF(AI12&gt;AJ12,AI12-AJ12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="34" t="e">
+        <f>+IF(AE12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN12" s="61"/>
       <c r="AO12" s="28"/>
-    </row>
-    <row r="13" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP12" s="28"/>
+    </row>
+    <row r="13" spans="1:42" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -4381,28 +4424,29 @@
         <v>0</v>
       </c>
       <c r="AG13" s="73"/>
-      <c r="AH13" s="29" t="e">
-        <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="69" t="e">
-        <f>AH13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="34" t="e">
-        <f>IF(AH13&gt;AI13,AH13-AI13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="28"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="29" t="e">
+        <f>ROUND(U13-AC13-AE13-AF13 - AG13 +AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="29" t="e">
+        <f>AI13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="34" t="e">
+        <f>IF(AI13&gt;AJ13,AI13-AJ13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="74" t="e">
+        <f>+IF(AE13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN13" s="75"/>
       <c r="AO13" s="28"/>
-    </row>
-    <row r="14" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP13" s="28"/>
+    </row>
+    <row r="14" spans="1:42" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -4437,9 +4481,10 @@
       <c r="AH14" s="84"/>
       <c r="AI14" s="84"/>
       <c r="AJ14" s="84"/>
-      <c r="AM14" s="28"/>
-    </row>
-    <row r="15" spans="1:41" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK14" s="84"/>
+      <c r="AN14" s="28"/>
+    </row>
+    <row r="15" spans="1:42" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -4451,132 +4496,136 @@
         <v>0</v>
       </c>
       <c r="H15" s="39">
-        <f t="shared" ref="H15:AL15" si="2">SUMIF($E11:$E14,"",H11:H14)</f>
+        <f t="shared" ref="H15:AM15" si="1">SUMIF($E11:$E14,"",H11:H14)</f>
         <v>0</v>
       </c>
       <c r="I15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U15" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y15" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD15" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG15" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="39">
+        <f>SUMIF($E11:$E14,"",AH11:AH14)</f>
+        <v>0</v>
       </c>
       <c r="AI15" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ15" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK15" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM15" s="88"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL15" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN15" s="88"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -4615,8 +4664,9 @@
       <c r="AJ16" s="63"/>
       <c r="AK16" s="63"/>
       <c r="AL16" s="63"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM16" s="63"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
@@ -4653,71 +4703,74 @@
       <c r="AJ17" s="63"/>
       <c r="AK17" s="63"/>
       <c r="AL17" s="63"/>
-    </row>
-    <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM17" s="63"/>
+    </row>
+    <row r="18" spans="1:40" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="94"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="95" t="s">
+      <c r="R18" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="W18" s="95" t="s">
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="W18" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
       <c r="AF18" s="51"/>
       <c r="AG18" s="51"/>
-      <c r="AH18" s="92" t="s">
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AI18" s="92"/>
       <c r="AJ18" s="92"/>
       <c r="AK18" s="92"/>
-      <c r="AM18" s="52"/>
-    </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="117" t="s">
+      <c r="AL18" s="92"/>
+      <c r="AN18" s="52"/>
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="117"/>
+      <c r="G19" s="111"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="K19" s="54"/>
-      <c r="R19" s="117" t="s">
+      <c r="R19" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="W19" s="117" t="s">
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="W19" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
       <c r="AC19" s="44"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
       <c r="AG19" s="42"/>
-      <c r="AH19" s="54" t="s">
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="AI19" s="54"/>
       <c r="AJ19" s="54"/>
       <c r="AK19" s="54"/>
-    </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL19" s="54"/>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
@@ -4751,9 +4804,10 @@
       <c r="AJ20" s="53"/>
       <c r="AK20" s="53"/>
       <c r="AL20" s="53"/>
-      <c r="AM20" s="57"/>
-    </row>
-    <row r="21" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="57"/>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="4"/>
@@ -4773,8 +4827,9 @@
       <c r="AI21" s="53"/>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="53"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AL21" s="53"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="41"/>
@@ -4808,8 +4863,9 @@
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AK22" s="4"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="41"/>
@@ -4838,8 +4894,9 @@
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AK23" s="4"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="41"/>
@@ -4876,8 +4933,9 @@
       <c r="AH24" s="42"/>
       <c r="AI24" s="42"/>
       <c r="AJ24" s="42"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AK24" s="42"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -4898,7 +4956,7 @@
       <c r="W25"/>
       <c r="Y25" s="59"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -4919,34 +4977,40 @@
       <c r="W26"/>
       <c r="Y26" s="59"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="Y27" s="59"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="U29" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="A11:C11"/>
+  <mergeCells count="41">
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="R18:U18"/>
     <mergeCell ref="W18:Y18"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="W19:Y19"/>
     <mergeCell ref="P5:X5"/>
     <mergeCell ref="P6:X6"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:X9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AP9:AP10"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="AL9:AL10"/>
     <mergeCell ref="AK9:AK10"/>
@@ -4961,12 +5025,7 @@
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="R19:U19"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0" top="0" bottom="0.2" header="0.2" footer="0.21"/>
@@ -4982,13 +5041,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA328694-02BD-4BAC-A76D-F3A5CDAC8619}">
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="V12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AO1" sqref="AO1:AO1048576"/>
+      <selection pane="bottomRight" activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5023,37 +5082,38 @@
     <col min="28" max="28" width="14.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="19.85546875" style="3" customWidth="1"/>
     <col min="30" max="30" width="14.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="12.42578125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="12.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7109375" style="3" customWidth="1"/>
-    <col min="35" max="35" width="16.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="7.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="40.7109375" style="6" customWidth="1"/>
-    <col min="40" max="40" width="18.28515625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="18.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="3"/>
+    <col min="31" max="31" width="12.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="39.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="17.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="16.85546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" style="3" customWidth="1"/>
+    <col min="38" max="38" width="7.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="40.7109375" style="6" customWidth="1"/>
+    <col min="41" max="41" width="18.28515625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="18.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5076,7 +5136,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:41" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5090,17 +5150,17 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="118" t="s">
+      <c r="P5" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="118"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="10"/>
@@ -5114,8 +5174,9 @@
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-    </row>
-    <row r="6" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="1:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -5129,17 +5190,17 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="119" t="s">
+      <c r="P6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="119"/>
-      <c r="V6" s="119"/>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="13"/>
@@ -5153,8 +5214,9 @@
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
-    </row>
-    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AL6" s="12"/>
+    </row>
+    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -5162,8 +5224,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5191,118 +5253,121 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="113" t="s">
+    <row r="8" spans="1:42" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:42" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="98" t="s">
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="125" t="s">
+      <c r="R9" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="98" t="s">
+      <c r="S9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="101" t="s">
+      <c r="T9" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="125" t="s">
+      <c r="U9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="110" t="s">
+      <c r="W9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="98" t="s">
+      <c r="X9" s="101"/>
+      <c r="Y9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="104" t="s">
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="98" t="s">
+      <c r="AD9" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="107" t="s">
+      <c r="AE9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="107" t="s">
+      <c r="AF9" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" s="107" t="s">
+      <c r="AG9" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AH9" s="113" t="s">
+      <c r="AH9" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI9" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AI9" s="114" t="s">
+      <c r="AJ9" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="AJ9" s="98" t="s">
+      <c r="AK9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="AK9" s="116" t="s">
+      <c r="AL9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AL9" s="96" t="s">
+      <c r="AM9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AM9" s="109" t="s">
+      <c r="AN9" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="AN9" s="93" t="s">
+      <c r="AO9" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="AO9" s="93" t="s">
+      <c r="AP9" s="93" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="98"/>
+    <row r="10" spans="1:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="107"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="21" t="s">
         <v>45</v>
       </c>
@@ -5330,19 +5395,19 @@
       <c r="P10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="98"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="21" t="s">
         <v>28</v>
       </c>
       <c r="X10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="100"/>
+      <c r="Y10" s="103"/>
       <c r="Z10" s="23" t="s">
         <v>30</v>
       </c>
@@ -5352,26 +5417,27 @@
       <c r="AB10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="108"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="115"/>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="109"/>
-      <c r="AN10" s="93"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="109"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="124"/>
       <c r="AO10" s="93"/>
-    </row>
-    <row r="11" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+      <c r="AP10" s="93"/>
+    </row>
+    <row r="11" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -5380,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="38">
-        <f t="shared" ref="H11:AL11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
+        <f t="shared" ref="H11:AM11" si="0">SUMIF($E12:$E13,$A11,H12:H13)</f>
         <v>0</v>
       </c>
       <c r="I11" s="38">
@@ -5484,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="38">
-        <f t="shared" si="0"/>
+        <f>SUMIF($E12:$E13,$A11,AH12:AH13)</f>
         <v>0</v>
       </c>
       <c r="AI11" s="38">
@@ -5503,11 +5569,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="28"/>
+      <c r="AM11" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="35"/>
       <c r="AO11" s="28"/>
-    </row>
-    <row r="12" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP11" s="28"/>
+    </row>
+    <row r="12" spans="1:42" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
@@ -5578,28 +5648,29 @@
         <v>0</v>
       </c>
       <c r="AG12" s="33"/>
-      <c r="AH12" s="29" t="e">
-        <f>ROUND(U12-AC12-AE12-AF12 - AG12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AH12" s="29"/>
       <c r="AI12" s="29" t="e">
-        <f>AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ12" s="34" t="e">
-        <f>IF(AH12&gt;AI12,AH12-AI12,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="34" t="e">
-        <f t="shared" ref="AL12:AL13" si="1">+IF(AE12&gt;0,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="28"/>
+        <f>ROUND(U12-AC12-AE12-AF12 - AG12 +AH12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12" s="29" t="e">
+        <f>AI12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK12" s="34" t="e">
+        <f>IF(AI12&gt;AJ12,AI12-AJ12,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="34" t="e">
+        <f>+IF(AE12&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN12" s="61"/>
       <c r="AO12" s="28"/>
-    </row>
-    <row r="13" spans="1:41" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP12" s="28"/>
+    </row>
+    <row r="13" spans="1:42" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
@@ -5671,28 +5742,29 @@
         <v>0</v>
       </c>
       <c r="AG13" s="73"/>
-      <c r="AH13" s="29" t="e">
-        <f>ROUND(U13-AC13-AE13-AF13 - AG13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI13" s="69" t="e">
-        <f>AH13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ13" s="34" t="e">
-        <f>IF(AH13&gt;AI13,AH13-AI13,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="28"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="29" t="e">
+        <f>ROUND(U13-AC13-AE13-AF13 - AG13 +AH13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ13" s="29" t="e">
+        <f>AI13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK13" s="34" t="e">
+        <f>IF(AI13&gt;AJ13,AI13-AJ13,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="74" t="e">
+        <f>+IF(AE13&gt;0,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN13" s="75"/>
       <c r="AO13" s="28"/>
-    </row>
-    <row r="14" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP13" s="28"/>
+    </row>
+    <row r="14" spans="1:42" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -5727,9 +5799,10 @@
       <c r="AH14" s="84"/>
       <c r="AI14" s="84"/>
       <c r="AJ14" s="84"/>
-      <c r="AM14" s="28"/>
-    </row>
-    <row r="15" spans="1:41" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK14" s="84"/>
+      <c r="AN14" s="28"/>
+    </row>
+    <row r="15" spans="1:42" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="86"/>
       <c r="C15" s="87"/>
@@ -5741,132 +5814,136 @@
         <v>0</v>
       </c>
       <c r="H15" s="39">
-        <f t="shared" ref="H15:AL15" si="2">SUMIF($E11:$E14,"",H11:H14)</f>
+        <f t="shared" ref="H15:AM15" si="1">SUMIF($E11:$E14,"",H11:H14)</f>
         <v>0</v>
       </c>
       <c r="I15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U15" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y15" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AD15" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF15" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG15" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="39">
+        <f>SUMIF($E11:$E14,"",AH11:AH14)</f>
+        <v>0</v>
       </c>
       <c r="AI15" s="39" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ15" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK15" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM15" s="88"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL15" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN15" s="88"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -5905,8 +5982,9 @@
       <c r="AJ16" s="63"/>
       <c r="AK16" s="63"/>
       <c r="AL16" s="63"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM16" s="63"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
@@ -5943,71 +6021,74 @@
       <c r="AJ17" s="63"/>
       <c r="AK17" s="63"/>
       <c r="AL17" s="63"/>
-    </row>
-    <row r="18" spans="1:39" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM17" s="63"/>
+    </row>
+    <row r="18" spans="1:40" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="46"/>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="94"/>
+      <c r="G18" s="113"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="K18" s="48"/>
-      <c r="R18" s="95" t="s">
+      <c r="R18" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="W18" s="95" t="s">
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="W18" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
       <c r="AE18" s="51"/>
       <c r="AF18" s="51"/>
       <c r="AG18" s="51"/>
-      <c r="AH18" s="92" t="s">
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AI18" s="92"/>
       <c r="AJ18" s="92"/>
       <c r="AK18" s="92"/>
-      <c r="AM18" s="52"/>
-    </row>
-    <row r="19" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-   